--- a/CoilDesign/AnalysisResult_LessFerrites/Less Ferrites.xlsx
+++ b/CoilDesign/AnalysisResult_LessFerrites/Less Ferrites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\CoilDesign\AnalysisResult_LessFerrites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1404B3B9-D4EE-43B5-8DB0-5134313B4F33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7184F22-B987-4703-B061-2BD7EAF61A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ydisp" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="368">
   <si>
     <t>Variation</t>
   </si>
@@ -1138,6 +1138,12 @@
   </si>
   <si>
     <t>50.8092915028267nH</t>
+  </si>
+  <si>
+    <t>6 Ferrites Y sweep (top of Ferrites)</t>
+  </si>
+  <si>
+    <t>6 Ferrites Y sweep (in Gap)</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1627,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1634,6 +1640,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5786,10 +5793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D02989-F4B6-4C9B-BB89-45B9B948CA00}">
-  <dimension ref="B1:AA75"/>
+  <dimension ref="B1:AA105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6070,7 +6077,7 @@
         <v>91.639889885577603</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H6:H37" si="21">2*PI()*150000*Ipt*Ipt*D7*(10^-9)</f>
+        <f t="shared" ref="H7:H37" si="21">2*PI()*150000*Ipt*Ipt*D7*(10^-9)</f>
         <v>63.276512396513084</v>
       </c>
       <c r="I7" s="1">
@@ -8628,7 +8635,7 @@
         <v>112.12351345792932</v>
       </c>
       <c r="Y38" s="4">
-        <f t="shared" ref="Y38:Y69" si="35">X38*$G$1</f>
+        <f t="shared" ref="Y38:Y64" si="35">X38*$G$1</f>
         <v>560.61756728964656</v>
       </c>
     </row>
@@ -11189,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" ref="J70:J101" si="40">F70*SQRT(H70*I70)</f>
+        <f t="shared" ref="J70:J75" si="40">F70*SQRT(H70*I70)</f>
         <v>0</v>
       </c>
       <c r="K70">
@@ -11209,7 +11216,7 @@
         <v>0.75065083067029503</v>
       </c>
       <c r="Q70">
-        <f t="shared" ref="Q70:Q101" si="45">P70/SQRT(N70*O70)</f>
+        <f t="shared" ref="Q70:Q75" si="45">P70/SQRT(N70*O70)</f>
         <v>8.633242099687112E-2</v>
       </c>
       <c r="S70" s="4">
@@ -11221,11 +11228,11 @@
         <v>1.1806056046243965</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" ref="U70:U101" si="48">S70*T70</f>
+        <f t="shared" ref="U70:U75" si="48">S70*T70</f>
         <v>4.1762255098178507</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" ref="V70:V101" si="49">U70*$N$1</f>
+        <f t="shared" ref="V70:V75" si="49">U70*$N$1</f>
         <v>20.881127549089253</v>
       </c>
       <c r="W70" s="4"/>
@@ -11646,6 +11653,1839 @@
       <c r="Y75" s="4">
         <f t="shared" si="37"/>
         <v>556.02452604849111</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J76" s="2"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J77" s="2"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J78" s="2"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y80" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2464.4481810000002</v>
+      </c>
+      <c r="E81" s="1">
+        <v>125.2816789</v>
+      </c>
+      <c r="F81">
+        <v>8.7872526000000006E-2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>48.826628810000003</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" ref="H81:H91" si="50">2*PI()*150000*Ipt*Ipt*D81*(10^-9)</f>
+        <v>58.067192254367477</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" ref="I81:I91" si="51">2*PI()*150000*Ist*Ist*E81*(10^-9)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" ref="J81:J91" si="52">F81*SQRT(H81*I81)</f>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ref="K81:K91" si="53">2*PI()*150000*G81*Ipt*(10^-9)</f>
+        <v>0.23009006755357761</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ref="N81:N91" si="54">D81*$D$1^2*10^-3</f>
+        <v>22.180033629</v>
+      </c>
+      <c r="O81">
+        <f t="shared" ref="O81:O91" si="55">E81*$D$2^2*10^-3</f>
+        <v>3.1320419725000002</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ref="P81:P91" si="56">G81*$D$1*$D$2*10^-3</f>
+        <v>0.73239943215000014</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ref="Q81:Q91" si="57">P81/SQRT(N81*O81)</f>
+        <v>8.7872526237405102E-2</v>
+      </c>
+      <c r="S81" s="4">
+        <f t="shared" ref="S81:S91" si="58">w*P81*10^-6*$G$1</f>
+        <v>3.4513510133036651</v>
+      </c>
+      <c r="T81" s="4">
+        <f t="shared" ref="T81:T91" si="59">P81*$G$1/O81</f>
+        <v>1.1692043698338404</v>
+      </c>
+      <c r="U81" s="4">
+        <f t="shared" ref="U81:U91" si="60">S81*T81</f>
+        <v>4.0353346865850979</v>
+      </c>
+      <c r="V81" s="5">
+        <f t="shared" ref="V81:V91" si="61">U81*$N$1</f>
+        <v>20.17667343292549</v>
+      </c>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4">
+        <f t="shared" ref="X81:X91" si="62">w*N81*10^-6*$G$1</f>
+        <v>104.52094605786144</v>
+      </c>
+      <c r="Y81" s="4">
+        <f t="shared" ref="Y81:Y91" si="63">X81*$G$1</f>
+        <v>522.60473028930721</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2462.0288580000001</v>
+      </c>
+      <c r="E82" s="1">
+        <v>125.2160021</v>
+      </c>
+      <c r="F82">
+        <v>8.7333416999999997E-2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>48.490530829999997</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="50"/>
+        <v>58.010188299141511</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="53"/>
+        <v>0.22850624313629606</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="54"/>
+        <v>22.158259722000004</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="55"/>
+        <v>3.1304000525000002</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="56"/>
+        <v>0.72735796244999984</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="57"/>
+        <v>8.7333416887999823E-2</v>
+      </c>
+      <c r="S82" s="4">
+        <f t="shared" si="58"/>
+        <v>3.4275936470444401</v>
+      </c>
+      <c r="T82" s="4">
+        <f t="shared" si="59"/>
+        <v>1.1617651901537587</v>
+      </c>
+      <c r="U82" s="4">
+        <f t="shared" si="60"/>
+        <v>3.9820589851283992</v>
+      </c>
+      <c r="V82" s="5">
+        <f t="shared" si="61"/>
+        <v>19.910294925641995</v>
+      </c>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4">
+        <f t="shared" si="62"/>
+        <v>104.41833893845472</v>
+      </c>
+      <c r="Y82" s="4">
+        <f t="shared" si="63"/>
+        <v>522.09169469227368</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2461.272872</v>
+      </c>
+      <c r="E83" s="1">
+        <v>125.1017112</v>
+      </c>
+      <c r="F83">
+        <v>8.6113839999999997E-2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>47.784216000000001</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="50"/>
+        <v>57.992375798662884</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="53"/>
+        <v>0.2251778129147218</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="54"/>
+        <v>22.151455848000001</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="55"/>
+        <v>3.1275427799999997</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="56"/>
+        <v>0.71676324000000002</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="57"/>
+        <v>8.6113840302527112E-2</v>
+      </c>
+      <c r="S83" s="4">
+        <f t="shared" si="58"/>
+        <v>3.3776671937208262</v>
+      </c>
+      <c r="T83" s="4">
+        <f t="shared" si="59"/>
+        <v>1.1458887862119029</v>
+      </c>
+      <c r="U83" s="4">
+        <f t="shared" si="60"/>
+        <v>3.8704309608405221</v>
+      </c>
+      <c r="V83" s="5">
+        <f t="shared" si="61"/>
+        <v>19.352154804202609</v>
+      </c>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4">
+        <f t="shared" si="62"/>
+        <v>104.3862764375932</v>
+      </c>
+      <c r="Y83" s="4">
+        <f t="shared" si="63"/>
+        <v>521.93138218796594</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2463.4997069999999</v>
+      </c>
+      <c r="E84" s="1">
+        <v>125.3588613</v>
+      </c>
+      <c r="F84">
+        <v>8.4031682999999996E-2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>46.697844799999999</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="50"/>
+        <v>58.044844362238557</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="53"/>
+        <v>0.22005840924323447</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="54"/>
+        <v>22.171497363</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="55"/>
+        <v>3.1339715325000004</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="56"/>
+        <v>0.70046767200000004</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="57"/>
+        <v>8.4031682797580484E-2</v>
+      </c>
+      <c r="S84" s="4">
+        <f t="shared" si="58"/>
+        <v>3.3008761386485173</v>
+      </c>
+      <c r="T84" s="4">
+        <f t="shared" si="59"/>
+        <v>1.1175399405131643</v>
+      </c>
+      <c r="U84" s="4">
+        <f t="shared" si="60"/>
+        <v>3.6888609236265872</v>
+      </c>
+      <c r="V84" s="5">
+        <f t="shared" si="61"/>
+        <v>18.444304618132936</v>
+      </c>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4">
+        <f t="shared" si="62"/>
+        <v>104.48071985202941</v>
+      </c>
+      <c r="Y84" s="4">
+        <f t="shared" si="63"/>
+        <v>522.40359926014708</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2459.8161230000001</v>
+      </c>
+      <c r="E85" s="1">
+        <v>125.1728653</v>
+      </c>
+      <c r="F85">
+        <v>8.1228281999999999E-2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>45.072711650000002</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="50"/>
+        <v>57.958051958988953</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="53"/>
+        <v>0.21240014969551665</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="54"/>
+        <v>22.138345107000003</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="55"/>
+        <v>3.1293216325</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="56"/>
+        <v>0.67609067475000006</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="57"/>
+        <v>8.1228282023577889E-2</v>
+      </c>
+      <c r="S85" s="4">
+        <f t="shared" si="58"/>
+        <v>3.1860022454327499</v>
+      </c>
+      <c r="T85" s="4">
+        <f t="shared" si="59"/>
+        <v>1.080251176051013</v>
+      </c>
+      <c r="U85" s="4">
+        <f t="shared" si="60"/>
+        <v>3.4416826725298959</v>
+      </c>
+      <c r="V85" s="5">
+        <f t="shared" si="61"/>
+        <v>17.20841336264948</v>
+      </c>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4">
+        <f t="shared" si="62"/>
+        <v>104.32449352618011</v>
+      </c>
+      <c r="Y85" s="4">
+        <f t="shared" si="63"/>
+        <v>521.62246763090047</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>25</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2461.3720480000002</v>
+      </c>
+      <c r="E86" s="1">
+        <v>125.4770754</v>
+      </c>
+      <c r="F86">
+        <v>7.7759791999999994E-2</v>
+      </c>
+      <c r="G86" s="1">
+        <v>43.214144249999997</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="50"/>
+        <v>57.994712578110487</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="53"/>
+        <v>0.20364185716045441</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="54"/>
+        <v>22.152348432000004</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="55"/>
+        <v>3.1369268850000003</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="56"/>
+        <v>0.6482121637499999</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="57"/>
+        <v>7.7759792190062405E-2</v>
+      </c>
+      <c r="S86" s="4">
+        <f t="shared" si="58"/>
+        <v>3.0546278574068157</v>
+      </c>
+      <c r="T86" s="4">
+        <f t="shared" si="59"/>
+        <v>1.0331961622210393</v>
+      </c>
+      <c r="U86" s="4">
+        <f t="shared" si="60"/>
+        <v>3.156029779286198</v>
+      </c>
+      <c r="V86" s="5">
+        <f t="shared" si="61"/>
+        <v>15.78014889643099</v>
+      </c>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4">
+        <f t="shared" si="62"/>
+        <v>104.39048264059889</v>
+      </c>
+      <c r="Y86" s="4">
+        <f t="shared" si="63"/>
+        <v>521.95241320299442</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2456.1385319999999</v>
+      </c>
+      <c r="E87" s="1">
+        <v>125.2885462</v>
+      </c>
+      <c r="F87">
+        <v>7.3516462000000005E-2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>40.781830429999999</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="50"/>
+        <v>57.871400762475147</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="53"/>
+        <v>0.19217984831824902</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="54"/>
+        <v>22.105246788000002</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="55"/>
+        <v>3.1322136550000002</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="56"/>
+        <v>0.61172745645000004</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="57"/>
+        <v>7.3516462346444128E-2</v>
+      </c>
+      <c r="S87" s="4">
+        <f t="shared" si="58"/>
+        <v>2.8826977247737351</v>
+      </c>
+      <c r="T87" s="4">
+        <f t="shared" si="59"/>
+        <v>0.97650978481862216</v>
+      </c>
+      <c r="U87" s="4">
+        <f t="shared" si="60"/>
+        <v>2.8149825349159316</v>
+      </c>
+      <c r="V87" s="5">
+        <f t="shared" si="61"/>
+        <v>14.074912674579657</v>
+      </c>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4">
+        <f t="shared" si="62"/>
+        <v>104.16852137245526</v>
+      </c>
+      <c r="Y87" s="4">
+        <f t="shared" si="63"/>
+        <v>520.84260686227628</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>35</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2456.382615</v>
+      </c>
+      <c r="E88" s="1">
+        <v>125.3574876</v>
+      </c>
+      <c r="F88">
+        <v>6.8647208000000001E-2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>38.093074649999998</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="50"/>
+        <v>57.877151832672645</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="53"/>
+        <v>0.17950938520963136</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="54"/>
+        <v>22.107443534999998</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="55"/>
+        <v>3.1339371900000002</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="56"/>
+        <v>0.57139611974999993</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="57"/>
+        <v>6.8647208334450441E-2</v>
+      </c>
+      <c r="S88" s="4">
+        <f t="shared" si="58"/>
+        <v>2.6926407781444701</v>
+      </c>
+      <c r="T88" s="4">
+        <f t="shared" si="59"/>
+        <v>0.91162662987192788</v>
+      </c>
+      <c r="U88" s="4">
+        <f t="shared" si="60"/>
+        <v>2.4546830380355686</v>
+      </c>
+      <c r="V88" s="5">
+        <f t="shared" si="61"/>
+        <v>12.273415190177843</v>
+      </c>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4">
+        <f t="shared" si="62"/>
+        <v>104.17887329881074</v>
+      </c>
+      <c r="Y88" s="4">
+        <f t="shared" si="63"/>
+        <v>520.89436649405366</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>40</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2455.0858929999999</v>
+      </c>
+      <c r="E89" s="1">
+        <v>125.4068525</v>
+      </c>
+      <c r="F89">
+        <v>6.3304140999999994E-2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>35.125789879999999</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="50"/>
+        <v>57.846598540355522</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="53"/>
+        <v>0.16552638515782006</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="54"/>
+        <v>22.095773037000001</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="55"/>
+        <v>3.1351713125000003</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="56"/>
+        <v>0.52688684820000009</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="57"/>
+        <v>6.3304140949770632E-2</v>
+      </c>
+      <c r="S89" s="4">
+        <f t="shared" si="58"/>
+        <v>2.4828957773673013</v>
+      </c>
+      <c r="T89" s="4">
+        <f t="shared" si="59"/>
+        <v>0.84028398400318682</v>
+      </c>
+      <c r="U89" s="4">
+        <f t="shared" si="60"/>
+        <v>2.0863375556708856</v>
+      </c>
+      <c r="V89" s="5">
+        <f t="shared" si="61"/>
+        <v>10.431687778354428</v>
+      </c>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4">
+        <f t="shared" si="62"/>
+        <v>104.12387737263995</v>
+      </c>
+      <c r="Y89" s="4">
+        <f t="shared" si="63"/>
+        <v>520.61938686319979</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>45</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2451.6322270000001</v>
+      </c>
+      <c r="E90" s="1">
+        <v>125.4198902</v>
+      </c>
+      <c r="F90">
+        <v>5.7303092E-2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>31.775246379999999</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="50"/>
+        <v>57.765223452353887</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="53"/>
+        <v>0.14973732089012051</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="54"/>
+        <v>22.064690043000002</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="55"/>
+        <v>3.1354972549999998</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="56"/>
+        <v>0.47662869569999999</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="57"/>
+        <v>5.7303092161292229E-2</v>
+      </c>
+      <c r="S90" s="4">
+        <f t="shared" si="58"/>
+        <v>2.2460598133518075</v>
+      </c>
+      <c r="T90" s="4">
+        <f t="shared" si="59"/>
+        <v>0.76005280333118974</v>
+      </c>
+      <c r="U90" s="4">
+        <f t="shared" si="60"/>
+        <v>1.7071240575875701</v>
+      </c>
+      <c r="V90" s="5">
+        <f t="shared" si="61"/>
+        <v>8.5356202879378511</v>
+      </c>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4">
+        <f t="shared" si="62"/>
+        <v>103.97740221423697</v>
+      </c>
+      <c r="Y90" s="4">
+        <f t="shared" si="63"/>
+        <v>519.88701107118482</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2450.8955879999999</v>
+      </c>
+      <c r="E91" s="1">
+        <v>125.5368218</v>
+      </c>
+      <c r="F91">
+        <v>5.0889730000000001E-2</v>
+      </c>
+      <c r="G91" s="1">
+        <v>28.227870429999999</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="50"/>
+        <v>57.747866804823268</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="53"/>
+        <v>0.13302070555405884</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="54"/>
+        <v>22.058060292</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="55"/>
+        <v>3.1384205450000002</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="56"/>
+        <v>0.42341805645000002</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="57"/>
+        <v>5.0889729865700305E-2</v>
+      </c>
+      <c r="S91" s="4">
+        <f t="shared" si="58"/>
+        <v>1.9953105833108826</v>
+      </c>
+      <c r="T91" s="4">
+        <f t="shared" si="59"/>
+        <v>0.67457189114532767</v>
+      </c>
+      <c r="U91" s="4">
+        <f t="shared" si="60"/>
+        <v>1.345980433606309</v>
+      </c>
+      <c r="V91" s="5">
+        <f t="shared" si="61"/>
+        <v>6.7299021680315452</v>
+      </c>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4">
+        <f t="shared" si="62"/>
+        <v>103.94616024868188</v>
+      </c>
+      <c r="Y91" s="4">
+        <f t="shared" si="63"/>
+        <v>519.73080124340936</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J92" s="2"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="J94" s="2"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>92.5</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>2513.5215090735501</v>
+      </c>
+      <c r="E95">
+        <v>143.005407663358</v>
+      </c>
+      <c r="F95">
+        <v>0.15223204567741599</v>
+      </c>
+      <c r="G95">
+        <v>91.269068182236794</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" ref="H95:H105" si="64">2*PI()*150000*Ipt*Ipt*D95*(10^-9)</f>
+        <v>59.223455306590466</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" ref="I95:I105" si="65">2*PI()*150000*Ist*Ist*E95*(10^-9)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" ref="J95:J105" si="66">F95*SQRT(H95*I95)</f>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95:K105" si="67">2*PI()*150000*G95*Ipt*(10^-9)</f>
+        <v>0.43009535115195158</v>
+      </c>
+      <c r="N95">
+        <f t="shared" ref="N95:N105" si="68">D95*$D$1^2*10^-3</f>
+        <v>22.621693581661951</v>
+      </c>
+      <c r="O95">
+        <f t="shared" ref="O95:O105" si="69">E95*$D$2^2*10^-3</f>
+        <v>3.57513519158395</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ref="P95:P105" si="70">G95*$D$1*$D$2*10^-3</f>
+        <v>1.3690360227335521</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ref="Q95:Q105" si="71">P95/SQRT(N95*O95)</f>
+        <v>0.15223204567741613</v>
+      </c>
+      <c r="S95" s="4">
+        <f t="shared" ref="S95:S105" si="72">w*P95*10^-6*$G$1</f>
+        <v>6.4514302672792736</v>
+      </c>
+      <c r="T95" s="4">
+        <f t="shared" ref="T95:T105" si="73">P95*$G$1/O95</f>
+        <v>1.9146632915537467</v>
+      </c>
+      <c r="U95" s="4">
+        <f t="shared" ref="U95:U105" si="74">S95*T95</f>
+        <v>12.352316710778402</v>
+      </c>
+      <c r="V95" s="5">
+        <f t="shared" ref="V95:V105" si="75">U95*$N$1</f>
+        <v>61.761583553892009</v>
+      </c>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4">
+        <f t="shared" ref="X95:X105" si="76">w*N95*10^-6*$G$1</f>
+        <v>106.60221955186282</v>
+      </c>
+      <c r="Y95" s="4">
+        <f t="shared" ref="Y95:Y105" si="77">X95*$G$1</f>
+        <v>533.01109775931411</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>92.5</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2511.7055534511801</v>
+      </c>
+      <c r="E96">
+        <v>143.02661484763399</v>
+      </c>
+      <c r="F96">
+        <v>0.15133029040426199</v>
+      </c>
+      <c r="G96">
+        <v>90.702374861242504</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="64"/>
+        <v>59.180667860271846</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="67"/>
+        <v>0.42742487179084054</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="68"/>
+        <v>22.605349981060623</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="69"/>
+        <v>3.5756653711908499</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="70"/>
+        <v>1.3605356229186376</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="71"/>
+        <v>0.15133029040426196</v>
+      </c>
+      <c r="S96" s="4">
+        <f t="shared" si="72"/>
+        <v>6.411373076862608</v>
+      </c>
+      <c r="T96" s="4">
+        <f t="shared" si="73"/>
+        <v>1.9024929372313173</v>
+      </c>
+      <c r="U96" s="4">
+        <f t="shared" si="74"/>
+        <v>12.197591996686132</v>
+      </c>
+      <c r="V96" s="5">
+        <f t="shared" si="75"/>
+        <v>60.987959983430656</v>
+      </c>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4">
+        <f t="shared" si="76"/>
+        <v>106.52520214848933</v>
+      </c>
+      <c r="Y96" s="4">
+        <f t="shared" si="77"/>
+        <v>532.62601074244662</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>92.5</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>2511.2751172769599</v>
+      </c>
+      <c r="E97">
+        <v>143.01987199292799</v>
+      </c>
+      <c r="F97">
+        <v>0.14906739159438201</v>
+      </c>
+      <c r="G97">
+        <v>89.336306148933303</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="64"/>
+        <v>59.170525946851079</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="67"/>
+        <v>0.42098742464450628</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="68"/>
+        <v>22.60147605549264</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="69"/>
+        <v>3.5754967998231995</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="70"/>
+        <v>1.3400445922339996</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="71"/>
+        <v>0.14906739159438159</v>
+      </c>
+      <c r="S97" s="4">
+        <f t="shared" si="72"/>
+        <v>6.3148113696675949</v>
+      </c>
+      <c r="T97" s="4">
+        <f t="shared" si="73"/>
+        <v>1.8739278305328952</v>
+      </c>
+      <c r="U97" s="4">
+        <f t="shared" si="74"/>
+        <v>11.833500770185656</v>
+      </c>
+      <c r="V97" s="5">
+        <f t="shared" si="75"/>
+        <v>59.167503850928284</v>
+      </c>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4">
+        <f t="shared" si="76"/>
+        <v>106.50694670433194</v>
+      </c>
+      <c r="Y97" s="4">
+        <f t="shared" si="77"/>
+        <v>532.53473352165975</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>92.5</v>
+      </c>
+      <c r="C98">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>2507.6247137667601</v>
+      </c>
+      <c r="E98">
+        <v>143.08243412343401</v>
+      </c>
+      <c r="F98">
+        <v>0.14517396624606299</v>
+      </c>
+      <c r="G98">
+        <v>86.958726865194507</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="64"/>
+        <v>59.084515340473963</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="67"/>
+        <v>0.4097833462278247</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="68"/>
+        <v>22.568622423900841</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="69"/>
+        <v>3.5770608530858503</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="70"/>
+        <v>1.3043809029779174</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="71"/>
+        <v>0.1451739662460633</v>
+      </c>
+      <c r="S98" s="4">
+        <f t="shared" si="72"/>
+        <v>6.1467501934173683</v>
+      </c>
+      <c r="T98" s="4">
+        <f t="shared" si="73"/>
+        <v>1.8232579155770543</v>
+      </c>
+      <c r="U98" s="4">
+        <f t="shared" si="74"/>
+        <v>11.207110945223006</v>
+      </c>
+      <c r="V98" s="5">
+        <f t="shared" si="75"/>
+        <v>56.035554726115031</v>
+      </c>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4">
+        <f t="shared" si="76"/>
+        <v>106.35212761285311</v>
+      </c>
+      <c r="Y98" s="4">
+        <f t="shared" si="77"/>
+        <v>531.76063806426555</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>92.5</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>2501.3907379390198</v>
+      </c>
+      <c r="E99">
+        <v>142.93518087877999</v>
+      </c>
+      <c r="F99">
+        <v>0.13986006046520799</v>
+      </c>
+      <c r="G99">
+        <v>83.628450130506707</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="64"/>
+        <v>58.937630745500819</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="67"/>
+        <v>0.39408978684165041</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="68"/>
+        <v>22.512516641451178</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="69"/>
+        <v>3.5733795219694997</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="70"/>
+        <v>1.2544267519576007</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="71"/>
+        <v>0.13986006046520899</v>
+      </c>
+      <c r="S99" s="4">
+        <f t="shared" si="72"/>
+        <v>5.911346802624756</v>
+      </c>
+      <c r="T99" s="4">
+        <f t="shared" si="73"/>
+        <v>1.755238625291909</v>
+      </c>
+      <c r="U99" s="4">
+        <f t="shared" si="74"/>
+        <v>10.375824235462799</v>
+      </c>
+      <c r="V99" s="5">
+        <f t="shared" si="75"/>
+        <v>51.879121177313998</v>
+      </c>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4">
+        <f t="shared" si="76"/>
+        <v>106.08773534190148</v>
+      </c>
+      <c r="Y99" s="4">
+        <f t="shared" si="77"/>
+        <v>530.43867670950738</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>92.5</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>2499.74109780771</v>
+      </c>
+      <c r="E100">
+        <v>143.13994938752299</v>
+      </c>
+      <c r="F100">
+        <v>0.13330711163179601</v>
+      </c>
+      <c r="G100">
+        <v>79.740923958490299</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="64"/>
+        <v>58.8987620156189</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="67"/>
+        <v>0.37577025134768316</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="68"/>
+        <v>22.497669880269392</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="69"/>
+        <v>3.578498734688075</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="70"/>
+        <v>1.1961138593773544</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="71"/>
+        <v>0.13330711163179546</v>
+      </c>
+      <c r="S100" s="4">
+        <f t="shared" si="72"/>
+        <v>5.6365537702152473</v>
+      </c>
+      <c r="T100" s="4">
+        <f t="shared" si="73"/>
+        <v>1.6712509184128794</v>
+      </c>
+      <c r="U100" s="4">
+        <f t="shared" si="74"/>
+        <v>9.4200956651558094</v>
+      </c>
+      <c r="V100" s="5">
+        <f t="shared" si="75"/>
+        <v>47.100478325779051</v>
+      </c>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4">
+        <f t="shared" si="76"/>
+        <v>106.01777162811402</v>
+      </c>
+      <c r="Y100" s="4">
+        <f t="shared" si="77"/>
+        <v>530.0888581405701</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>92.5</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>2489.9319881515898</v>
+      </c>
+      <c r="E101">
+        <v>143.02654237523799</v>
+      </c>
+      <c r="F101">
+        <v>0.12539883601229901</v>
+      </c>
+      <c r="G101">
+        <v>74.833415502773207</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="64"/>
+        <v>58.667640314364469</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="67"/>
+        <v>0.35264416257981723</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="68"/>
+        <v>22.409387893364311</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="69"/>
+        <v>3.5756635593809496</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="70"/>
+        <v>1.1225012325415979</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="71"/>
+        <v>0.12539883601229906</v>
+      </c>
+      <c r="S101" s="4">
+        <f t="shared" si="72"/>
+        <v>5.2896624386972579</v>
+      </c>
+      <c r="T101" s="4">
+        <f t="shared" si="73"/>
+        <v>1.5696404512061186</v>
+      </c>
+      <c r="U101" s="4">
+        <f t="shared" si="74"/>
+        <v>8.3028681370048218</v>
+      </c>
+      <c r="V101" s="5">
+        <f t="shared" si="75"/>
+        <v>41.514340685024109</v>
+      </c>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4">
+        <f t="shared" si="76"/>
+        <v>105.60175256585606</v>
+      </c>
+      <c r="Y101" s="4">
+        <f t="shared" si="77"/>
+        <v>528.00876282928027</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>92.5</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+      <c r="D102">
+        <v>2487.0679054213902</v>
+      </c>
+      <c r="E102">
+        <v>142.98054579445801</v>
+      </c>
+      <c r="F102">
+        <v>0.116514946577584</v>
+      </c>
+      <c r="G102">
+        <v>69.480660328548495</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="64"/>
+        <v>58.600156954880951</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="67"/>
+        <v>0.32741989808210364</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="68"/>
+        <v>22.383611148792511</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="69"/>
+        <v>3.5745136448614505</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="70"/>
+        <v>1.0422099049282274</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="71"/>
+        <v>0.11651494657758406</v>
+      </c>
+      <c r="S102" s="4">
+        <f t="shared" si="72"/>
+        <v>4.9112984712315537</v>
+      </c>
+      <c r="T102" s="4">
+        <f t="shared" si="73"/>
+        <v>1.4578345594322439</v>
+      </c>
+      <c r="U102" s="4">
+        <f t="shared" si="74"/>
+        <v>7.1598606430481055</v>
+      </c>
+      <c r="V102" s="5">
+        <f t="shared" si="75"/>
+        <v>35.799303215240528</v>
+      </c>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4">
+        <f t="shared" si="76"/>
+        <v>105.4802825187857</v>
+      </c>
+      <c r="Y102" s="4">
+        <f t="shared" si="77"/>
+        <v>527.40141259392851</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>92.5</v>
+      </c>
+      <c r="C103">
+        <v>40</v>
+      </c>
+      <c r="D103">
+        <v>2480.9782136692402</v>
+      </c>
+      <c r="E103">
+        <v>143.00182137866</v>
+      </c>
+      <c r="F103">
+        <v>0.106114761691534</v>
+      </c>
+      <c r="G103">
+        <v>63.205964499016098</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="64"/>
+        <v>58.456671973347106</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="67"/>
+        <v>0.29785109059974935</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="68"/>
+        <v>22.328803923023163</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="69"/>
+        <v>3.5750455344664998</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="70"/>
+        <v>0.94808946748524148</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="71"/>
+        <v>0.10611476169153462</v>
+      </c>
+      <c r="S103" s="4">
+        <f t="shared" si="72"/>
+        <v>4.46776635899624</v>
+      </c>
+      <c r="T103" s="4">
+        <f t="shared" si="73"/>
+        <v>1.3259823663011385</v>
+      </c>
+      <c r="U103" s="4">
+        <f t="shared" si="74"/>
+        <v>5.9241794087824564</v>
+      </c>
+      <c r="V103" s="5">
+        <f t="shared" si="75"/>
+        <v>29.620897043912283</v>
+      </c>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4">
+        <f t="shared" si="76"/>
+        <v>105.22200955202477</v>
+      </c>
+      <c r="Y103" s="4">
+        <f t="shared" si="77"/>
+        <v>526.11004776012385</v>
+      </c>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>92.5</v>
+      </c>
+      <c r="C104">
+        <v>45</v>
+      </c>
+      <c r="D104">
+        <v>2474.6797754946701</v>
+      </c>
+      <c r="E104">
+        <v>142.93088445049301</v>
+      </c>
+      <c r="F104">
+        <v>9.5050946972427899E-2</v>
+      </c>
+      <c r="G104">
+        <v>56.530000992052699</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="64"/>
+        <v>58.308268520109706</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="67"/>
+        <v>0.26639135373608469</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="68"/>
+        <v>22.272117979452034</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="69"/>
+        <v>3.5732721112623254</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="70"/>
+        <v>0.84795001488079047</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="71"/>
+        <v>9.505094697242783E-2</v>
+      </c>
+      <c r="S104" s="4">
+        <f t="shared" si="72"/>
+        <v>3.9958703060412706</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" si="73"/>
+        <v>1.1865175509698815</v>
+      </c>
+      <c r="U104" s="4">
+        <f t="shared" si="74"/>
+        <v>4.7411702495173591</v>
+      </c>
+      <c r="V104" s="5">
+        <f t="shared" si="75"/>
+        <v>23.705851247586796</v>
+      </c>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4">
+        <f t="shared" si="76"/>
+        <v>104.95488333619748</v>
+      </c>
+      <c r="Y104" s="4">
+        <f t="shared" si="77"/>
+        <v>524.77441668098743</v>
+      </c>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>92.5</v>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+      <c r="D105">
+        <v>2469.8217916570402</v>
+      </c>
+      <c r="E105">
+        <v>142.787124552047</v>
+      </c>
+      <c r="F105">
+        <v>8.3037539533121402E-2</v>
+      </c>
+      <c r="G105">
+        <v>49.311907822384697</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="64"/>
+        <v>58.193804972593036</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="67"/>
+        <v>0.2323768910239512</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="68"/>
+        <v>22.22839612491336</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="69"/>
+        <v>3.5696781138011753</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="70"/>
+        <v>0.73967861733577045</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="71"/>
+        <v>8.3037539533121471E-2</v>
+      </c>
+      <c r="S105" s="4">
+        <f t="shared" si="72"/>
+        <v>3.4856533653592687</v>
+      </c>
+      <c r="T105" s="4">
+        <f t="shared" si="73"/>
+        <v>1.0360578653800845</v>
+      </c>
+      <c r="U105" s="4">
+        <f t="shared" si="74"/>
+        <v>3.6113385851690318</v>
+      </c>
+      <c r="V105" s="5">
+        <f t="shared" si="75"/>
+        <v>18.056692925845159</v>
+      </c>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4">
+        <f t="shared" si="76"/>
+        <v>104.74884895066745</v>
+      </c>
+      <c r="Y105" s="4">
+        <f t="shared" si="77"/>
+        <v>523.74424475333728</v>
       </c>
     </row>
   </sheetData>
@@ -11663,7 +13503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A4C672-24E7-44AA-9133-057EC6FAFF93}">
   <dimension ref="B1:AA123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -11810,60 +13650,60 @@
         <v>93.476548296182003</v>
       </c>
       <c r="H5" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D5*(10^-9)</f>
+        <f t="shared" ref="H5:H36" si="0">2*PI()*150000*Ipt*Ipt*D5*(10^-9)</f>
         <v>63.311451647743581</v>
       </c>
       <c r="I5" s="1">
-        <f>2*PI()*150000*Ist*Ist*E5*(10^-9)</f>
+        <f t="shared" ref="I5:I36" si="1">2*PI()*150000*Ist*Ist*E5*(10^-9)</f>
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f>F5*SQRT(H5*I5)</f>
+        <f t="shared" ref="J5:J36" si="2">F5*SQRT(H5*I5)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>2*PI()*150000*G5*Ipt*(10^-9)</f>
+        <f t="shared" ref="K5:K36" si="3">2*PI()*150000*G5*Ipt*(10^-9)</f>
         <v>0.44049785611532538</v>
       </c>
       <c r="N5">
-        <f>D5*$D$1^2*10^-3</f>
+        <f t="shared" ref="N5:N36" si="4">D5*$D$1^2*10^-3</f>
         <v>24.183193161748591</v>
       </c>
       <c r="O5">
-        <f>E5*$D$2^2*10^-3</f>
+        <f t="shared" ref="O5:O36" si="5">E5*$D$2^2*10^-3</f>
         <v>3.5935708511888254</v>
       </c>
       <c r="P5">
-        <f>G5*$D$1*$D$2*10^-3</f>
+        <f t="shared" ref="P5:P36" si="6">G5*$D$1*$D$2*10^-3</f>
         <v>1.4021482244427304</v>
       </c>
       <c r="Q5">
-        <f>P5/SQRT(N5*O5)</f>
+        <f t="shared" ref="Q5:Q36" si="7">P5/SQRT(N5*O5)</f>
         <v>0.15040906032838414</v>
       </c>
       <c r="S5" s="4">
-        <f>w*P5*10^-6*$G$1</f>
+        <f t="shared" ref="S5:S36" si="8">w*P5*10^-6*$G$1</f>
         <v>6.607467841729882</v>
       </c>
       <c r="T5" s="4">
-        <f>P5*$G$1/O5</f>
+        <f t="shared" ref="T5:T36" si="9">P5*$G$1/O5</f>
         <v>1.9509121741385336</v>
       </c>
       <c r="U5" s="4">
-        <f>S5*T5</f>
+        <f t="shared" ref="U5:U36" si="10">S5*T5</f>
         <v>12.890589452659688</v>
       </c>
       <c r="V5" s="5">
-        <f>U5*$N$1</f>
+        <f t="shared" ref="V5:V36" si="11">U5*$N$1</f>
         <v>64.452947263298441</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4">
-        <f>w*N5*10^-6*$G$1</f>
+        <f t="shared" ref="X5:X27" si="12">w*N5*10^-6*$G$1</f>
         <v>113.96061296593844</v>
       </c>
       <c r="Y5" s="4">
-        <f>X5*$G$1</f>
+        <f t="shared" ref="Y5:Y27" si="13">X5*$G$1</f>
         <v>569.80306482969218</v>
       </c>
     </row>
@@ -11887,60 +13727,60 @@
         <v>89.409764320535402</v>
       </c>
       <c r="H6" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D6*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.149268009068862</v>
       </c>
       <c r="I6" s="1">
-        <f>2*PI()*150000*Ist*Ist*E6*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f>F6*SQRT(H6*I6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>2*PI()*150000*G6*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.42133358812288324</v>
       </c>
       <c r="N6">
-        <f>D6*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.12124357506768</v>
       </c>
       <c r="O6">
-        <f>E6*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.5325974016695252</v>
       </c>
       <c r="P6">
-        <f>G6*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.3411464648080311</v>
       </c>
       <c r="Q6">
-        <f>P6/SQRT(N6*O6)</f>
+        <f t="shared" si="7"/>
         <v>0.145287847476716</v>
       </c>
       <c r="S6" s="4">
-        <f>w*P6*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>6.3200038218432484</v>
       </c>
       <c r="T6" s="4">
-        <f>P6*$G$1/O6</f>
+        <f t="shared" si="9"/>
         <v>1.8982441420782876</v>
       </c>
       <c r="U6" s="4">
-        <f>S6*T6</f>
+        <f t="shared" si="10"/>
         <v>11.996910232726336</v>
       </c>
       <c r="V6" s="5">
-        <f>U6*$N$1</f>
+        <f t="shared" si="11"/>
         <v>59.984551163631679</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4">
-        <f>w*N6*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>113.66868241632392</v>
       </c>
       <c r="Y6" s="4">
-        <f>X6*$G$1</f>
+        <f t="shared" si="13"/>
         <v>568.34341208161959</v>
       </c>
     </row>
@@ -11964,60 +13804,60 @@
         <v>80.852995108422206</v>
       </c>
       <c r="H7" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D7*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.005276246391674</v>
       </c>
       <c r="I7" s="1">
-        <f>2*PI()*150000*Ist*Ist*E7*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <f>F7*SQRT(H7*I7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>2*PI()*150000*G7*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.38101076318002608</v>
       </c>
       <c r="N7">
-        <f>D7*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.066242773160671</v>
       </c>
       <c r="O7">
-        <f>E7*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.4170147782778502</v>
       </c>
       <c r="P7">
-        <f>G7*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2127949266263331</v>
       </c>
       <c r="Q7">
-        <f>P7/SQRT(N7*O7)</f>
+        <f t="shared" si="7"/>
         <v>0.1337395311285913</v>
       </c>
       <c r="S7" s="4">
-        <f>w*P7*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>5.7151614477003898</v>
       </c>
       <c r="T7" s="4">
-        <f>P7*$G$1/O7</f>
+        <f t="shared" si="9"/>
         <v>1.7746410321900521</v>
       </c>
       <c r="U7" s="4">
-        <f>S7*T7</f>
+        <f t="shared" si="10"/>
         <v>10.142360010679813</v>
       </c>
       <c r="V7" s="5">
-        <f>U7*$N$1</f>
+        <f t="shared" si="11"/>
         <v>50.71180005339906</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4">
-        <f>w*N7*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>113.409497243505</v>
       </c>
       <c r="Y7" s="4">
-        <f>X7*$G$1</f>
+        <f t="shared" si="13"/>
         <v>567.04748621752503</v>
       </c>
     </row>
@@ -12041,60 +13881,60 @@
         <v>72.161355337016801</v>
       </c>
       <c r="H8" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D8*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.679032333284972</v>
       </c>
       <c r="I8" s="1">
-        <f>2*PI()*150000*Ist*Ist*E8*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <f>F8*SQRT(H8*I8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>2*PI()*150000*G8*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.34005237569978186</v>
       </c>
       <c r="N8">
-        <f>D8*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.941626777741689</v>
       </c>
       <c r="O8">
-        <f>E8*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.3081841620129251</v>
       </c>
       <c r="P8">
-        <f>G8*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.082420330055252</v>
       </c>
       <c r="Q8">
-        <f>P8/SQRT(N8*O8)</f>
+        <f t="shared" si="7"/>
         <v>0.12162539769571522</v>
       </c>
       <c r="S8" s="4">
-        <f>w*P8*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>5.1007856354967274</v>
       </c>
       <c r="T8" s="4">
-        <f>P8*$G$1/O8</f>
+        <f t="shared" si="9"/>
         <v>1.6359735084951157</v>
       </c>
       <c r="U8" s="4">
-        <f>S8*T8</f>
+        <f t="shared" si="10"/>
         <v>8.3447501721850692</v>
       </c>
       <c r="V8" s="5">
-        <f>U8*$N$1</f>
+        <f t="shared" si="11"/>
         <v>41.72375086092535</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4">
-        <f>w*N8*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.82225819991294</v>
       </c>
       <c r="Y8" s="4">
-        <f>X8*$G$1</f>
+        <f t="shared" si="13"/>
         <v>564.11129099956474</v>
       </c>
     </row>
@@ -12118,60 +13958,60 @@
         <v>65.642413104265501</v>
       </c>
       <c r="H9" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D9*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.60156264407474</v>
       </c>
       <c r="I9" s="1">
-        <f>2*PI()*150000*Ist*Ist*E9*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <f>F9*SQRT(H9*I9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>2*PI()*150000*G9*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.30933258415840031</v>
       </c>
       <c r="N9">
-        <f>D9*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.91203553619545</v>
       </c>
       <c r="O9">
-        <f>E9*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.2444909543963001</v>
       </c>
       <c r="P9">
-        <f>G9*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.98463619656398249</v>
       </c>
       <c r="Q9">
-        <f>P9/SQRT(N9*O9)</f>
+        <f t="shared" si="7"/>
         <v>0.11178775628279017</v>
       </c>
       <c r="S9" s="4">
-        <f>w*P9*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.6399887623760039</v>
       </c>
       <c r="T9" s="4">
-        <f>P9*$G$1/O9</f>
+        <f t="shared" si="9"/>
         <v>1.5173970437947994</v>
       </c>
       <c r="U9" s="4">
-        <f>S9*T9</f>
+        <f t="shared" si="10"/>
         <v>7.0407052312704383</v>
       </c>
       <c r="V9" s="5">
-        <f>U9*$N$1</f>
+        <f t="shared" si="11"/>
         <v>35.20352615635219</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4">
-        <f>w*N9*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.68281275933454</v>
       </c>
       <c r="Y9" s="4">
-        <f>X9*$G$1</f>
+        <f t="shared" si="13"/>
         <v>563.41406379667274</v>
       </c>
     </row>
@@ -12195,60 +14035,60 @@
         <v>60.874349772694302</v>
       </c>
       <c r="H10" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D10*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.403091763157157</v>
       </c>
       <c r="I10" s="1">
-        <f>2*PI()*150000*Ist*Ist*E10*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <f>F10*SQRT(H10*I10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>2*PI()*150000*G10*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.28686361505692787</v>
       </c>
       <c r="N10">
-        <f>D10*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.836225243976639</v>
       </c>
       <c r="O10">
-        <f>E10*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.198502750464475</v>
       </c>
       <c r="P10">
-        <f>G10*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.91311524659041454</v>
       </c>
       <c r="Q10">
-        <f>P10/SQRT(N10*O10)</f>
+        <f t="shared" si="7"/>
         <v>0.10457635243148465</v>
       </c>
       <c r="S10" s="4">
-        <f>w*P10*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.3029542258539175</v>
       </c>
       <c r="T10" s="4">
-        <f>P10*$G$1/O10</f>
+        <f t="shared" si="9"/>
         <v>1.427410444555371</v>
       </c>
       <c r="U10" s="4">
-        <f>S10*T10</f>
+        <f t="shared" si="10"/>
         <v>6.1420818044275531</v>
       </c>
       <c r="V10" s="5">
-        <f>U10*$N$1</f>
+        <f t="shared" si="11"/>
         <v>30.710409022137767</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4">
-        <f>w*N10*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.32556517368286</v>
       </c>
       <c r="Y10" s="4">
-        <f>X10*$G$1</f>
+        <f t="shared" si="13"/>
         <v>561.62782586841433</v>
       </c>
     </row>
@@ -12272,60 +14112,60 @@
         <v>58.019559999334703</v>
       </c>
       <c r="H11" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D11*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.334185019044881</v>
       </c>
       <c r="I11" s="1">
-        <f>2*PI()*150000*Ist*Ist*E11*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f>F11*SQRT(H11*I11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>2*PI()*150000*G11*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.27341073518763315</v>
       </c>
       <c r="N11">
-        <f>D11*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.809904806525829</v>
       </c>
       <c r="O11">
-        <f>E11*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1832344287237504</v>
       </c>
       <c r="P11">
-        <f>G11*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.87029339999002053</v>
       </c>
       <c r="Q11">
-        <f>P11/SQRT(N11*O11)</f>
+        <f t="shared" si="7"/>
         <v>9.9966053866741844E-2</v>
       </c>
       <c r="S11" s="4">
-        <f>w*P11*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.1011610278144977</v>
       </c>
       <c r="T11" s="4">
-        <f>P11*$G$1/O11</f>
+        <f t="shared" si="9"/>
         <v>1.3669954561576949</v>
       </c>
       <c r="U11" s="4">
-        <f>S11*T11</f>
+        <f t="shared" si="10"/>
         <v>5.6062684899934405</v>
       </c>
       <c r="V11" s="5">
-        <f>U11*$N$1</f>
+        <f t="shared" si="11"/>
         <v>28.031342449967202</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4">
-        <f>w*N11*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.20153303428076</v>
       </c>
       <c r="Y11" s="4">
-        <f>X11*$G$1</f>
+        <f t="shared" si="13"/>
         <v>561.0076651714038</v>
       </c>
     </row>
@@ -12349,60 +14189,60 @@
         <v>56.255389631664301</v>
       </c>
       <c r="H12" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D12*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.233404968851495</v>
       </c>
       <c r="I12" s="1">
-        <f>2*PI()*150000*Ist*Ist*E12*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <f>F12*SQRT(H12*I12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>2*PI()*150000*G12*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.26509727818750201</v>
       </c>
       <c r="N12">
-        <f>D12*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.771409662957851</v>
       </c>
       <c r="O12">
-        <f>E12*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1673308090635</v>
       </c>
       <c r="P12">
-        <f>G12*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.84383084447496459</v>
       </c>
       <c r="Q12">
-        <f>P12/SQRT(N12*O12)</f>
+        <f t="shared" si="7"/>
         <v>9.7248120200715243E-2</v>
       </c>
       <c r="S12" s="4">
-        <f>w*P12*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>3.9764591728125298</v>
       </c>
       <c r="T12" s="4">
-        <f>P12*$G$1/O12</f>
+        <f t="shared" si="9"/>
         <v>1.3320851141603112</v>
       </c>
       <c r="U12" s="4">
-        <f>S12*T12</f>
+        <f t="shared" si="10"/>
         <v>5.2969820711697952</v>
       </c>
       <c r="V12" s="5">
-        <f>U12*$N$1</f>
+        <f t="shared" si="11"/>
         <v>26.484910355848974</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4">
-        <f>w*N12*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.0201289439327</v>
       </c>
       <c r="Y12" s="4">
-        <f>X12*$G$1</f>
+        <f t="shared" si="13"/>
         <v>560.10064471966348</v>
       </c>
     </row>
@@ -12426,60 +14266,60 @@
         <v>93.029619117815201</v>
       </c>
       <c r="H13" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D13*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.39054222515864</v>
       </c>
       <c r="I13" s="1">
-        <f>2*PI()*150000*Ist*Ist*E13*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <f>F13*SQRT(H13*I13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>2*PI()*150000*G13*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.43839175198017727</v>
       </c>
       <c r="N13">
-        <f>D13*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.213403536982828</v>
       </c>
       <c r="O13">
-        <f>E13*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.595866811019075</v>
       </c>
       <c r="P13">
-        <f>G13*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.3954442867672283</v>
       </c>
       <c r="Q13">
-        <f>P13/SQRT(N13*O13)</f>
+        <f t="shared" si="7"/>
         <v>0.14954874860014569</v>
       </c>
       <c r="S13" s="4">
-        <f>w*P13*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>6.5758762797026593</v>
       </c>
       <c r="T13" s="4">
-        <f>P13*$G$1/O13</f>
+        <f t="shared" si="9"/>
         <v>1.940344790428649</v>
       </c>
       <c r="U13" s="4">
-        <f>S13*T13</f>
+        <f t="shared" si="10"/>
         <v>12.759467281824382</v>
       </c>
       <c r="V13" s="5">
-        <f>U13*$N$1</f>
+        <f t="shared" si="11"/>
         <v>63.797336409121911</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4">
-        <f>w*N13*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>114.10297600528554</v>
       </c>
       <c r="Y13" s="4">
-        <f>X13*$G$1</f>
+        <f t="shared" si="13"/>
         <v>570.5148800264277</v>
       </c>
     </row>
@@ -12508,60 +14348,60 @@
         <v>89.041182014438704</v>
       </c>
       <c r="H14" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D14*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.165820948655636</v>
       </c>
       <c r="I14" s="1">
-        <f>2*PI()*150000*Ist*Ist*E14*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <f>F14*SQRT(H14*I14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>2*PI()*150000*G14*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.41959668492526836</v>
       </c>
       <c r="N14">
-        <f>D14*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.12756633224673</v>
       </c>
       <c r="O14">
-        <f>E14*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.5389795044449253</v>
       </c>
       <c r="P14">
-        <f>G14*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.3356177302165804</v>
       </c>
       <c r="Q14">
-        <f>P14/SQRT(N14*O14)</f>
+        <f t="shared" si="7"/>
         <v>0.1445394483210142</v>
       </c>
       <c r="S14" s="4">
-        <f>w*P14*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>6.2939502738790241</v>
       </c>
       <c r="T14" s="4">
-        <f>P14*$G$1/O14</f>
+        <f t="shared" si="9"/>
         <v>1.8870096994614649</v>
       </c>
       <c r="U14" s="4">
-        <f>S14*T14</f>
+        <f t="shared" si="10"/>
         <v>11.876745214737863</v>
       </c>
       <c r="V14" s="5">
-        <f>U14*$N$1</f>
+        <f t="shared" si="11"/>
         <v>59.383726073689317</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4">
-        <f>w*N14*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>113.69847770758012</v>
       </c>
       <c r="Y14" s="4">
-        <f>X14*$G$1</f>
+        <f t="shared" si="13"/>
         <v>568.49238853790064</v>
       </c>
     </row>
@@ -12590,60 +14430,60 @@
         <v>80.275643286439106</v>
       </c>
       <c r="H15" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D15*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.906346335335783</v>
       </c>
       <c r="I15" s="1">
-        <f>2*PI()*150000*Ist*Ist*E15*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f>F15*SQRT(H15*I15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>2*PI()*150000*G15*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.37829005681630784</v>
       </c>
       <c r="N15">
-        <f>D15*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.028454330686618</v>
       </c>
       <c r="O15">
-        <f>E15*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.4117269610355998</v>
       </c>
       <c r="P15">
-        <f>G15*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2041346492965865</v>
       </c>
       <c r="Q15">
-        <f>P15/SQRT(N15*O15)</f>
+        <f t="shared" si="7"/>
         <v>0.13299184231194197</v>
       </c>
       <c r="S15" s="4">
-        <f>w*P15*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>5.6743508522446175</v>
       </c>
       <c r="T15" s="4">
-        <f>P15*$G$1/O15</f>
+        <f t="shared" si="9"/>
         <v>1.7646996126136101</v>
       </c>
       <c r="U15" s="4">
-        <f>S15*T15</f>
+        <f t="shared" si="10"/>
         <v>10.013524750789784</v>
       </c>
       <c r="V15" s="5">
-        <f>U15*$N$1</f>
+        <f t="shared" si="11"/>
         <v>50.067623753948922</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4">
-        <f>w*N15*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>113.23142340360437</v>
       </c>
       <c r="Y15" s="4">
-        <f>X15*$G$1</f>
+        <f t="shared" si="13"/>
         <v>566.15711701802184</v>
       </c>
     </row>
@@ -12672,60 +14512,60 @@
         <v>71.798272212031705</v>
       </c>
       <c r="H16" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D16*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.71909738664467</v>
       </c>
       <c r="I16" s="1">
-        <f>2*PI()*150000*Ist*Ist*E16*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <f>F16*SQRT(H16*I16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>2*PI()*150000*G16*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.33834138678263853</v>
       </c>
       <c r="N16">
-        <f>D16*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.95693050083154</v>
       </c>
       <c r="O16">
-        <f>E16*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.3111427403740499</v>
       </c>
       <c r="P16">
-        <f>G16*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0769740831804757</v>
       </c>
       <c r="Q16">
-        <f>P16/SQRT(N16*O16)</f>
+        <f t="shared" si="7"/>
         <v>0.1209207171662407</v>
       </c>
       <c r="S16" s="4">
-        <f>w*P16*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>5.0751208017395779</v>
       </c>
       <c r="T16" s="4">
-        <f>P16*$G$1/O16</f>
+        <f t="shared" si="9"/>
         <v>1.6262876106917896</v>
       </c>
       <c r="U16" s="4">
-        <f>S16*T16</f>
+        <f t="shared" si="10"/>
         <v>8.253606082633258</v>
       </c>
       <c r="V16" s="5">
-        <f>U16*$N$1</f>
+        <f t="shared" si="11"/>
         <v>41.268030413166287</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4">
-        <f>w*N16*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.89437529596042</v>
       </c>
       <c r="Y16" s="4">
-        <f>X16*$G$1</f>
+        <f t="shared" si="13"/>
         <v>564.47187647980206</v>
       </c>
     </row>
@@ -12754,60 +14594,60 @@
         <v>65.140442750218298</v>
       </c>
       <c r="H17" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D17*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.497413036163394</v>
       </c>
       <c r="I17" s="1">
-        <f>2*PI()*150000*Ist*Ist*E17*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <f>F17*SQRT(H17*I17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>2*PI()*150000*G17*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.30696710459350851</v>
       </c>
       <c r="N17">
-        <f>D17*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.872253316387027</v>
       </c>
       <c r="O17">
-        <f>E17*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.2406860435392999</v>
       </c>
       <c r="P17">
-        <f>G17*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.9771066412532744</v>
       </c>
       <c r="Q17">
-        <f>P17/SQRT(N17*O17)</f>
+        <f t="shared" si="7"/>
         <v>0.11109046345954389</v>
       </c>
       <c r="S17" s="4">
-        <f>w*P17*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.604506568902627</v>
       </c>
       <c r="T17" s="4">
-        <f>P17*$G$1/O17</f>
+        <f t="shared" si="9"/>
         <v>1.5075614054024993</v>
       </c>
       <c r="U17" s="4">
-        <f>S17*T17</f>
+        <f t="shared" si="10"/>
         <v>6.9415763941998838</v>
       </c>
       <c r="V17" s="5">
-        <f>U17*$N$1</f>
+        <f t="shared" si="11"/>
         <v>34.707881970999416</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4">
-        <f>w*N17*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.49534346509408</v>
       </c>
       <c r="Y17" s="4">
-        <f>X17*$G$1</f>
+        <f t="shared" si="13"/>
         <v>562.47671732547042</v>
       </c>
     </row>
@@ -12836,60 +14676,60 @@
         <v>60.443499420966504</v>
       </c>
       <c r="H18" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D18*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.305693260663745</v>
       </c>
       <c r="I18" s="1">
-        <f>2*PI()*150000*Ist*Ist*E18*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f>F18*SQRT(H18*I18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>2*PI()*150000*G18*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.28483328060725094</v>
       </c>
       <c r="N18">
-        <f>D18*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.799021756484862</v>
       </c>
       <c r="O18">
-        <f>E18*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1949612546080002</v>
       </c>
       <c r="P18">
-        <f>G18*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.90665249131449754</v>
       </c>
       <c r="Q18">
-        <f>P18/SQRT(N18*O18)</f>
+        <f t="shared" si="7"/>
         <v>0.10397489927663697</v>
       </c>
       <c r="S18" s="4">
-        <f>w*P18*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.272499209108763</v>
       </c>
       <c r="T18" s="4">
-        <f>P18*$G$1/O18</f>
+        <f t="shared" si="9"/>
         <v>1.4188786953313737</v>
       </c>
       <c r="U18" s="4">
-        <f>S18*T18</f>
+        <f t="shared" si="10"/>
         <v>6.0621581036245678</v>
       </c>
       <c r="V18" s="5">
-        <f>U18*$N$1</f>
+        <f t="shared" si="11"/>
         <v>30.31079051812284</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4">
-        <f>w*N18*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.15024786919473</v>
       </c>
       <c r="Y18" s="4">
-        <f>X18*$G$1</f>
+        <f t="shared" si="13"/>
         <v>560.75123934597366</v>
       </c>
     </row>
@@ -12918,60 +14758,60 @@
         <v>57.687104642311702</v>
       </c>
       <c r="H19" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D19*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.413294098999309</v>
       </c>
       <c r="I19" s="1">
-        <f>2*PI()*150000*Ist*Ist*E19*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <f>F19*SQRT(H19*I19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>2*PI()*150000*G19*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.27184407622672818</v>
       </c>
       <c r="N19">
-        <f>D19*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.840122249209507</v>
       </c>
       <c r="O19">
-        <f>E19*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1834619242410751</v>
       </c>
       <c r="P19">
-        <f>G19*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.86530656963467556</v>
       </c>
       <c r="Q19">
-        <f>P19/SQRT(N19*O19)</f>
+        <f t="shared" si="7"/>
         <v>9.932668289071965E-2</v>
       </c>
       <c r="S19" s="4">
-        <f>w*P19*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.0776611434009222</v>
       </c>
       <c r="T19" s="4">
-        <f>P19*$G$1/O19</f>
+        <f t="shared" si="9"/>
         <v>1.3590653669290569</v>
       </c>
       <c r="U19" s="4">
-        <f>S19*T19</f>
+        <f t="shared" si="10"/>
         <v>5.5418080380685319</v>
       </c>
       <c r="V19" s="5">
-        <f>U19*$N$1</f>
+        <f t="shared" si="11"/>
         <v>27.709040190342659</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4">
-        <f>w*N19*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.34392937819874</v>
       </c>
       <c r="Y19" s="4">
-        <f>X19*$G$1</f>
+        <f t="shared" si="13"/>
         <v>561.71964689099366</v>
       </c>
     </row>
@@ -13000,60 +14840,60 @@
         <v>56.203159474697998</v>
       </c>
       <c r="H20" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D20*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.331514502212464</v>
       </c>
       <c r="I20" s="1">
-        <f>2*PI()*150000*Ist*Ist*E20*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <f>F20*SQRT(H20*I20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>2*PI()*150000*G20*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.26485114937137022</v>
       </c>
       <c r="N20">
-        <f>D20*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.808884744235062</v>
       </c>
       <c r="O20">
-        <f>E20*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1737408670242249</v>
       </c>
       <c r="P20">
-        <f>G20*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.84304739212047008</v>
       </c>
       <c r="Q20">
-        <f>P20/SQRT(N20*O20)</f>
+        <f t="shared" si="7"/>
         <v>9.6983249385948364E-2</v>
       </c>
       <c r="S20" s="4">
-        <f>w*P20*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>3.9727672405705534</v>
       </c>
       <c r="T20" s="4">
-        <f>P20*$G$1/O20</f>
+        <f t="shared" si="9"/>
         <v>1.3281604066669304</v>
       </c>
       <c r="U20" s="4">
-        <f>S20*T20</f>
+        <f t="shared" si="10"/>
         <v>5.2764721538292454</v>
       </c>
       <c r="V20" s="5">
-        <f>U20*$N$1</f>
+        <f t="shared" si="11"/>
         <v>26.382360769146228</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4">
-        <f>w*N20*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.19672610398246</v>
       </c>
       <c r="Y20" s="4">
-        <f>X20*$G$1</f>
+        <f t="shared" si="13"/>
         <v>560.98363051991225</v>
       </c>
     </row>
@@ -13077,60 +14917,60 @@
         <v>91.639889885577603</v>
       </c>
       <c r="H21" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D21*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.276512396513084</v>
       </c>
       <c r="I21" s="1">
-        <f>2*PI()*150000*Ist*Ist*E21*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <f>F21*SQRT(H21*I21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>2*PI()*150000*G21*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.43184280726046231</v>
       </c>
       <c r="N21">
-        <f>D21*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.169847350849558</v>
       </c>
       <c r="O21">
-        <f>E21*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.5967894557356503</v>
       </c>
       <c r="P21">
-        <f>G21*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.3745983482836641</v>
       </c>
       <c r="Q21">
-        <f>P21/SQRT(N21*O21)</f>
+        <f t="shared" si="7"/>
         <v>0.14742846907269816</v>
       </c>
       <c r="S21" s="4">
-        <f>w*P21*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>6.4776421089069345</v>
       </c>
       <c r="T21" s="4">
-        <f>P21*$G$1/O21</f>
+        <f t="shared" si="9"/>
         <v>1.9108685192729997</v>
       </c>
       <c r="U21" s="4">
-        <f>S21*T21</f>
+        <f t="shared" si="10"/>
         <v>12.377922385027425</v>
       </c>
       <c r="V21" s="5">
-        <f>U21*$N$1</f>
+        <f t="shared" si="11"/>
         <v>61.889611925137125</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4">
-        <f>w*N21*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>113.89772231372355</v>
       </c>
       <c r="Y21" s="4">
-        <f>X21*$G$1</f>
+        <f t="shared" si="13"/>
         <v>569.48861156861778</v>
       </c>
     </row>
@@ -13159,60 +14999,60 @@
         <v>87.865200870896899</v>
       </c>
       <c r="H22" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D22*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.168394625603021</v>
       </c>
       <c r="I22" s="1">
-        <f>2*PI()*150000*Ist*Ist*E22*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <f>F22*SQRT(H22*I22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>2*PI()*150000*G22*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.41405500434330178</v>
       </c>
       <c r="N22">
-        <f>D22*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.12854940442617</v>
       </c>
       <c r="O22">
-        <f>E22*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.5438782841622003</v>
       </c>
       <c r="P22">
-        <f>G22*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.3179780130634535</v>
       </c>
       <c r="Q22">
-        <f>P22/SQRT(N22*O22)</f>
+        <f t="shared" si="7"/>
         <v>0.1425289743642674</v>
       </c>
       <c r="S22" s="4">
-        <f>w*P22*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>6.2108250651495256</v>
       </c>
       <c r="T22" s="4">
-        <f>P22*$G$1/O22</f>
+        <f t="shared" si="9"/>
         <v>1.8595136562019843</v>
       </c>
       <c r="U22" s="4">
-        <f>S22*T22</f>
+        <f t="shared" si="10"/>
         <v>11.549114024927121</v>
       </c>
       <c r="V22" s="5">
-        <f>U22*$N$1</f>
+        <f t="shared" si="11"/>
         <v>57.745570124635606</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4">
-        <f>w*N22*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>113.70311032608544</v>
       </c>
       <c r="Y22" s="4">
-        <f>X22*$G$1</f>
+        <f t="shared" si="13"/>
         <v>568.51555163042713</v>
       </c>
     </row>
@@ -13241,60 +15081,60 @@
         <v>79.156804726984106</v>
       </c>
       <c r="H23" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D23*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.956390301623571</v>
       </c>
       <c r="I23" s="1">
-        <f>2*PI()*150000*Ist*Ist*E23*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <f>F23*SQRT(H23*I23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>2*PI()*150000*G23*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.37301765431790262</v>
       </c>
       <c r="N23">
-        <f>D23*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.047569717742522</v>
       </c>
       <c r="O23">
-        <f>E23*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.4182282872017247</v>
       </c>
       <c r="P23">
-        <f>G23*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.1873520709047616</v>
       </c>
       <c r="Q23">
-        <f>P23/SQRT(N23*O23)</f>
+        <f t="shared" si="7"/>
         <v>0.13096142315394624</v>
       </c>
       <c r="S23" s="4">
-        <f>w*P23*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>5.5952648147685391</v>
       </c>
       <c r="T23" s="4">
-        <f>P23*$G$1/O23</f>
+        <f t="shared" si="9"/>
         <v>1.7367945776915437</v>
       </c>
       <c r="U23" s="4">
-        <f>S23*T23</f>
+        <f t="shared" si="10"/>
         <v>9.7178255910382774</v>
       </c>
       <c r="V23" s="5">
-        <f>U23*$N$1</f>
+        <f t="shared" si="11"/>
         <v>48.589127955191387</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4">
-        <f>w*N23*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>113.32150254292242</v>
       </c>
       <c r="Y23" s="4">
-        <f>X23*$G$1</f>
+        <f t="shared" si="13"/>
         <v>566.60751271461208</v>
       </c>
     </row>
@@ -13323,60 +15163,60 @@
         <v>70.630698413292393</v>
       </c>
       <c r="H24" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D24*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.655952243672367</v>
       </c>
       <c r="I24" s="1">
-        <f>2*PI()*150000*Ist*Ist*E24*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <f>F24*SQRT(H24*I24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>2*PI()*150000*G24*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.33283932487967349</v>
       </c>
       <c r="N24">
-        <f>D24*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.932810832904448</v>
       </c>
       <c r="O24">
-        <f>E24*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.3089884838765253</v>
       </c>
       <c r="P24">
-        <f>G24*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0594604761993858</v>
       </c>
       <c r="Q24">
-        <f>P24/SQRT(N24*O24)</f>
+        <f t="shared" si="7"/>
         <v>0.11905298196685547</v>
       </c>
       <c r="S24" s="4">
-        <f>w*P24*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.9925898731951008</v>
       </c>
       <c r="T24" s="4">
-        <f>P24*$G$1/O24</f>
+        <f t="shared" si="9"/>
         <v>1.6008826887155152</v>
       </c>
       <c r="U24" s="4">
-        <f>S24*T24</f>
+        <f t="shared" si="10"/>
         <v>7.9925506998544265</v>
       </c>
       <c r="V24" s="5">
-        <f>U24*$N$1</f>
+        <f t="shared" si="11"/>
         <v>39.962753499272132</v>
       </c>
       <c r="W24" s="4"/>
       <c r="X24" s="4">
-        <f>w*N24*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.78071403861026</v>
       </c>
       <c r="Y24" s="4">
-        <f>X24*$G$1</f>
+        <f t="shared" si="13"/>
         <v>563.90357019305134</v>
       </c>
     </row>
@@ -13405,60 +15245,60 @@
         <v>64.406971203959799</v>
       </c>
       <c r="H25" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D25*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.576311128014275</v>
       </c>
       <c r="I25" s="1">
-        <f>2*PI()*150000*Ist*Ist*E25*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <f>F25*SQRT(H25*I25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>2*PI()*150000*G25*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.30351070136149422</v>
       </c>
       <c r="N25">
-        <f>D25*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.902390167551641</v>
       </c>
       <c r="O25">
-        <f>E25*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.2501474602442748</v>
       </c>
       <c r="P25">
-        <f>G25*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.96610456805939693</v>
       </c>
       <c r="Q25">
-        <f>P25/SQRT(N25*O25)</f>
+        <f t="shared" si="7"/>
         <v>0.10961044406539595</v>
       </c>
       <c r="S25" s="4">
-        <f>w*P25*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.5526605204224122</v>
       </c>
       <c r="T25" s="4">
-        <f>P25*$G$1/O25</f>
+        <f t="shared" si="9"/>
         <v>1.4862472855105262</v>
       </c>
       <c r="U25" s="4">
-        <f>S25*T25</f>
+        <f t="shared" si="10"/>
         <v>6.7663793403287498</v>
       </c>
       <c r="V25" s="5">
-        <f>U25*$N$1</f>
+        <f t="shared" si="11"/>
         <v>33.83189670164375</v>
       </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4">
-        <f>w*N25*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.6373600304257</v>
       </c>
       <c r="Y25" s="4">
-        <f>X25*$G$1</f>
+        <f t="shared" si="13"/>
         <v>563.18680015212851</v>
       </c>
     </row>
@@ -13487,60 +15327,60 @@
         <v>59.717076672573803</v>
       </c>
       <c r="H26" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D26*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.363614022822873</v>
       </c>
       <c r="I26" s="1">
-        <f>2*PI()*150000*Ist*Ist*E26*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <f>F26*SQRT(H26*I26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>2*PI()*150000*G26*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.2814100940526244</v>
       </c>
       <c r="N26">
-        <f>D26*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.821145857937523</v>
       </c>
       <c r="O26">
-        <f>E26*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.2029236444825999</v>
       </c>
       <c r="P26">
-        <f>G26*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.89575615008860709</v>
       </c>
       <c r="Q26">
-        <f>P26/SQRT(N26*O26)</f>
+        <f t="shared" si="7"/>
         <v>0.10254988595236526</v>
       </c>
       <c r="S26" s="4">
-        <f>w*P26*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.221151410789366</v>
       </c>
       <c r="T26" s="4">
-        <f>P26*$G$1/O26</f>
+        <f t="shared" si="9"/>
         <v>1.3983414054088501</v>
       </c>
       <c r="U26" s="4">
-        <f>S26*T26</f>
+        <f t="shared" si="10"/>
         <v>5.9026107962067522</v>
       </c>
       <c r="V26" s="5">
-        <f>U26*$N$1</f>
+        <f t="shared" si="11"/>
         <v>29.51305398103376</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4">
-        <f>w*N26*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.25450524108118</v>
       </c>
       <c r="Y26" s="4">
-        <f>X26*$G$1</f>
+        <f t="shared" si="13"/>
         <v>561.27252620540594</v>
       </c>
     </row>
@@ -13569,60 +15409,60 @@
         <v>56.762825059866302</v>
       </c>
       <c r="H27" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D27*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.276946521800163</v>
       </c>
       <c r="I27" s="1">
-        <f>2*PI()*150000*Ist*Ist*E27*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <f>F27*SQRT(H27*I27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>2*PI()*150000*G27*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.26748851130761792</v>
       </c>
       <c r="N27">
-        <f>D27*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.788041311073876</v>
       </c>
       <c r="O27">
-        <f>E27*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1770408560553252</v>
       </c>
       <c r="P27">
-        <f>G27*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.85144237589799443</v>
       </c>
       <c r="Q27">
-        <f>P27/SQRT(N27*O27)</f>
+        <f t="shared" si="7"/>
         <v>9.7940996650946716E-2</v>
       </c>
       <c r="S27" s="4">
-        <f>w*P27*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.0123276696142671</v>
       </c>
       <c r="T27" s="4">
-        <f>P27*$G$1/O27</f>
+        <f t="shared" si="9"/>
         <v>1.3399928022253413</v>
       </c>
       <c r="U27" s="4">
-        <f>S27*T27</f>
+        <f t="shared" si="10"/>
         <v>5.3764901974526955</v>
       </c>
       <c r="V27" s="5">
-        <f>U27*$N$1</f>
+        <f t="shared" si="11"/>
         <v>26.882450987263478</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4">
-        <f>w*N27*10^-6*$G$1</f>
+        <f t="shared" si="12"/>
         <v>112.09850373924029</v>
       </c>
       <c r="Y27" s="4">
-        <f>X27*$G$1</f>
+        <f t="shared" si="13"/>
         <v>560.49251869620139</v>
       </c>
     </row>
@@ -13651,51 +15491,51 @@
         <v>55.270104753105301</v>
       </c>
       <c r="H28" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D28*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.294018811775587</v>
       </c>
       <c r="I28" s="1">
-        <f>2*PI()*150000*Ist*Ist*E28*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <f>F28*SQRT(H28*I28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>2*PI()*150000*G28*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.26045423258324091</v>
       </c>
       <c r="N28">
-        <f>D28*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.794562445488644</v>
       </c>
       <c r="O28">
-        <f>E28*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1689409840931253</v>
       </c>
       <c r="P28">
-        <f>G28*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.82905157129657947</v>
       </c>
       <c r="Q28">
-        <f>P28/SQRT(N28*O28)</f>
+        <f t="shared" si="7"/>
         <v>9.5474108015163955E-2</v>
       </c>
       <c r="S28" s="4">
-        <f>w*P28*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>3.9068134887486128</v>
       </c>
       <c r="T28" s="4">
-        <f>P28*$G$1/O28</f>
+        <f t="shared" si="9"/>
         <v>1.3080893198360304</v>
       </c>
       <c r="U28" s="4">
-        <f>S28*T28</f>
+        <f t="shared" si="10"/>
         <v>5.1104609992234016</v>
       </c>
       <c r="V28" s="5">
-        <f>U28*$N$1</f>
+        <f t="shared" si="11"/>
         <v>25.552304996117009</v>
       </c>
     </row>
@@ -13719,60 +15559,60 @@
         <v>89.492148621757593</v>
       </c>
       <c r="H29" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D29*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.319186773957355</v>
       </c>
       <c r="I29" s="1">
-        <f>2*PI()*150000*Ist*Ist*E29*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f>F29*SQRT(H29*I29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>2*PI()*150000*G29*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.42172181499611938</v>
       </c>
       <c r="N29">
-        <f>D29*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.18614776232226</v>
       </c>
       <c r="O29">
-        <f>E29*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.6072109653864253</v>
       </c>
       <c r="P29">
-        <f>G29*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.3423822293263641</v>
       </c>
       <c r="Q29">
-        <f>P29/SQRT(N29*O29)</f>
+        <f t="shared" si="7"/>
         <v>0.1437166456175954</v>
       </c>
       <c r="S29" s="4">
-        <f>w*P29*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>6.3258272249417917</v>
       </c>
       <c r="T29" s="4">
-        <f>P29*$G$1/O29</f>
+        <f t="shared" si="9"/>
         <v>1.8606927099737294</v>
       </c>
       <c r="U29" s="4">
-        <f>S29*T29</f>
+        <f t="shared" si="10"/>
         <v>11.770420602002538</v>
       </c>
       <c r="V29" s="5">
-        <f>U29*$N$1</f>
+        <f t="shared" si="11"/>
         <v>58.852103010012691</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4">
-        <f>w*N29*10^-6*$G$1</f>
+        <f t="shared" ref="X29:X60" si="14">w*N29*10^-6*$G$1</f>
         <v>113.97453619312323</v>
       </c>
       <c r="Y29" s="4">
-        <f>X29*$G$1</f>
+        <f t="shared" ref="Y29:Y60" si="15">X29*$G$1</f>
         <v>569.87268096561615</v>
       </c>
     </row>
@@ -13801,60 +15641,60 @@
         <v>85.564683357647297</v>
       </c>
       <c r="H30" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D30*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>63.168067423373394</v>
       </c>
       <c r="I30" s="1">
-        <f>2*PI()*150000*Ist*Ist*E30*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <f>F30*SQRT(H30*I30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>2*PI()*150000*G30*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.40321407096468243</v>
       </c>
       <c r="N30">
-        <f>D30*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>24.128424422380803</v>
       </c>
       <c r="O30">
-        <f>E30*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.5430328548382</v>
       </c>
       <c r="P30">
-        <f>G30*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2834702503647095</v>
       </c>
       <c r="Q30">
-        <f>P30/SQRT(N30*O30)</f>
+        <f t="shared" si="7"/>
         <v>0.13881414900497488</v>
       </c>
       <c r="S30" s="4">
-        <f>w*P30*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>6.0482110644702356</v>
       </c>
       <c r="T30" s="4">
-        <f>P30*$G$1/O30</f>
+        <f t="shared" si="9"/>
         <v>1.8112593122189971</v>
       </c>
       <c r="U30" s="4">
-        <f>S30*T30</f>
+        <f t="shared" si="10"/>
         <v>10.954878612787686</v>
       </c>
       <c r="V30" s="5">
-        <f>U30*$N$1</f>
+        <f t="shared" si="11"/>
         <v>54.774393063938433</v>
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4">
-        <f>w*N30*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>113.70252136207212</v>
       </c>
       <c r="Y30" s="4">
-        <f>X30*$G$1</f>
+        <f t="shared" si="15"/>
         <v>568.51260681036058</v>
       </c>
     </row>
@@ -13883,60 +15723,60 @@
         <v>77.113539329568795</v>
       </c>
       <c r="H31" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D31*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.821302212310037</v>
       </c>
       <c r="I31" s="1">
-        <f>2*PI()*150000*Ist*Ist*E31*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <f>F31*SQRT(H31*I31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>2*PI()*150000*G31*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.36338899297512139</v>
       </c>
       <c r="N31">
-        <f>D31*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.995969868541511</v>
       </c>
       <c r="O31">
-        <f>E31*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.4151744025121999</v>
       </c>
       <c r="P31">
-        <f>G31*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.156703089943532</v>
       </c>
       <c r="Q31">
-        <f>P31/SQRT(N31*O31)</f>
+        <f t="shared" si="7"/>
         <v>0.12777512027485463</v>
       </c>
       <c r="S31" s="4">
-        <f>w*P31*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>5.4508348946268201</v>
       </c>
       <c r="T31" s="4">
-        <f>P31*$G$1/O31</f>
+        <f t="shared" si="9"/>
         <v>1.6934758721145573</v>
       </c>
       <c r="U31" s="4">
-        <f>S31*T31</f>
+        <f t="shared" si="10"/>
         <v>9.230857376930615</v>
       </c>
       <c r="V31" s="5">
-        <f>U31*$N$1</f>
+        <f t="shared" si="11"/>
         <v>46.154286884653075</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4">
-        <f>w*N31*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>113.07834398215805</v>
       </c>
       <c r="Y31" s="4">
-        <f>X31*$G$1</f>
+        <f t="shared" si="15"/>
         <v>565.39171991079024</v>
       </c>
     </row>
@@ -13965,60 +15805,60 @@
         <v>68.922030209562905</v>
       </c>
       <c r="H32" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D32*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.639503993699222</v>
       </c>
       <c r="I32" s="1">
-        <f>2*PI()*150000*Ist*Ist*E32*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <f>F32*SQRT(H32*I32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>2*PI()*150000*G32*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.32478741566528496</v>
       </c>
       <c r="N32">
-        <f>D32*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.926528064212203</v>
       </c>
       <c r="O32">
-        <f>E32*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.3121602431602</v>
       </c>
       <c r="P32">
-        <f>G32*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0338304531434435</v>
       </c>
       <c r="Q32">
-        <f>P32/SQRT(N32*O32)</f>
+        <f t="shared" si="7"/>
         <v>0.11613250906921233</v>
       </c>
       <c r="S32" s="4">
-        <f>w*P32*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.8718112349792726</v>
       </c>
       <c r="T32" s="4">
-        <f>P32*$G$1/O32</f>
+        <f t="shared" si="9"/>
         <v>1.5606588710168272</v>
       </c>
       <c r="U32" s="4">
-        <f>S32*T32</f>
+        <f t="shared" si="10"/>
         <v>7.6032354217898463</v>
       </c>
       <c r="V32" s="5">
-        <f>U32*$N$1</f>
+        <f t="shared" si="11"/>
         <v>38.016177108949229</v>
       </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4">
-        <f>w*N32*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.75110718865859</v>
       </c>
       <c r="Y32" s="4">
-        <f>X32*$G$1</f>
+        <f t="shared" si="15"/>
         <v>563.75553594329301</v>
       </c>
     </row>
@@ -14047,60 +15887,60 @@
         <v>62.5413181434214</v>
       </c>
       <c r="H33" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D33*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.397630216904091</v>
       </c>
       <c r="I33" s="1">
-        <f>2*PI()*150000*Ist*Ist*E33*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <f>F33*SQRT(H33*I33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>2*PI()*150000*G33*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.29471901843779208</v>
       </c>
       <c r="N33">
-        <f>D33*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.834139086977196</v>
       </c>
       <c r="O33">
-        <f>E33*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.2391039711445004</v>
       </c>
       <c r="P33">
-        <f>G33*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.93811977215132103</v>
       </c>
       <c r="Q33">
-        <f>P33/SQRT(N33*O33)</f>
+        <f t="shared" si="7"/>
         <v>0.10676922994038129</v>
       </c>
       <c r="S33" s="4">
-        <f>w*P33*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.4207852765668809</v>
       </c>
       <c r="T33" s="4">
-        <f>P33*$G$1/O33</f>
+        <f t="shared" si="9"/>
         <v>1.4481161773572941</v>
       </c>
       <c r="U33" s="4">
-        <f>S33*T33</f>
+        <f t="shared" si="10"/>
         <v>6.4018106756194397</v>
       </c>
       <c r="V33" s="5">
-        <f>U33*$N$1</f>
+        <f t="shared" si="11"/>
         <v>32.0090533780972</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4">
-        <f>w*N33*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.31573439042734</v>
       </c>
       <c r="Y33" s="4">
-        <f>X33*$G$1</f>
+        <f t="shared" si="15"/>
         <v>561.57867195213669</v>
       </c>
     </row>
@@ -14129,60 +15969,60 @@
         <v>58.198247452155798</v>
       </c>
       <c r="H34" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D34*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.329868283001979</v>
       </c>
       <c r="I34" s="1">
-        <f>2*PI()*150000*Ist*Ist*E34*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f>F34*SQRT(H34*I34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>2*PI()*150000*G34*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.27425277997124031</v>
       </c>
       <c r="N34">
-        <f>D34*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.80825593481563</v>
       </c>
       <c r="O34">
-        <f>E34*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.2025999338803253</v>
       </c>
       <c r="P34">
-        <f>G34*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.87297371178233696</v>
       </c>
       <c r="Q34">
-        <f>P34/SQRT(N34*O34)</f>
+        <f t="shared" si="7"/>
         <v>9.9973760742127687E-2</v>
       </c>
       <c r="S34" s="4">
-        <f>w*P34*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>4.1137916995686048</v>
       </c>
       <c r="T34" s="4">
-        <f>P34*$G$1/O34</f>
+        <f t="shared" si="9"/>
         <v>1.3629140851268096</v>
       </c>
       <c r="U34" s="4">
-        <f>S34*T34</f>
+        <f t="shared" si="10"/>
         <v>5.6067446506198078</v>
       </c>
       <c r="V34" s="5">
-        <f>U34*$N$1</f>
+        <f t="shared" si="11"/>
         <v>28.033723253099041</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4">
-        <f>w*N34*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.19376290940355</v>
       </c>
       <c r="Y34" s="4">
-        <f>X34*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.9688145470177</v>
       </c>
     </row>
@@ -14211,60 +16051,60 @@
         <v>55.511699436125802</v>
       </c>
       <c r="H35" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D35*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.304312264644437</v>
       </c>
       <c r="I35" s="1">
-        <f>2*PI()*150000*Ist*Ist*E35*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <f>F35*SQRT(H35*I35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>2*PI()*150000*G35*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.26159272070522621</v>
       </c>
       <c r="N35">
-        <f>D35*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.798494254861989</v>
       </c>
       <c r="O35">
-        <f>E35*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1814619652223</v>
       </c>
       <c r="P35">
-        <f>G35*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.83267549154188703</v>
       </c>
       <c r="Q35">
-        <f>P35/SQRT(N35*O35)</f>
+        <f t="shared" si="7"/>
         <v>9.5694653531627774E-2</v>
       </c>
       <c r="S35" s="4">
-        <f>w*P35*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>3.923890810578393</v>
       </c>
       <c r="T35" s="4">
-        <f>P35*$G$1/O35</f>
+        <f t="shared" si="9"/>
         <v>1.3086365649568674</v>
       </c>
       <c r="U35" s="4">
-        <f>S35*T35</f>
+        <f t="shared" si="10"/>
         <v>5.1349469916211259</v>
       </c>
       <c r="V35" s="5">
-        <f>U35*$N$1</f>
+        <f t="shared" si="11"/>
         <v>25.674734958105631</v>
       </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4">
-        <f>w*N35*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.14776207635998</v>
       </c>
       <c r="Y35" s="4">
-        <f>X35*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.73881038179991</v>
       </c>
       <c r="AA35" t="s">
@@ -14296,60 +16136,60 @@
         <v>53.957645351057501</v>
       </c>
       <c r="H36" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D36*(10^-9)</f>
+        <f t="shared" si="0"/>
         <v>62.274343306984598</v>
       </c>
       <c r="I36" s="1">
-        <f>2*PI()*150000*Ist*Ist*E36*(10^-9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f>F36*SQRT(H36*I36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>2*PI()*150000*G36*Ipt*(10^-9)</f>
+        <f t="shared" si="3"/>
         <v>0.25426941335982856</v>
       </c>
       <c r="N36">
-        <f>D36*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>23.787046956259889</v>
       </c>
       <c r="O36">
-        <f>E36*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.1711673716120248</v>
       </c>
       <c r="P36">
-        <f>G36*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>0.8093646802658625</v>
       </c>
       <c r="Q36">
-        <f>P36/SQRT(N36*O36)</f>
+        <f t="shared" si="7"/>
         <v>9.3188946325329244E-2</v>
       </c>
       <c r="S36" s="4">
-        <f>w*P36*10^-6*$G$1</f>
+        <f t="shared" si="8"/>
         <v>3.814041200397428</v>
       </c>
       <c r="T36" s="4">
-        <f>P36*$G$1/O36</f>
+        <f t="shared" si="9"/>
         <v>1.2761304993095204</v>
       </c>
       <c r="U36" s="4">
-        <f>S36*T36</f>
+        <f t="shared" si="10"/>
         <v>4.867214301450252</v>
       </c>
       <c r="V36" s="5">
-        <f>U36*$N$1</f>
+        <f t="shared" si="11"/>
         <v>24.336071507251262</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4">
-        <f>w*N36*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.09381795257228</v>
       </c>
       <c r="Y36" s="4">
-        <f>X36*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.46908976286136</v>
       </c>
     </row>
@@ -14373,60 +16213,60 @@
         <v>86.065150846825802</v>
       </c>
       <c r="H37" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D37*(10^-9)</f>
+        <f t="shared" ref="H37:H68" si="16">2*PI()*150000*Ipt*Ipt*D37*(10^-9)</f>
         <v>63.12581900275503</v>
       </c>
       <c r="I37" s="1">
-        <f>2*PI()*150000*Ist*Ist*E37*(10^-9)</f>
+        <f t="shared" ref="I37:I68" si="17">2*PI()*150000*Ist*Ist*E37*(10^-9)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <f>F37*SQRT(H37*I37)</f>
+        <f t="shared" ref="J37:J68" si="18">F37*SQRT(H37*I37)</f>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>2*PI()*150000*G37*Ipt*(10^-9)</f>
+        <f t="shared" ref="K37:K68" si="19">2*PI()*150000*G37*Ipt*(10^-9)</f>
         <v>0.40557246844572797</v>
       </c>
       <c r="N37">
-        <f>D37*$D$1^2*10^-3</f>
+        <f t="shared" ref="N37:N68" si="20">D37*$D$1^2*10^-3</f>
         <v>24.112286714430631</v>
       </c>
       <c r="O37">
-        <f>E37*$D$2^2*10^-3</f>
+        <f t="shared" ref="O37:O68" si="21">E37*$D$2^2*10^-3</f>
         <v>3.6004051306115001</v>
       </c>
       <c r="P37">
-        <f>G37*$D$1*$D$2*10^-3</f>
+        <f t="shared" ref="P37:P68" si="22">G37*$D$1*$D$2*10^-3</f>
         <v>1.290977262702387</v>
       </c>
       <c r="Q37">
-        <f>P37/SQRT(N37*O37)</f>
+        <f t="shared" ref="Q37:Q68" si="23">P37/SQRT(N37*O37)</f>
         <v>0.13855548019580788</v>
       </c>
       <c r="S37" s="4">
-        <f>w*P37*10^-6*$G$1</f>
+        <f t="shared" ref="S37:S68" si="24">w*P37*10^-6*$G$1</f>
         <v>6.083587026685918</v>
       </c>
       <c r="T37" s="4">
-        <f>P37*$G$1/O37</f>
+        <f t="shared" ref="T37:T68" si="25">P37*$G$1/O37</f>
         <v>1.7928222184306308</v>
       </c>
       <c r="U37" s="4">
-        <f>S37*T37</f>
+        <f t="shared" ref="U37:U68" si="26">S37*T37</f>
         <v>10.906789989198852</v>
       </c>
       <c r="V37" s="5">
-        <f>U37*$N$1</f>
+        <f t="shared" ref="V37:V68" si="27">U37*$N$1</f>
         <v>54.533949945994266</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4">
-        <f>w*N37*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>113.62647420495905</v>
       </c>
       <c r="Y37" s="4">
-        <f>X37*$G$1</f>
+        <f t="shared" si="15"/>
         <v>568.13237102479525</v>
       </c>
     </row>
@@ -14455,60 +16295,60 @@
         <v>74.394924294149007</v>
       </c>
       <c r="H38" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D38*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.815053689487208</v>
       </c>
       <c r="I38" s="1">
-        <f>2*PI()*150000*Ist*Ist*E38*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <f>F38*SQRT(H38*I38)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>2*PI()*150000*G38*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.35057782144030103</v>
       </c>
       <c r="N38">
-        <f>D38*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.993583108635249</v>
       </c>
       <c r="O38">
-        <f>E38*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.4193925417447244</v>
       </c>
       <c r="P38">
-        <f>G38*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>1.1159238644122351</v>
       </c>
       <c r="Q38">
-        <f>P38/SQRT(N38*O38)</f>
+        <f t="shared" si="23"/>
         <v>0.12320051714993761</v>
       </c>
       <c r="S38" s="4">
-        <f>w*P38*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>5.2586673216045154</v>
       </c>
       <c r="T38" s="4">
-        <f>P38*$G$1/O38</f>
+        <f t="shared" si="25"/>
         <v>1.6317574697680683</v>
       </c>
       <c r="U38" s="4">
-        <f>S38*T38</f>
+        <f t="shared" si="26"/>
         <v>8.5808696830534092</v>
       </c>
       <c r="V38" s="5">
-        <f>U38*$N$1</f>
+        <f t="shared" si="27"/>
         <v>42.904348415267044</v>
       </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4">
-        <f>w*N38*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>113.06709664107697</v>
       </c>
       <c r="Y38" s="4">
-        <f>X38*$G$1</f>
+        <f t="shared" si="15"/>
         <v>565.33548320538489</v>
       </c>
     </row>
@@ -14537,60 +16377,60 @@
         <v>66.383278948810101</v>
       </c>
       <c r="H39" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D39*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.517995615577192</v>
       </c>
       <c r="I39" s="1">
-        <f>2*PI()*150000*Ist*Ist*E39*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <f>F39*SQRT(H39*I39)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f>2*PI()*150000*G39*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.31282383220017568</v>
       </c>
       <c r="N39">
-        <f>D39*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.880115282599721</v>
       </c>
       <c r="O39">
-        <f>E39*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.3107792713112247</v>
       </c>
       <c r="P39">
-        <f>G39*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.99574918423215153</v>
       </c>
       <c r="Q39">
-        <f>P39/SQRT(N39*O39)</f>
+        <f t="shared" si="23"/>
         <v>0.11198674871224991</v>
       </c>
       <c r="S39" s="4">
-        <f>w*P39*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.6923574830026347</v>
       </c>
       <c r="T39" s="4">
-        <f>P39*$G$1/O39</f>
+        <f t="shared" si="25"/>
         <v>1.5037988078223468</v>
       </c>
       <c r="U39" s="4">
-        <f>S39*T39</f>
+        <f t="shared" si="26"/>
         <v>7.0563615888156299</v>
       </c>
       <c r="V39" s="5">
-        <f>U39*$N$1</f>
+        <f t="shared" si="27"/>
         <v>35.281807944078153</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4">
-        <f>w*N39*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.53239210803895</v>
       </c>
       <c r="Y39" s="4">
-        <f>X39*$G$1</f>
+        <f t="shared" si="15"/>
         <v>562.66196054019474</v>
       </c>
     </row>
@@ -14619,60 +16459,60 @@
         <v>60.395291640386503</v>
       </c>
       <c r="H40" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D40*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.430360436322445</v>
       </c>
       <c r="I40" s="1">
-        <f>2*PI()*150000*Ist*Ist*E40*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <f>F40*SQRT(H40*I40)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f>2*PI()*150000*G40*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.28460610679327691</v>
       </c>
       <c r="N40">
-        <f>D40*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.84664110987859</v>
       </c>
       <c r="O40">
-        <f>E40*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.2412690426588497</v>
       </c>
       <c r="P40">
-        <f>G40*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.90592937460579748</v>
       </c>
       <c r="Q40">
-        <f>P40/SQRT(N40*O40)</f>
+        <f t="shared" si="23"/>
         <v>0.10304411493045527</v>
       </c>
       <c r="S40" s="4">
-        <f>w*P40*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.2690916018991532</v>
       </c>
       <c r="T40" s="4">
-        <f>P40*$G$1/O40</f>
+        <f t="shared" si="25"/>
         <v>1.3974917889917793</v>
       </c>
       <c r="U40" s="4">
-        <f>S40*T40</f>
+        <f t="shared" si="26"/>
         <v>5.9660204601078286</v>
       </c>
       <c r="V40" s="5">
-        <f>U40*$N$1</f>
+        <f t="shared" si="27"/>
         <v>29.830102300539142</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4">
-        <f>w*N40*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.37464878538037</v>
       </c>
       <c r="Y40" s="4">
-        <f>X40*$G$1</f>
+        <f t="shared" si="15"/>
         <v>561.87324392690186</v>
       </c>
     </row>
@@ -14701,60 +16541,60 @@
         <v>56.152206465463998</v>
       </c>
       <c r="H41" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D41*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.260882338635426</v>
       </c>
       <c r="I41" s="1">
-        <f>2*PI()*150000*Ist*Ist*E41*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <f>F41*SQRT(H41*I41)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f>2*PI()*150000*G41*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.2646110389721385</v>
       </c>
       <c r="N41">
-        <f>D41*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.781905245096109</v>
       </c>
       <c r="O41">
-        <f>E41*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.198037062279325</v>
       </c>
       <c r="P41">
-        <f>G41*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.84228309698195991</v>
       </c>
       <c r="Q41">
-        <f>P41/SQRT(N41*O41)</f>
+        <f t="shared" si="23"/>
         <v>9.6581293346054919E-2</v>
       </c>
       <c r="S41" s="4">
-        <f>w*P41*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.9691655845820768</v>
       </c>
       <c r="T41" s="4">
-        <f>P41*$G$1/O41</f>
+        <f t="shared" si="25"/>
         <v>1.3168751339949181</v>
       </c>
       <c r="U41" s="4">
-        <f>S41*T41</f>
+        <f t="shared" si="26"/>
         <v>5.2268954610445393</v>
       </c>
       <c r="V41" s="5">
-        <f>U41*$N$1</f>
+        <f t="shared" si="27"/>
         <v>26.134477305222696</v>
       </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4">
-        <f>w*N41*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.06958820954375</v>
       </c>
       <c r="Y41" s="4">
-        <f>X41*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.34794104771879</v>
       </c>
     </row>
@@ -14783,60 +16623,60 @@
         <v>53.521747346580902</v>
       </c>
       <c r="H42" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D42*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.199932399414408</v>
       </c>
       <c r="I42" s="1">
-        <f>2*PI()*150000*Ist*Ist*E42*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <f>F42*SQRT(H42*I42)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f>2*PI()*150000*G42*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.25221529240696139</v>
       </c>
       <c r="N42">
-        <f>D42*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.758624083236491</v>
       </c>
       <c r="O42">
-        <f>E42*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1803118462506998</v>
       </c>
       <c r="P42">
-        <f>G42*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.8028262101987137</v>
       </c>
       <c r="Q42">
-        <f>P42/SQRT(N42*O42)</f>
+        <f t="shared" si="23"/>
         <v>9.2358324607455577E-2</v>
       </c>
       <c r="S42" s="4">
-        <f>w*P42*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.7832293861044208</v>
       </c>
       <c r="T42" s="4">
-        <f>P42*$G$1/O42</f>
+        <f t="shared" si="25"/>
         <v>1.2621815862887364</v>
       </c>
       <c r="U42" s="4">
-        <f>S42*T42</f>
+        <f t="shared" si="26"/>
         <v>4.7751224678474404</v>
       </c>
       <c r="V42" s="5">
-        <f>U42*$N$1</f>
+        <f t="shared" si="27"/>
         <v>23.8756123392372</v>
       </c>
       <c r="W42" s="4"/>
       <c r="X42" s="4">
-        <f>w*N42*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>111.95987831894593</v>
       </c>
       <c r="Y42" s="4">
-        <f>X42*$G$1</f>
+        <f t="shared" si="15"/>
         <v>559.79939159472963</v>
       </c>
     </row>
@@ -14865,60 +16705,60 @@
         <v>52.134424847703301</v>
       </c>
       <c r="H43" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D43*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.219372872846968</v>
       </c>
       <c r="I43" s="1">
-        <f>2*PI()*150000*Ist*Ist*E43*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <f>F43*SQRT(H43*I43)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>2*PI()*150000*G43*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.24567768915101079</v>
       </c>
       <c r="N43">
-        <f>D43*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.766049797099303</v>
       </c>
       <c r="O43">
-        <f>E43*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1688524520474499</v>
       </c>
       <c r="P43">
-        <f>G43*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.78201637271554947</v>
       </c>
       <c r="Q43">
-        <f>P43/SQRT(N43*O43)</f>
+        <f t="shared" si="23"/>
         <v>9.0112769082088637E-2</v>
       </c>
       <c r="S43" s="4">
-        <f>w*P43*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.6851653372651616</v>
       </c>
       <c r="T43" s="4">
-        <f>P43*$G$1/O43</f>
+        <f t="shared" si="25"/>
         <v>1.2339109891504656</v>
       </c>
       <c r="U43" s="4">
-        <f>S43*T43</f>
+        <f t="shared" si="26"/>
         <v>4.5471660064878643</v>
       </c>
       <c r="V43" s="5">
-        <f>U43*$N$1</f>
+        <f t="shared" si="27"/>
         <v>22.735830032439321</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4">
-        <f>w*N43*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>111.99487117112454</v>
       </c>
       <c r="Y43" s="4">
-        <f>X43*$G$1</f>
+        <f t="shared" si="15"/>
         <v>559.97435585562266</v>
       </c>
     </row>
@@ -14942,60 +16782,60 @@
         <v>82.053836582066594</v>
       </c>
       <c r="H44" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D44*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>63.086760308242638</v>
       </c>
       <c r="I44" s="1">
-        <f>2*PI()*150000*Ist*Ist*E44*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <f>F44*SQRT(H44*I44)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>2*PI()*150000*G44*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.38666959530761674</v>
       </c>
       <c r="N44">
-        <f>D44*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>24.09736739210496</v>
       </c>
       <c r="O44">
-        <f>E44*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.6037264713247752</v>
       </c>
       <c r="P44">
-        <f>G44*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>1.2308075487309988</v>
       </c>
       <c r="Q44">
-        <f>P44/SQRT(N44*O44)</f>
+        <f t="shared" si="23"/>
         <v>0.13207768302811407</v>
       </c>
       <c r="S44" s="4">
-        <f>w*P44*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>5.800043929614251</v>
       </c>
       <c r="T44" s="4">
-        <f>P44*$G$1/O44</f>
+        <f t="shared" si="25"/>
         <v>1.7076872489139534</v>
       </c>
       <c r="U44" s="4">
-        <f>S44*T44</f>
+        <f t="shared" si="26"/>
         <v>9.9046610617430364</v>
       </c>
       <c r="V44" s="5">
-        <f>U44*$N$1</f>
+        <f t="shared" si="27"/>
         <v>49.52330530871518</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4">
-        <f>w*N44*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>113.55616855483674</v>
       </c>
       <c r="Y44" s="4">
-        <f>X44*$G$1</f>
+        <f t="shared" si="15"/>
         <v>567.78084277418372</v>
       </c>
     </row>
@@ -15024,60 +16864,60 @@
         <v>70.894634317797895</v>
       </c>
       <c r="H45" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D45*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.699345317403981</v>
       </c>
       <c r="I45" s="1">
-        <f>2*PI()*150000*Ist*Ist*E45*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <f>F45*SQRT(H45*I45)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>2*PI()*150000*G45*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.33408309352759308</v>
       </c>
       <c r="N45">
-        <f>D45*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.949385766137262</v>
       </c>
       <c r="O45">
-        <f>E45*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.4175508844587497</v>
       </c>
       <c r="P45">
-        <f>G45*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>1.0634195147669685</v>
       </c>
       <c r="Q45">
-        <f>P45/SQRT(N45*O45)</f>
+        <f t="shared" si="23"/>
         <v>0.11754385808569263</v>
       </c>
       <c r="S45" s="4">
-        <f>w*P45*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>5.0112464029138959</v>
       </c>
       <c r="T45" s="4">
-        <f>P45*$G$1/O45</f>
+        <f t="shared" si="25"/>
         <v>1.5558210407383388</v>
       </c>
       <c r="U45" s="4">
-        <f>S45*T45</f>
+        <f t="shared" si="26"/>
         <v>7.7966025939777541</v>
       </c>
       <c r="V45" s="5">
-        <f>U45*$N$1</f>
+        <f t="shared" si="27"/>
         <v>38.983012969888769</v>
       </c>
       <c r="W45" s="4"/>
       <c r="X45" s="4">
-        <f>w*N45*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.85882157132717</v>
       </c>
       <c r="Y45" s="4">
-        <f>X45*$G$1</f>
+        <f t="shared" si="15"/>
         <v>564.29410785663583</v>
       </c>
     </row>
@@ -15106,60 +16946,60 @@
         <v>63.225936967231597</v>
       </c>
       <c r="H46" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D46*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.455097082291715</v>
       </c>
       <c r="I46" s="1">
-        <f>2*PI()*150000*Ist*Ist*E46*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <f>F46*SQRT(H46*I46)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f>2*PI()*150000*G46*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.29794520863887919</v>
       </c>
       <c r="N46">
-        <f>D46*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.856089812634249</v>
       </c>
       <c r="O46">
-        <f>E46*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.3019334142488752</v>
       </c>
       <c r="P46">
-        <f>G46*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.94838905450847388</v>
       </c>
       <c r="Q46">
-        <f>P46/SQRT(N46*O46)</f>
+        <f t="shared" si="23"/>
         <v>0.10685694333277518</v>
       </c>
       <c r="S46" s="4">
-        <f>w*P46*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.4691781295831863</v>
       </c>
       <c r="T46" s="4">
-        <f>P46*$G$1/O46</f>
+        <f t="shared" si="25"/>
         <v>1.4361117192973647</v>
       </c>
       <c r="U46" s="4">
-        <f>S46*T46</f>
+        <f t="shared" si="26"/>
         <v>6.41823908752189</v>
       </c>
       <c r="V46" s="5">
-        <f>U46*$N$1</f>
+        <f t="shared" si="27"/>
         <v>32.09119543760945</v>
       </c>
       <c r="W46" s="4"/>
       <c r="X46" s="4">
-        <f>w*N46*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.41917474812509</v>
       </c>
       <c r="Y46" s="4">
-        <f>X46*$G$1</f>
+        <f t="shared" si="15"/>
         <v>562.09587374062539</v>
       </c>
     </row>
@@ -15188,60 +17028,60 @@
         <v>57.712212283864602</v>
       </c>
       <c r="H47" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D47*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.399412265598684</v>
       </c>
       <c r="I47" s="1">
-        <f>2*PI()*150000*Ist*Ist*E47*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <f>F47*SQRT(H47*I47)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>2*PI()*150000*G47*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.27196239320010551</v>
       </c>
       <c r="N47">
-        <f>D47*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.83481977943778</v>
       </c>
       <c r="O47">
-        <f>E47*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.2440768470797501</v>
       </c>
       <c r="P47">
-        <f>G47*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.86568318425796908</v>
       </c>
       <c r="Q47">
-        <f>P47/SQRT(N47*O47)</f>
+        <f t="shared" si="23"/>
         <v>9.844813166264306E-2</v>
       </c>
       <c r="S47" s="4">
-        <f>w*P47*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.0794358980015826</v>
       </c>
       <c r="T47" s="4">
-        <f>P47*$G$1/O47</f>
+        <f t="shared" si="25"/>
         <v>1.3342519691499279</v>
       </c>
       <c r="U47" s="4">
-        <f>S47*T47</f>
+        <f t="shared" si="26"/>
         <v>5.4429953799295161</v>
       </c>
       <c r="V47" s="5">
-        <f>U47*$N$1</f>
+        <f t="shared" si="27"/>
         <v>27.214976899647581</v>
       </c>
       <c r="W47" s="4"/>
       <c r="X47" s="4">
-        <f>w*N47*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.31894207807763</v>
       </c>
       <c r="Y47" s="4">
-        <f>X47*$G$1</f>
+        <f t="shared" si="15"/>
         <v>561.59471039038817</v>
       </c>
     </row>
@@ -15270,60 +17110,60 @@
         <v>53.707152429576098</v>
       </c>
       <c r="H48" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D48*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.23452969754684</v>
       </c>
       <c r="I48" s="1">
-        <f>2*PI()*150000*Ist*Ist*E48*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <f>F48*SQRT(H48*I48)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>2*PI()*150000*G48*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.2530889932769752</v>
       </c>
       <c r="N48">
-        <f>D48*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.77183927767345</v>
       </c>
       <c r="O48">
-        <f>E48*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.2039658663435753</v>
       </c>
       <c r="P48">
-        <f>G48*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.80560728644364143</v>
       </c>
       <c r="Q48">
-        <f>P48/SQRT(N48*O48)</f>
+        <f t="shared" si="23"/>
         <v>9.2309851566490381E-2</v>
       </c>
       <c r="S48" s="4">
-        <f>w*P48*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.7963348991546275</v>
       </c>
       <c r="T48" s="4">
-        <f>P48*$G$1/O48</f>
+        <f t="shared" si="25"/>
         <v>1.2572032912495028</v>
       </c>
       <c r="U48" s="4">
-        <f>S48*T48</f>
+        <f t="shared" si="26"/>
         <v>4.7727647299025469</v>
       </c>
       <c r="V48" s="5">
-        <f>U48*$N$1</f>
+        <f t="shared" si="27"/>
         <v>23.863823649512735</v>
       </c>
       <c r="W48" s="4"/>
       <c r="X48" s="4">
-        <f>w*N48*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.0221534555843</v>
       </c>
       <c r="Y48" s="4">
-        <f>X48*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.11076727792147</v>
       </c>
     </row>
@@ -15352,60 +17192,60 @@
         <v>51.248750581791697</v>
       </c>
       <c r="H49" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D49*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.229215600966441</v>
       </c>
       <c r="I49" s="1">
-        <f>2*PI()*150000*Ist*Ist*E49*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J49" s="2">
-        <f>F49*SQRT(H49*I49)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f>2*PI()*150000*G49*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.24150404750011867</v>
       </c>
       <c r="N49">
-        <f>D49*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.76980944230024</v>
       </c>
       <c r="O49">
-        <f>E49*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1830410787543251</v>
       </c>
       <c r="P49">
-        <f>G49*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.76873125872687553</v>
       </c>
       <c r="Q49">
-        <f>P49/SQRT(N49*O49)</f>
+        <f t="shared" si="23"/>
         <v>8.8377267419283326E-2</v>
       </c>
       <c r="S49" s="4">
-        <f>w*P49*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.6225607125017794</v>
       </c>
       <c r="T49" s="4">
-        <f>P49*$G$1/O49</f>
+        <f t="shared" si="25"/>
         <v>1.2075421581233825</v>
       </c>
       <c r="U49" s="4">
-        <f>S49*T49</f>
+        <f t="shared" si="26"/>
         <v>4.3743947807073766</v>
       </c>
       <c r="V49" s="5">
-        <f>U49*$N$1</f>
+        <f t="shared" si="27"/>
         <v>21.871973903536883</v>
       </c>
       <c r="W49" s="4"/>
       <c r="X49" s="4">
-        <f>w*N49*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.01258808173959</v>
       </c>
       <c r="Y49" s="4">
-        <f>X49*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.06294040869795</v>
       </c>
     </row>
@@ -15434,60 +17274,60 @@
         <v>50.043388711353003</v>
       </c>
       <c r="H50" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D50*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.257774580137692</v>
       </c>
       <c r="I50" s="1">
-        <f>2*PI()*150000*Ist*Ist*E50*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J50" s="2">
-        <f>F50*SQRT(H50*I50)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>2*PI()*150000*G50*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.23582391350448748</v>
       </c>
       <c r="N50">
-        <f>D50*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.780718168791669</v>
       </c>
       <c r="O50">
-        <f>E50*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1790922715003997</v>
       </c>
       <c r="P50">
-        <f>G50*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.75065083067029503</v>
       </c>
       <c r="Q50">
-        <f>P50/SQRT(N50*O50)</f>
+        <f t="shared" si="23"/>
         <v>8.633242099687112E-2</v>
       </c>
       <c r="S50" s="4">
-        <f>w*P50*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.5373587025673112</v>
       </c>
       <c r="T50" s="4">
-        <f>P50*$G$1/O50</f>
+        <f t="shared" si="25"/>
         <v>1.1806056046243965</v>
       </c>
       <c r="U50" s="4">
-        <f>S50*T50</f>
+        <f t="shared" si="26"/>
         <v>4.1762255098178507</v>
       </c>
       <c r="V50" s="5">
-        <f>U50*$N$1</f>
+        <f t="shared" si="27"/>
         <v>20.881127549089253</v>
       </c>
       <c r="W50" s="4"/>
       <c r="X50" s="4">
-        <f>w*N50*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.06399424424785</v>
       </c>
       <c r="Y50" s="4">
-        <f>X50*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.31997122123926</v>
       </c>
     </row>
@@ -15511,60 +17351,60 @@
         <v>76.967513621381698</v>
       </c>
       <c r="H51" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D51*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.832231982771326</v>
       </c>
       <c r="I51" s="1">
-        <f>2*PI()*150000*Ist*Ist*E51*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <f>F51*SQRT(H51*I51)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f>2*PI()*150000*G51*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.3627008630370076</v>
       </c>
       <c r="N51">
-        <f>D51*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>24.000144733331371</v>
       </c>
       <c r="O51">
-        <f>E51*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.5969881358146254</v>
       </c>
       <c r="P51">
-        <f>G51*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>1.1545127043207255</v>
       </c>
       <c r="Q51">
-        <f>P51/SQRT(N51*O51)</f>
+        <f t="shared" si="23"/>
         <v>0.12425740605673623</v>
       </c>
       <c r="S51" s="4">
-        <f>w*P51*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>5.4405129455551133</v>
       </c>
       <c r="T51" s="4">
-        <f>P51*$G$1/O51</f>
+        <f t="shared" si="25"/>
         <v>1.6048325164398383</v>
       </c>
       <c r="U51" s="4">
-        <f>S51*T51</f>
+        <f t="shared" si="26"/>
         <v>8.7311120811387291</v>
       </c>
       <c r="V51" s="5">
-        <f>U51*$N$1</f>
+        <f t="shared" si="27"/>
         <v>43.655560405693649</v>
       </c>
       <c r="W51" s="4"/>
       <c r="X51" s="4">
-        <f>w*N51*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>113.09801756898841</v>
       </c>
       <c r="Y51" s="4">
-        <f>X51*$G$1</f>
+        <f t="shared" si="15"/>
         <v>565.49008784494208</v>
       </c>
     </row>
@@ -15593,60 +17433,60 @@
         <v>66.7791453226979</v>
       </c>
       <c r="H52" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D52*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.590261151775991</v>
       </c>
       <c r="I52" s="1">
-        <f>2*PI()*150000*Ist*Ist*E52*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J52" s="2">
-        <f>F52*SQRT(H52*I52)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>2*PI()*150000*G52*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.31468930853818944</v>
       </c>
       <c r="N52">
-        <f>D52*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.907718684122663</v>
       </c>
       <c r="O52">
-        <f>E52*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.4164120781952749</v>
       </c>
       <c r="P52">
-        <f>G52*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>1.0016871798404685</v>
       </c>
       <c r="Q52">
-        <f>P52/SQRT(N52*O52)</f>
+        <f t="shared" si="23"/>
         <v>0.11083525446171513</v>
       </c>
       <c r="S52" s="4">
-        <f>w*P52*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.7203396280728409</v>
       </c>
       <c r="T52" s="4">
-        <f>P52*$G$1/O52</f>
+        <f t="shared" si="25"/>
         <v>1.465992914369995</v>
       </c>
       <c r="U52" s="4">
-        <f>S52*T52</f>
+        <f t="shared" si="26"/>
         <v>6.9199844481746826</v>
       </c>
       <c r="V52" s="5">
-        <f>U52*$N$1</f>
+        <f t="shared" si="27"/>
         <v>34.599922240873411</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4">
-        <f>w*N52*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.66247007319679</v>
       </c>
       <c r="Y52" s="4">
-        <f>X52*$G$1</f>
+        <f t="shared" si="15"/>
         <v>563.31235036598389</v>
       </c>
     </row>
@@ -15675,60 +17515,60 @@
         <v>59.580721331836799</v>
       </c>
       <c r="H53" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D53*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.267234684757831</v>
       </c>
       <c r="I53" s="1">
-        <f>2*PI()*150000*Ist*Ist*E53*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <f>F53*SQRT(H53*I53)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f>2*PI()*150000*G53*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.28076753464751875</v>
       </c>
       <c r="N53">
-        <f>D53*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.784331662581579</v>
       </c>
       <c r="O53">
-        <f>E53*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.303398184749375</v>
       </c>
       <c r="P53">
-        <f>G53*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.89371081997755197</v>
       </c>
       <c r="Q53">
-        <f>P53/SQRT(N53*O53)</f>
+        <f t="shared" si="23"/>
         <v>0.10082566076033224</v>
       </c>
       <c r="S53" s="4">
-        <f>w*P53*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.2115130197127808</v>
       </c>
       <c r="T53" s="4">
-        <f>P53*$G$1/O53</f>
+        <f t="shared" si="25"/>
         <v>1.3527143414068272</v>
       </c>
       <c r="U53" s="4">
-        <f>S53*T53</f>
+        <f t="shared" si="26"/>
         <v>5.6969740607870527</v>
       </c>
       <c r="V53" s="5">
-        <f>U53*$N$1</f>
+        <f t="shared" si="27"/>
         <v>28.484870303935264</v>
       </c>
       <c r="W53" s="4"/>
       <c r="X53" s="4">
-        <f>w*N53*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.08102243256408</v>
       </c>
       <c r="Y53" s="4">
-        <f>X53*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.40511216282039</v>
       </c>
     </row>
@@ -15757,60 +17597,60 @@
         <v>54.4991647515415</v>
       </c>
       <c r="H54" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D54*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.290840809960734</v>
       </c>
       <c r="I54" s="1">
-        <f>2*PI()*150000*Ist*Ist*E54*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <f>F54*SQRT(H54*I54)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f>2*PI()*150000*G54*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.2568212634153339</v>
       </c>
       <c r="N54">
-        <f>D54*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.793348538213472</v>
       </c>
       <c r="O54">
-        <f>E54*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.2439594289490006</v>
       </c>
       <c r="P54">
-        <f>G54*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.81748747127312249</v>
       </c>
       <c r="Q54">
-        <f>P54/SQRT(N54*O54)</f>
+        <f t="shared" si="23"/>
         <v>9.3049836683104514E-2</v>
       </c>
       <c r="S54" s="4">
-        <f>w*P54*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.8523189512300076</v>
       </c>
       <c r="T54" s="4">
-        <f>P54*$G$1/O54</f>
+        <f t="shared" si="25"/>
         <v>1.2600149434328429</v>
       </c>
       <c r="U54" s="4">
-        <f>S54*T54</f>
+        <f t="shared" si="26"/>
         <v>4.8539794454193466</v>
       </c>
       <c r="V54" s="5">
-        <f>U54*$N$1</f>
+        <f t="shared" si="27"/>
         <v>24.269897227096735</v>
       </c>
       <c r="W54" s="4"/>
       <c r="X54" s="4">
-        <f>w*N54*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.12351345792932</v>
       </c>
       <c r="Y54" s="4">
-        <f>X54*$G$1</f>
+        <f t="shared" si="15"/>
         <v>560.61756728964656</v>
       </c>
     </row>
@@ -15839,60 +17679,60 @@
         <v>50.521072891593498</v>
       </c>
       <c r="H55" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D55*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.047415695066853</v>
       </c>
       <c r="I55" s="1">
-        <f>2*PI()*150000*Ist*Ist*E55*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <f>F55*SQRT(H55*I55)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f>2*PI()*150000*G55*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.23807494717155692</v>
       </c>
       <c r="N55">
-        <f>D55*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.700366993474091</v>
       </c>
       <c r="O55">
-        <f>E55*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1931955635543749</v>
       </c>
       <c r="P55">
-        <f>G55*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.75781609337390254</v>
       </c>
       <c r="Q55">
-        <f>P55/SQRT(N55*O55)</f>
+        <f t="shared" si="23"/>
         <v>8.7111106415804884E-2</v>
       </c>
       <c r="S55" s="4">
-        <f>w*P55*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.5711242075733529</v>
       </c>
       <c r="T55" s="4">
-        <f>P55*$G$1/O55</f>
+        <f t="shared" si="25"/>
         <v>1.1866108390341907</v>
       </c>
       <c r="U55" s="4">
-        <f>S55*T55</f>
+        <f t="shared" si="26"/>
         <v>4.2375346922439254</v>
       </c>
       <c r="V55" s="5">
-        <f>U55*$N$1</f>
+        <f t="shared" si="27"/>
         <v>21.187673461219628</v>
       </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4">
-        <f>w*N55*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>111.68534825112032</v>
       </c>
       <c r="Y55" s="4">
-        <f>X55*$G$1</f>
+        <f t="shared" si="15"/>
         <v>558.42674125560154</v>
       </c>
     </row>
@@ -15921,60 +17761,60 @@
         <v>48.201395824713998</v>
       </c>
       <c r="H56" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D56*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.031638958303155</v>
       </c>
       <c r="I56" s="1">
-        <f>2*PI()*150000*Ist*Ist*E56*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J56" s="2">
-        <f>F56*SQRT(H56*I56)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f>2*PI()*150000*G56*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.22714372652354287</v>
       </c>
       <c r="N56">
-        <f>D56*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.69434072393377</v>
       </c>
       <c r="O56">
-        <f>E56*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1723979178560504</v>
       </c>
       <c r="P56">
-        <f>G56*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.72302093737071005</v>
       </c>
       <c r="Q56">
-        <f>P56/SQRT(N56*O56)</f>
+        <f t="shared" si="23"/>
         <v>8.339398575432562E-2</v>
       </c>
       <c r="S56" s="4">
-        <f>w*P56*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.4071558978531424</v>
       </c>
       <c r="T56" s="4">
-        <f>P56*$G$1/O56</f>
+        <f t="shared" si="25"/>
         <v>1.1395495711637231</v>
       </c>
       <c r="U56" s="4">
-        <f>S56*T56</f>
+        <f t="shared" si="26"/>
         <v>3.8826230422864985</v>
       </c>
       <c r="V56" s="5">
-        <f>U56*$N$1</f>
+        <f t="shared" si="27"/>
         <v>19.413115211432491</v>
       </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4">
-        <f>w*N56*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>111.65695012494568</v>
       </c>
       <c r="Y56" s="4">
-        <f>X56*$G$1</f>
+        <f t="shared" si="15"/>
         <v>558.28475062472842</v>
       </c>
     </row>
@@ -16003,60 +17843,60 @@
         <v>47.175208587281801</v>
       </c>
       <c r="H57" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D57*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.126764076455608</v>
       </c>
       <c r="I57" s="1">
-        <f>2*PI()*150000*Ist*Ist*E57*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J57" s="2">
-        <f>F57*SQRT(H57*I57)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f>2*PI()*150000*G57*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.22230793309405597</v>
       </c>
       <c r="N57">
-        <f>D57*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.730675842572559</v>
       </c>
       <c r="O57">
-        <f>E57*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.171508324550175</v>
       </c>
       <c r="P57">
-        <f>G57*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.70762812880922699</v>
       </c>
       <c r="Q57">
-        <f>P57/SQRT(N57*O57)</f>
+        <f t="shared" si="23"/>
         <v>8.1567491587922564E-2</v>
       </c>
       <c r="S57" s="4">
-        <f>w*P57*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.334618996410839</v>
       </c>
       <c r="T57" s="4">
-        <f>P57*$G$1/O57</f>
+        <f t="shared" si="25"/>
         <v>1.1156018783422115</v>
       </c>
       <c r="U57" s="4">
-        <f>S57*T57</f>
+        <f t="shared" si="26"/>
         <v>3.7201072159515522</v>
       </c>
       <c r="V57" s="5">
-        <f>U57*$N$1</f>
+        <f t="shared" si="27"/>
         <v>18.600536079757759</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4">
-        <f>w*N57*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>111.82817533762007</v>
       </c>
       <c r="Y57" s="4">
-        <f>X57*$G$1</f>
+        <f t="shared" si="15"/>
         <v>559.14087668810032</v>
       </c>
     </row>
@@ -16080,60 +17920,60 @@
         <v>71.5693880080009</v>
       </c>
       <c r="H58" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D58*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.663964033382712</v>
       </c>
       <c r="I58" s="1">
-        <f>2*PI()*150000*Ist*Ist*E58*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <f>F58*SQRT(H58*I58)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f>2*PI()*150000*G58*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.33726279538177961</v>
       </c>
       <c r="N58">
-        <f>D58*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.935871111149442</v>
       </c>
       <c r="O58">
-        <f>E58*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.6038839574657753</v>
       </c>
       <c r="P58">
-        <f>G58*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>1.0735408201200134</v>
       </c>
       <c r="Q58">
-        <f>P58/SQRT(N58*O58)</f>
+        <f t="shared" si="23"/>
         <v>0.11558688090892892</v>
       </c>
       <c r="S58" s="4">
-        <f>w*P58*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>5.058941930726693</v>
       </c>
       <c r="T58" s="4">
-        <f>P58*$G$1/O58</f>
+        <f t="shared" si="25"/>
         <v>1.4894220135696592</v>
       </c>
       <c r="U58" s="4">
-        <f>S58*T58</f>
+        <f t="shared" si="26"/>
         <v>7.53489947699493</v>
       </c>
       <c r="V58" s="5">
-        <f>U58*$N$1</f>
+        <f t="shared" si="27"/>
         <v>37.67449738497465</v>
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4">
-        <f>w*N58*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.79513526008886</v>
       </c>
       <c r="Y58" s="4">
-        <f>X58*$G$1</f>
+        <f t="shared" si="15"/>
         <v>563.97567630044432</v>
       </c>
     </row>
@@ -16162,60 +18002,60 @@
         <v>62.096028546883602</v>
       </c>
       <c r="H59" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D59*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.442878232096227</v>
       </c>
       <c r="I59" s="1">
-        <f>2*PI()*150000*Ist*Ist*E59*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <f>F59*SQRT(H59*I59)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f>2*PI()*150000*G59*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.29262064064998744</v>
       </c>
       <c r="N59">
-        <f>D59*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.851422555656221</v>
       </c>
       <c r="O59">
-        <f>E59*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.4229010110577747</v>
       </c>
       <c r="P59">
-        <f>G59*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.93144042820325412</v>
       </c>
       <c r="Q59">
-        <f>P59/SQRT(N59*O59)</f>
+        <f t="shared" si="23"/>
         <v>0.10308625701577639</v>
       </c>
       <c r="S59" s="4">
-        <f>w*P59*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.3893096097498114</v>
       </c>
       <c r="T59" s="4">
-        <f>P59*$G$1/O59</f>
+        <f t="shared" si="25"/>
         <v>1.360600883861687</v>
       </c>
       <c r="U59" s="4">
-        <f>S59*T59</f>
+        <f t="shared" si="26"/>
         <v>5.9720985345681896</v>
       </c>
       <c r="V59" s="5">
-        <f>U59*$N$1</f>
+        <f t="shared" si="27"/>
         <v>29.860492672840948</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4">
-        <f>w*N59*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.3971808177732</v>
       </c>
       <c r="Y59" s="4">
-        <f>X59*$G$1</f>
+        <f t="shared" si="15"/>
         <v>561.98590408886605</v>
       </c>
     </row>
@@ -16244,60 +18084,60 @@
         <v>55.711166215003999</v>
       </c>
       <c r="H60" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D60*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.415544827870043</v>
       </c>
       <c r="I60" s="1">
-        <f>2*PI()*150000*Ist*Ist*E60*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <f>F60*SQRT(H60*I60)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f>2*PI()*150000*G60*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.26253268575596467</v>
       </c>
       <c r="N60">
-        <f>D60*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.84098196431032</v>
       </c>
       <c r="O60">
-        <f>E60*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.3176065340250753</v>
       </c>
       <c r="P60">
-        <f>G60*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.83566749322505995</v>
       </c>
       <c r="Q60">
-        <f>P60/SQRT(N60*O60)</f>
+        <f t="shared" si="23"/>
         <v>9.3963460000726445E-2</v>
       </c>
       <c r="S60" s="4">
-        <f>w*P60*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.9379902863394696</v>
       </c>
       <c r="T60" s="4">
-        <f>P60*$G$1/O60</f>
+        <f t="shared" si="25"/>
         <v>1.2594433436492982</v>
       </c>
       <c r="U60" s="4">
-        <f>S60*T60</f>
+        <f t="shared" si="26"/>
         <v>4.9596756534858386</v>
       </c>
       <c r="V60" s="5">
-        <f>U60*$N$1</f>
+        <f t="shared" si="27"/>
         <v>24.798378267429193</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4">
-        <f>w*N60*10^-6*$G$1</f>
+        <f t="shared" si="14"/>
         <v>112.34798069016607</v>
       </c>
       <c r="Y60" s="4">
-        <f>X60*$G$1</f>
+        <f t="shared" si="15"/>
         <v>561.7399034508303</v>
       </c>
     </row>
@@ -16326,60 +18166,60 @@
         <v>50.628610128286397</v>
       </c>
       <c r="H61" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D61*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.175861726809458</v>
       </c>
       <c r="I61" s="1">
-        <f>2*PI()*150000*Ist*Ist*E61*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <f>F61*SQRT(H61*I61)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f>2*PI()*150000*G61*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.23858170446072952</v>
       </c>
       <c r="N61">
-        <f>D61*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.74942976356779</v>
       </c>
       <c r="O61">
-        <f>E61*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.2375644593900503</v>
       </c>
       <c r="P61">
-        <f>G61*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.75942915192429594</v>
       </c>
       <c r="Q61">
-        <f>P61/SQRT(N61*O61)</f>
+        <f t="shared" si="23"/>
         <v>8.6606693654380396E-2</v>
       </c>
       <c r="S61" s="4">
-        <f>w*P61*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.5787255669109426</v>
       </c>
       <c r="T61" s="4">
-        <f>P61*$G$1/O61</f>
+        <f t="shared" si="25"/>
         <v>1.172840203569832</v>
       </c>
       <c r="U61" s="4">
-        <f>S61*T61</f>
+        <f t="shared" si="26"/>
         <v>4.197273222416392</v>
       </c>
       <c r="V61" s="5">
-        <f>U61*$N$1</f>
+        <f t="shared" si="27"/>
         <v>20.98636611208196</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4">
-        <f>w*N61*10^-6*$G$1</f>
+        <f t="shared" ref="X61:X85" si="28">w*N61*10^-6*$G$1</f>
         <v>111.91655110825701</v>
       </c>
       <c r="Y61" s="4">
-        <f>X61*$G$1</f>
+        <f t="shared" ref="Y61:Y85" si="29">X61*$G$1</f>
         <v>559.582755541285</v>
       </c>
     </row>
@@ -16408,60 +18248,60 @@
         <v>47.149915869599099</v>
       </c>
       <c r="H62" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D62*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.077871985782245</v>
       </c>
       <c r="I62" s="1">
-        <f>2*PI()*150000*Ist*Ist*E62*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <f>F62*SQRT(H62*I62)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f>2*PI()*150000*G62*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.22218874396996399</v>
       </c>
       <c r="N62">
-        <f>D62*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.712000439591531</v>
       </c>
       <c r="O62">
-        <f>E62*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1970701029370501</v>
       </c>
       <c r="P62">
-        <f>G62*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.70724873804398636</v>
       </c>
       <c r="Q62">
-        <f>P62/SQRT(N62*O62)</f>
+        <f t="shared" si="23"/>
         <v>8.1229167900054938E-2</v>
       </c>
       <c r="S62" s="4">
-        <f>w*P62*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.3328311595494591</v>
       </c>
       <c r="T62" s="4">
-        <f>P62*$G$1/O62</f>
+        <f t="shared" si="25"/>
         <v>1.1060888802442252</v>
       </c>
       <c r="U62" s="4">
-        <f>S62*T62</f>
+        <f t="shared" si="26"/>
         <v>3.686407485309124</v>
       </c>
       <c r="V62" s="5">
-        <f>U62*$N$1</f>
+        <f t="shared" si="27"/>
         <v>18.432037426545619</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4">
-        <f>w*N62*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.74016957440804</v>
       </c>
       <c r="Y62" s="4">
-        <f>X62*$G$1</f>
+        <f t="shared" si="29"/>
         <v>558.70084787204019</v>
       </c>
     </row>
@@ -16490,60 +18330,60 @@
         <v>45.1630364496868</v>
       </c>
       <c r="H63" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D63*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.066423793825457</v>
       </c>
       <c r="I63" s="1">
-        <f>2*PI()*150000*Ist*Ist*E63*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J63" s="2">
-        <f>F63*SQRT(H63*I63)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f>2*PI()*150000*G63*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.21282579528621615</v>
       </c>
       <c r="N63">
-        <f>D63*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.707627552376998</v>
       </c>
       <c r="O63">
-        <f>E63*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1822804308463253</v>
       </c>
       <c r="P63">
-        <f>G63*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.67744554674530211</v>
       </c>
       <c r="Q63">
-        <f>P63/SQRT(N63*O63)</f>
+        <f t="shared" si="23"/>
         <v>7.799398672945998E-2</v>
       </c>
       <c r="S63" s="4">
-        <f>w*P63*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.1923869292932427</v>
       </c>
       <c r="T63" s="4">
-        <f>P63*$G$1/O63</f>
+        <f t="shared" si="25"/>
         <v>1.0644026531708519</v>
       </c>
       <c r="U63" s="4">
-        <f>S63*T63</f>
+        <f t="shared" si="26"/>
         <v>3.3979851174876763</v>
       </c>
       <c r="V63" s="5">
-        <f>U63*$N$1</f>
+        <f t="shared" si="27"/>
         <v>16.989925587438382</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4">
-        <f>w*N63*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.71956282888581</v>
       </c>
       <c r="Y63" s="4">
-        <f>X63*$G$1</f>
+        <f t="shared" si="29"/>
         <v>558.59781414442909</v>
       </c>
     </row>
@@ -16572,60 +18412,60 @@
         <v>43.949995917178597</v>
       </c>
       <c r="H64" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D64*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.023788045833129</v>
       </c>
       <c r="I64" s="1">
-        <f>2*PI()*150000*Ist*Ist*E64*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <f>F64*SQRT(H64*I64)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f>2*PI()*150000*G64*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.20710947644806452</v>
       </c>
       <c r="N64">
-        <f>D64*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.691341896268042</v>
       </c>
       <c r="O64">
-        <f>E64*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.1689783593285004</v>
       </c>
       <c r="P64">
-        <f>G64*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.6592499387576789</v>
       </c>
       <c r="Q64">
-        <f>P64/SQRT(N64*O64)</f>
+        <f t="shared" si="23"/>
         <v>7.6084401956945102E-2</v>
       </c>
       <c r="S64" s="4">
-        <f>w*P64*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.1066421467209677</v>
       </c>
       <c r="T64" s="4">
-        <f>P64*$G$1/O64</f>
+        <f t="shared" si="25"/>
         <v>1.0401616294050244</v>
       </c>
       <c r="U64" s="4">
-        <f>S64*T64</f>
+        <f t="shared" si="26"/>
         <v>3.2314099573116049</v>
       </c>
       <c r="V64" s="5">
-        <f>U64*$N$1</f>
+        <f t="shared" si="27"/>
         <v>16.157049786558023</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <f>w*N64*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.64281848249964</v>
       </c>
       <c r="Y64" s="4">
-        <f>X64*$G$1</f>
+        <f t="shared" si="29"/>
         <v>558.21409241249819</v>
       </c>
     </row>
@@ -16649,60 +18489,60 @@
         <v>65.208315431311803</v>
       </c>
       <c r="H65" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D65*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.621797240225519</v>
       </c>
       <c r="I65" s="1">
-        <f>2*PI()*150000*Ist*Ist*E65*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <f>F65*SQRT(H65*I65)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f>2*PI()*150000*G65*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.30728694706796267</v>
       </c>
       <c r="N65">
-        <f>D65*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.919764582592723</v>
       </c>
       <c r="O65">
-        <f>E65*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.6005399297268497</v>
       </c>
       <c r="P65">
-        <f>G65*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.97812473146967704</v>
       </c>
       <c r="Q65">
-        <f>P65/SQRT(N65*O65)</f>
+        <f t="shared" si="23"/>
         <v>0.10539790384176535</v>
       </c>
       <c r="S65" s="4">
-        <f>w*P65*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.6093042060194396</v>
       </c>
       <c r="T65" s="4">
-        <f>P65*$G$1/O65</f>
+        <f t="shared" si="25"/>
         <v>1.3583028525722824</v>
       </c>
       <c r="U65" s="4">
-        <f>S65*T65</f>
+        <f t="shared" si="26"/>
         <v>6.2608310514096246</v>
       </c>
       <c r="V65" s="5">
-        <f>U65*$N$1</f>
+        <f t="shared" si="27"/>
         <v>31.304155257048123</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4">
-        <f>w*N65*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>112.71923503240592</v>
       </c>
       <c r="Y65" s="4">
-        <f>X65*$G$1</f>
+        <f t="shared" si="29"/>
         <v>563.59617516202957</v>
       </c>
     </row>
@@ -16731,60 +18571,60 @@
         <v>56.7399477342599</v>
       </c>
       <c r="H66" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D66*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.367637182818399</v>
       </c>
       <c r="I66" s="1">
-        <f>2*PI()*150000*Ist*Ist*E66*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <f>F66*SQRT(H66*I66)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f>2*PI()*150000*G66*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.26738070445052958</v>
       </c>
       <c r="N66">
-        <f>D66*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.822682591857852</v>
       </c>
       <c r="O66">
-        <f>E66*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.4218788500396005</v>
       </c>
       <c r="P66">
-        <f>G66*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.85109921601389849</v>
       </c>
       <c r="Q66">
-        <f>P66/SQRT(N66*O66)</f>
+        <f t="shared" si="23"/>
         <v>9.4265449667996506E-2</v>
       </c>
       <c r="S66" s="4">
-        <f>w*P66*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>4.0107105667579432</v>
       </c>
       <c r="T66" s="4">
-        <f>P66*$G$1/O66</f>
+        <f t="shared" si="25"/>
         <v>1.2436138935837091</v>
       </c>
       <c r="U66" s="4">
-        <f>S66*T66</f>
+        <f t="shared" si="26"/>
         <v>4.9877753839631707</v>
       </c>
       <c r="V66" s="5">
-        <f>U66*$N$1</f>
+        <f t="shared" si="27"/>
         <v>24.938876919815854</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4">
-        <f>w*N66*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>112.2617469290731</v>
       </c>
       <c r="Y66" s="4">
-        <f>X66*$G$1</f>
+        <f t="shared" si="29"/>
         <v>561.30873464536546</v>
       </c>
     </row>
@@ -16813,60 +18653,60 @@
         <v>50.980302512737502</v>
       </c>
       <c r="H67" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D67*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.318417546527151</v>
       </c>
       <c r="I67" s="1">
-        <f>2*PI()*150000*Ist*Ist*E67*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <f>F67*SQRT(H67*I67)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f>2*PI()*150000*G67*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.2402390157777021</v>
       </c>
       <c r="N67">
-        <f>D67*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.803882075666799</v>
       </c>
       <c r="O67">
-        <f>E67*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.3144324409229755</v>
       </c>
       <c r="P67">
-        <f>G67*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.76470453769106261</v>
       </c>
       <c r="Q67">
-        <f>P67/SQRT(N67*O67)</f>
+        <f t="shared" si="23"/>
         <v>8.6092473712020973E-2</v>
       </c>
       <c r="S67" s="4">
-        <f>w*P67*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.6035852366655319</v>
       </c>
       <c r="T67" s="4">
-        <f>P67*$G$1/O67</f>
+        <f t="shared" si="25"/>
         <v>1.1535980161329129</v>
       </c>
       <c r="U67" s="4">
-        <f>S67*T67</f>
+        <f t="shared" si="26"/>
         <v>4.1570887799832112</v>
       </c>
       <c r="V67" s="5">
-        <f>U67*$N$1</f>
+        <f t="shared" si="27"/>
         <v>20.785443899916057</v>
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <f>w*N67*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>112.17315158374885</v>
       </c>
       <c r="Y67" s="4">
-        <f>X67*$G$1</f>
+        <f t="shared" si="29"/>
         <v>560.86575791874429</v>
       </c>
     </row>
@@ -16895,60 +18735,60 @@
         <v>46.574376938134399</v>
       </c>
       <c r="H68" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D68*(10^-9)</f>
+        <f t="shared" si="16"/>
         <v>62.107480072274441</v>
       </c>
       <c r="I68" s="1">
-        <f>2*PI()*150000*Ist*Ist*E68*(10^-9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <f>F68*SQRT(H68*I68)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f>2*PI()*150000*G68*Ipt*(10^-9)</f>
+        <f t="shared" si="19"/>
         <v>0.21947658065154735</v>
       </c>
       <c r="N68">
-        <f>D68*$D$1^2*10^-3</f>
+        <f t="shared" si="20"/>
         <v>23.723309895561268</v>
       </c>
       <c r="O68">
-        <f>E68*$D$2^2*10^-3</f>
+        <f t="shared" si="21"/>
         <v>3.2429583455039253</v>
       </c>
       <c r="P68">
-        <f>G68*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="22"/>
         <v>0.69861565407201598</v>
       </c>
       <c r="Q68">
-        <f>P68/SQRT(N68*O68)</f>
+        <f t="shared" si="23"/>
         <v>7.964893745987571E-2</v>
       </c>
       <c r="S68" s="4">
-        <f>w*P68*10^-6*$G$1</f>
+        <f t="shared" si="24"/>
         <v>3.2921487097732105</v>
       </c>
       <c r="T68" s="4">
-        <f>P68*$G$1/O68</f>
+        <f t="shared" si="25"/>
         <v>1.0771270852747534</v>
       </c>
       <c r="U68" s="4">
-        <f>S68*T68</f>
+        <f t="shared" si="26"/>
         <v>3.5460625440490583</v>
       </c>
       <c r="V68" s="5">
-        <f>U68*$N$1</f>
+        <f t="shared" si="27"/>
         <v>17.730312720245291</v>
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4">
-        <f>w*N68*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.79346413009398</v>
       </c>
       <c r="Y68" s="4">
-        <f>X68*$G$1</f>
+        <f t="shared" si="29"/>
         <v>558.9673206504699</v>
       </c>
     </row>
@@ -16977,60 +18817,60 @@
         <v>43.356252406582797</v>
       </c>
       <c r="H69" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D69*(10^-9)</f>
+        <f t="shared" ref="H69:H85" si="30">2*PI()*150000*Ipt*Ipt*D69*(10^-9)</f>
         <v>61.95583208179206</v>
       </c>
       <c r="I69" s="1">
-        <f>2*PI()*150000*Ist*Ist*E69*(10^-9)</f>
+        <f t="shared" ref="I69:I85" si="31">2*PI()*150000*Ist*Ist*E69*(10^-9)</f>
         <v>0</v>
       </c>
       <c r="J69" s="2">
-        <f>F69*SQRT(H69*I69)</f>
+        <f t="shared" ref="J69:J85" si="32">F69*SQRT(H69*I69)</f>
         <v>0</v>
       </c>
       <c r="K69">
-        <f>2*PI()*150000*G69*Ipt*(10^-9)</f>
+        <f t="shared" ref="K69:K85" si="33">2*PI()*150000*G69*Ipt*(10^-9)</f>
         <v>0.20431152607155798</v>
       </c>
       <c r="N69">
-        <f>D69*$D$1^2*10^-3</f>
+        <f t="shared" ref="N69:N85" si="34">D69*$D$1^2*10^-3</f>
         <v>23.665384630052731</v>
       </c>
       <c r="O69">
-        <f>E69*$D$2^2*10^-3</f>
+        <f t="shared" ref="O69:O85" si="35">E69*$D$2^2*10^-3</f>
         <v>3.1971889710591501</v>
       </c>
       <c r="P69">
-        <f>G69*$D$1*$D$2*10^-3</f>
+        <f t="shared" ref="P69:P85" si="36">G69*$D$1*$D$2*10^-3</f>
         <v>0.65034378609874199</v>
       </c>
       <c r="Q69">
-        <f>P69/SQRT(N69*O69)</f>
+        <f t="shared" ref="Q69:Q85" si="37">P69/SQRT(N69*O69)</f>
         <v>7.4765640510907061E-2</v>
       </c>
       <c r="S69" s="4">
-        <f>w*P69*10^-6*$G$1</f>
+        <f t="shared" ref="S69:S85" si="38">w*P69*10^-6*$G$1</f>
         <v>3.0646728910733696</v>
       </c>
       <c r="T69" s="4">
-        <f>P69*$G$1/O69</f>
+        <f t="shared" ref="T69:T85" si="39">P69*$G$1/O69</f>
         <v>1.0170555947515656</v>
       </c>
       <c r="U69" s="4">
-        <f>S69*T69</f>
+        <f t="shared" ref="U69:U85" si="40">S69*T69</f>
         <v>3.1169427099496261</v>
       </c>
       <c r="V69" s="5">
-        <f>U69*$N$1</f>
+        <f t="shared" ref="V69:V85" si="41">U69*$N$1</f>
         <v>15.58471354974813</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4">
-        <f>w*N69*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.52049774722569</v>
       </c>
       <c r="Y69" s="4">
-        <f>X69*$G$1</f>
+        <f t="shared" si="29"/>
         <v>557.60248873612841</v>
       </c>
     </row>
@@ -17059,60 +18899,60 @@
         <v>41.240374870454303</v>
       </c>
       <c r="H70" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D70*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.851781791830582</v>
       </c>
       <c r="I70" s="1">
-        <f>2*PI()*150000*Ist*Ist*E70*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <f>F70*SQRT(H70*I70)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f>2*PI()*150000*G70*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.19434068808646257</v>
       </c>
       <c r="N70">
-        <f>D70*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.625640346906703</v>
       </c>
       <c r="O70">
-        <f>E70*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.1714285721301501</v>
       </c>
       <c r="P70">
-        <f>G70*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.61860562305681455</v>
       </c>
       <c r="Q70">
-        <f>P70/SQRT(N70*O70)</f>
+        <f t="shared" si="37"/>
         <v>7.1465198099610827E-2</v>
       </c>
       <c r="S70" s="4">
-        <f>w*P70*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.9151103212969378</v>
       </c>
       <c r="T70" s="4">
-        <f>P70*$G$1/O70</f>
+        <f t="shared" si="39"/>
         <v>0.97527913523418308</v>
       </c>
       <c r="U70" s="4">
-        <f>S70*T70</f>
+        <f t="shared" si="40"/>
         <v>2.8430462732667192</v>
       </c>
       <c r="V70" s="5">
-        <f>U70*$N$1</f>
+        <f t="shared" si="41"/>
         <v>14.215231366333596</v>
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4">
-        <f>w*N70*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.33320722529506</v>
       </c>
       <c r="Y70" s="4">
-        <f>X70*$G$1</f>
+        <f t="shared" si="29"/>
         <v>556.66603612647532</v>
       </c>
     </row>
@@ -17141,60 +18981,60 @@
         <v>40.470398266793097</v>
       </c>
       <c r="H71" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D71*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.963786105496609</v>
       </c>
       <c r="I71" s="1">
-        <f>2*PI()*150000*Ist*Ist*E71*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <f>F71*SQRT(H71*I71)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f>2*PI()*150000*G71*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.19071225882421541</v>
       </c>
       <c r="N71">
-        <f>D71*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.66842284330885</v>
       </c>
       <c r="O71">
-        <f>E71*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.1677106527288998</v>
       </c>
       <c r="P71">
-        <f>G71*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.60705597400189637</v>
       </c>
       <c r="Q71">
-        <f>P71/SQRT(N71*O71)</f>
+        <f t="shared" si="37"/>
         <v>7.0108604889330989E-2</v>
       </c>
       <c r="S71" s="4">
-        <f>w*P71*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.8606838823632312</v>
       </c>
       <c r="T71" s="4">
-        <f>P71*$G$1/O71</f>
+        <f t="shared" si="39"/>
         <v>0.95819353557265963</v>
       </c>
       <c r="U71" s="4">
-        <f>S71*T71</f>
+        <f t="shared" si="40"/>
         <v>2.7410888033973468</v>
       </c>
       <c r="V71" s="5">
-        <f>U71*$N$1</f>
+        <f t="shared" si="41"/>
         <v>13.705444016986734</v>
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4">
-        <f>w*N71*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.53481498989387</v>
       </c>
       <c r="Y71" s="4">
-        <f>X71*$G$1</f>
+        <f t="shared" si="29"/>
         <v>557.6740749494694</v>
       </c>
     </row>
@@ -17218,60 +19058,60 @@
         <v>58.106921214743302</v>
       </c>
       <c r="H72" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D72*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>62.364170420234053</v>
       </c>
       <c r="I72" s="1">
-        <f>2*PI()*150000*Ist*Ist*E72*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <f>F72*SQRT(H72*I72)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f>2*PI()*150000*G72*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.27382241521643769</v>
       </c>
       <c r="N72">
-        <f>D72*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.821358386093472</v>
       </c>
       <c r="O72">
-        <f>E72*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.5892262200585003</v>
       </c>
       <c r="P72">
-        <f>G72*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.87160381822114963</v>
       </c>
       <c r="Q72">
-        <f>P72/SQRT(N72*O72)</f>
+        <f t="shared" si="37"/>
         <v>9.4261738803482945E-2</v>
       </c>
       <c r="S72" s="4">
-        <f>w*P72*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>4.1073362282465649</v>
       </c>
       <c r="T72" s="4">
-        <f>P72*$G$1/O72</f>
+        <f t="shared" si="39"/>
         <v>1.2141945990338601</v>
       </c>
       <c r="U72" s="4">
-        <f>S72*T72</f>
+        <f t="shared" si="40"/>
         <v>4.9871054647530846</v>
       </c>
       <c r="V72" s="5">
-        <f>U72*$N$1</f>
+        <f t="shared" si="41"/>
         <v>24.935527323765424</v>
       </c>
       <c r="W72" s="4"/>
       <c r="X72" s="4">
-        <f>w*N72*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>112.25550675642128</v>
       </c>
       <c r="Y72" s="4">
-        <f>X72*$G$1</f>
+        <f t="shared" si="29"/>
         <v>561.27753378210639</v>
       </c>
     </row>
@@ -17300,60 +19140,60 @@
         <v>50.818322140579298</v>
       </c>
       <c r="H73" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D73*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>62.308760952376232</v>
       </c>
       <c r="I73" s="1">
-        <f>2*PI()*150000*Ist*Ist*E73*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <f>F73*SQRT(H73*I73)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f>2*PI()*150000*G73*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.23947570125690518</v>
       </c>
       <c r="N73">
-        <f>D73*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.800193528404677</v>
       </c>
       <c r="O73">
-        <f>E73*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.4161049916726496</v>
       </c>
       <c r="P73">
-        <f>G73*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.76227483210868952</v>
       </c>
       <c r="Q73">
-        <f>P73/SQRT(N73*O73)</f>
+        <f t="shared" si="37"/>
         <v>8.4538732431500133E-2</v>
       </c>
       <c r="S73" s="4">
-        <f>w*P73*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>3.5921355188535777</v>
       </c>
       <c r="T73" s="4">
-        <f>P73*$G$1/O73</f>
+        <f t="shared" si="39"/>
         <v>1.1157075587062855</v>
       </c>
       <c r="U73" s="4">
-        <f>S73*T73</f>
+        <f t="shared" si="40"/>
         <v>4.0077727502822613</v>
       </c>
       <c r="V73" s="5">
-        <f>U73*$N$1</f>
+        <f t="shared" si="41"/>
         <v>20.038863751411306</v>
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4">
-        <f>w*N73*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>112.1557697142772</v>
       </c>
       <c r="Y73" s="4">
-        <f>X73*$G$1</f>
+        <f t="shared" si="29"/>
         <v>560.77884857138599</v>
       </c>
     </row>
@@ -17382,60 +19222,60 @@
         <v>45.680646104706597</v>
       </c>
       <c r="H74" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D74*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>62.11474786837595</v>
       </c>
       <c r="I74" s="1">
-        <f>2*PI()*150000*Ist*Ist*E74*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <f>F74*SQRT(H74*I74)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f>2*PI()*150000*G74*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.21526497332067221</v>
       </c>
       <c r="N74">
-        <f>D74*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.726085989181122</v>
       </c>
       <c r="O74">
-        <f>E74*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.3039204497943251</v>
       </c>
       <c r="P74">
-        <f>G74*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.68520969157059897</v>
       </c>
       <c r="Q74">
-        <f>P74/SQRT(N74*O74)</f>
+        <f t="shared" si="37"/>
         <v>7.7391926203427164E-2</v>
       </c>
       <c r="S74" s="4">
-        <f>w*P74*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>3.2289745998100821</v>
       </c>
       <c r="T74" s="4">
-        <f>P74*$G$1/O74</f>
+        <f t="shared" si="39"/>
         <v>1.0369645728202301</v>
       </c>
       <c r="U74" s="4">
-        <f>S74*T74</f>
+        <f t="shared" si="40"/>
         <v>3.3483322665394355</v>
       </c>
       <c r="V74" s="5">
-        <f>U74*$N$1</f>
+        <f t="shared" si="41"/>
         <v>16.741661332697177</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4">
-        <f>w*N74*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.8065461630767</v>
       </c>
       <c r="Y74" s="4">
-        <f>X74*$G$1</f>
+        <f t="shared" si="29"/>
         <v>559.0327308153835</v>
       </c>
     </row>
@@ -17464,60 +19304,60 @@
         <v>41.644402374018597</v>
       </c>
       <c r="H75" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D75*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.835793475377351</v>
       </c>
       <c r="I75" s="1">
-        <f>2*PI()*150000*Ist*Ist*E75*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <f>F75*SQRT(H75*I75)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f>2*PI()*150000*G75*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.19624462284203126</v>
       </c>
       <c r="N75">
-        <f>D75*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.619533259878104</v>
       </c>
       <c r="O75">
-        <f>E75*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.2296650101590503</v>
       </c>
       <c r="P75">
-        <f>G75*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.624666035610279</v>
       </c>
       <c r="Q75">
-        <f>P75/SQRT(N75*O75)</f>
+        <f t="shared" si="37"/>
         <v>7.152098684132982E-2</v>
       </c>
       <c r="S75" s="4">
-        <f>w*P75*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.9436693426304688</v>
       </c>
       <c r="T75" s="4">
-        <f>P75*$G$1/O75</f>
+        <f t="shared" si="39"/>
         <v>0.96707558468968935</v>
       </c>
       <c r="U75" s="4">
-        <f>S75*T75</f>
+        <f t="shared" si="40"/>
         <v>2.8467507506574741</v>
       </c>
       <c r="V75" s="5">
-        <f>U75*$N$1</f>
+        <f t="shared" si="41"/>
         <v>14.23375375328737</v>
       </c>
       <c r="W75" s="4"/>
       <c r="X75" s="4">
-        <f>w*N75*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.30442825567924</v>
       </c>
       <c r="Y75" s="4">
-        <f>X75*$G$1</f>
+        <f t="shared" si="29"/>
         <v>556.52214127839625</v>
       </c>
     </row>
@@ -17546,60 +19386,60 @@
         <v>39.1356835929206</v>
       </c>
       <c r="H76" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D76*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.986627950732299</v>
       </c>
       <c r="I76" s="1">
-        <f>2*PI()*150000*Ist*Ist*E76*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J76" s="2">
-        <f>F76*SQRT(H76*I76)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f>2*PI()*150000*G76*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.18442256410310093</v>
       </c>
       <c r="N76">
-        <f>D76*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.677147785497489</v>
       </c>
       <c r="O76">
-        <f>E76*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.2002931989202255</v>
       </c>
       <c r="P76">
-        <f>G76*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.58703525389380906</v>
       </c>
       <c r="Q76">
-        <f>P76/SQRT(N76*O76)</f>
+        <f t="shared" si="37"/>
         <v>6.7437988273188781E-2</v>
       </c>
       <c r="S76" s="4">
-        <f>w*P76*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.7663384615465141</v>
       </c>
       <c r="T76" s="4">
-        <f>P76*$G$1/O76</f>
+        <f t="shared" si="39"/>
         <v>0.91715854986642165</v>
       </c>
       <c r="U76" s="4">
-        <f>S76*T76</f>
+        <f t="shared" si="40"/>
         <v>2.5371709718317086</v>
       </c>
       <c r="V76" s="5">
-        <f>U76*$N$1</f>
+        <f t="shared" si="41"/>
         <v>12.685854859158542</v>
       </c>
       <c r="W76" s="4"/>
       <c r="X76" s="4">
-        <f>w*N76*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.57593031131812</v>
       </c>
       <c r="Y76" s="4">
-        <f>X76*$G$1</f>
+        <f t="shared" si="29"/>
         <v>557.8796515565906</v>
       </c>
     </row>
@@ -17628,60 +19468,60 @@
         <v>37.474656962321802</v>
       </c>
       <c r="H77" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D77*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.891292707082407</v>
       </c>
       <c r="I77" s="1">
-        <f>2*PI()*150000*Ist*Ist*E77*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <f>F77*SQRT(H77*I77)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f>2*PI()*150000*G77*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.17659516051294166</v>
       </c>
       <c r="N77">
-        <f>D77*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.640732404830892</v>
       </c>
       <c r="O77">
-        <f>E77*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.1808169931534249</v>
       </c>
       <c r="P77">
-        <f>G77*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.56211985443482704</v>
       </c>
       <c r="Q77">
-        <f>P77/SQRT(N77*O77)</f>
+        <f t="shared" si="37"/>
         <v>6.482299908311745E-2</v>
       </c>
       <c r="S77" s="4">
-        <f>w*P77*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.6489274076941252</v>
       </c>
       <c r="T77" s="4">
-        <f>P77*$G$1/O77</f>
+        <f t="shared" si="39"/>
         <v>0.88360923568499294</v>
       </c>
       <c r="U77" s="4">
-        <f>S77*T77</f>
+        <f t="shared" si="40"/>
         <v>2.3406167220976357</v>
       </c>
       <c r="V77" s="5">
-        <f>U77*$N$1</f>
+        <f t="shared" si="41"/>
         <v>11.703083610488179</v>
       </c>
       <c r="W77" s="4"/>
       <c r="X77" s="4">
-        <f>w*N77*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.40432687274833</v>
       </c>
       <c r="Y77" s="4">
-        <f>X77*$G$1</f>
+        <f t="shared" si="29"/>
         <v>557.02163436374167</v>
       </c>
     </row>
@@ -17710,60 +19550,60 @@
         <v>36.6268637598182</v>
       </c>
       <c r="H78" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D78*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.964729653945341</v>
       </c>
       <c r="I78" s="1">
-        <f>2*PI()*150000*Ist*Ist*E78*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <f>F78*SQRT(H78*I78)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f>2*PI()*150000*G78*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.17260002916781861</v>
       </c>
       <c r="N78">
-        <f>D78*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.668783252268039</v>
       </c>
       <c r="O78">
-        <f>E78*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.1702440751302001</v>
       </c>
       <c r="P78">
-        <f>G78*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.54940295639727299</v>
       </c>
       <c r="Q78">
-        <f>P78/SQRT(N78*O78)</f>
+        <f t="shared" si="37"/>
         <v>6.3424445058913564E-2</v>
       </c>
       <c r="S78" s="4">
-        <f>w*P78*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.5890004375172793</v>
       </c>
       <c r="T78" s="4">
-        <f>P78*$G$1/O78</f>
+        <f t="shared" si="39"/>
         <v>0.86649946088884233</v>
       </c>
       <c r="U78" s="4">
-        <f>S78*T78</f>
+        <f t="shared" si="40"/>
         <v>2.2433674833496995</v>
       </c>
       <c r="V78" s="5">
-        <f>U78*$N$1</f>
+        <f t="shared" si="41"/>
         <v>11.216837416748497</v>
       </c>
       <c r="W78" s="4"/>
       <c r="X78" s="4">
-        <f>w*N78*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.5365133771016</v>
       </c>
       <c r="Y78" s="4">
-        <f>X78*$G$1</f>
+        <f t="shared" si="29"/>
         <v>557.68256688550798</v>
       </c>
     </row>
@@ -17787,60 +19627,60 @@
         <v>50.809291502826703</v>
       </c>
       <c r="H79" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D79*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>62.261298525254894</v>
       </c>
       <c r="I79" s="1">
-        <f>2*PI()*150000*Ist*Ist*E79*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <f>F79*SQRT(H79*I79)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f>2*PI()*150000*G79*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.23943314537907398</v>
       </c>
       <c r="N79">
-        <f>D79*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.78206421667468</v>
       </c>
       <c r="O79">
-        <f>E79*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.5879752749519001</v>
       </c>
       <c r="P79">
-        <f>G79*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.7621393725424005</v>
       </c>
       <c r="Q79">
-        <f>P79/SQRT(N79*O79)</f>
+        <f t="shared" si="37"/>
         <v>8.2505880523829692E-2</v>
       </c>
       <c r="S79" s="4">
-        <f>w*P79*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>3.5914971806861096</v>
       </c>
       <c r="T79" s="4">
-        <f>P79*$G$1/O79</f>
+        <f t="shared" si="39"/>
         <v>1.0620744488723066</v>
       </c>
       <c r="U79" s="4">
-        <f>S79*T79</f>
+        <f t="shared" si="40"/>
         <v>3.8144373888036429</v>
       </c>
       <c r="V79" s="5">
-        <f>U79*$N$1</f>
+        <f t="shared" si="41"/>
         <v>19.072186944018213</v>
       </c>
       <c r="W79" s="4"/>
       <c r="X79" s="4">
-        <f>w*N79*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>112.07033734545881</v>
       </c>
       <c r="Y79" s="4">
-        <f>X79*$G$1</f>
+        <f t="shared" si="29"/>
         <v>560.35168672729401</v>
       </c>
     </row>
@@ -17869,60 +19709,60 @@
         <v>44.5566853260298</v>
       </c>
       <c r="H80" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D80*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>62.158782462301829</v>
       </c>
       <c r="I80" s="1">
-        <f>2*PI()*150000*Ist*Ist*E80*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J80" s="2">
-        <f>F80*SQRT(H80*I80)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f>2*PI()*150000*G80*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.20996843293285103</v>
       </c>
       <c r="N80">
-        <f>D80*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.742905965077959</v>
       </c>
       <c r="O80">
-        <f>E80*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.4139126417264003</v>
       </c>
       <c r="P80">
-        <f>G80*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.66835027989044704</v>
       </c>
       <c r="Q80">
-        <f>P80/SQRT(N80*O80)</f>
+        <f t="shared" si="37"/>
         <v>7.4235390283900499E-2</v>
       </c>
       <c r="S80" s="4">
-        <f>w*P80*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>3.1495264939927656</v>
       </c>
       <c r="T80" s="4">
-        <f>P80*$G$1/O80</f>
+        <f t="shared" si="39"/>
         <v>0.97886259847654644</v>
       </c>
       <c r="U80" s="4">
-        <f>S80*T80</f>
+        <f t="shared" si="40"/>
         <v>3.0829536878804857</v>
       </c>
       <c r="V80" s="5">
-        <f>U80*$N$1</f>
+        <f t="shared" si="41"/>
         <v>15.41476843940243</v>
       </c>
       <c r="W80" s="4"/>
       <c r="X80" s="4">
-        <f>w*N80*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.88580843214328</v>
       </c>
       <c r="Y80" s="4">
-        <f>X80*$G$1</f>
+        <f t="shared" si="29"/>
         <v>559.42904216071634</v>
       </c>
     </row>
@@ -17951,60 +19791,60 @@
         <v>40.221025180246897</v>
       </c>
       <c r="H81" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D81*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.974746430439623</v>
       </c>
       <c r="I81" s="1">
-        <f>2*PI()*150000*Ist*Ist*E81*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J81" s="2">
-        <f>F81*SQRT(H81*I81)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f>2*PI()*150000*G81*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.1895371158391706</v>
       </c>
       <c r="N81">
-        <f>D81*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.672609379051032</v>
       </c>
       <c r="O81">
-        <f>E81*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.3039585880788502</v>
       </c>
       <c r="P81">
-        <f>G81*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.60331537770370347</v>
       </c>
       <c r="Q81">
-        <f>P81/SQRT(N81*O81)</f>
+        <f t="shared" si="37"/>
         <v>6.8218793055984758E-2</v>
       </c>
       <c r="S81" s="4">
-        <f>w*P81*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.8430567375875588</v>
       </c>
       <c r="T81" s="4">
-        <f>P81*$G$1/O81</f>
+        <f t="shared" si="39"/>
         <v>0.91301897650980046</v>
       </c>
       <c r="U81" s="4">
-        <f>S81*T81</f>
+        <f t="shared" si="40"/>
         <v>2.5957647527114851</v>
       </c>
       <c r="V81" s="5">
-        <f>U81*$N$1</f>
+        <f t="shared" si="41"/>
         <v>12.978823763557426</v>
       </c>
       <c r="W81" s="4"/>
       <c r="X81" s="4">
-        <f>w*N81*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.55454357479131</v>
       </c>
       <c r="Y81" s="4">
-        <f>X81*$G$1</f>
+        <f t="shared" si="29"/>
         <v>557.77271787395659</v>
       </c>
     </row>
@@ -18033,60 +19873,60 @@
         <v>37.114060391777997</v>
       </c>
       <c r="H82" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D82*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>62.026569369207706</v>
       </c>
       <c r="I82" s="1">
-        <f>2*PI()*150000*Ist*Ist*E82*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J82" s="2">
-        <f>F82*SQRT(H82*I82)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f>2*PI()*150000*G82*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.17489588920754653</v>
       </c>
       <c r="N82">
-        <f>D82*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.692404283540199</v>
       </c>
       <c r="O82">
-        <f>E82*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.2439848455164251</v>
       </c>
       <c r="P82">
-        <f>G82*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.55671090587666994</v>
       </c>
       <c r="Q82">
-        <f>P82/SQRT(N82*O82)</f>
+        <f t="shared" si="37"/>
         <v>6.3501758705619485E-2</v>
       </c>
       <c r="S82" s="4">
-        <f>w*P82*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.6234383381131976</v>
       </c>
       <c r="T82" s="4">
-        <f>P82*$G$1/O82</f>
+        <f t="shared" si="39"/>
         <v>0.85806644048616776</v>
       </c>
       <c r="U82" s="4">
-        <f>S82*T82</f>
+        <f t="shared" si="40"/>
         <v>2.2510843966197389</v>
       </c>
       <c r="V82" s="5">
-        <f>U82*$N$1</f>
+        <f t="shared" si="41"/>
         <v>11.255421983098694</v>
       </c>
       <c r="W82" s="4"/>
       <c r="X82" s="4">
-        <f>w*N82*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.64782486457385</v>
       </c>
       <c r="Y82" s="4">
-        <f>X82*$G$1</f>
+        <f t="shared" si="29"/>
         <v>558.2391243228692</v>
       </c>
     </row>
@@ -18115,60 +19955,60 @@
         <v>34.762334719015797</v>
       </c>
       <c r="H83" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D83*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.884467945513912</v>
       </c>
       <c r="I83" s="1">
-        <f>2*PI()*150000*Ist*Ist*E83*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J83" s="2">
-        <f>F83*SQRT(H83*I83)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f>2*PI()*150000*G83*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.16381364306233415</v>
       </c>
       <c r="N83">
-        <f>D83*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.638125537937174</v>
       </c>
       <c r="O83">
-        <f>E83*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.2049826371797998</v>
       </c>
       <c r="P83">
-        <f>G83*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.52143502078523696</v>
       </c>
       <c r="Q83">
-        <f>P83/SQRT(N83*O83)</f>
+        <f t="shared" si="37"/>
         <v>5.9907450571800462E-2</v>
       </c>
       <c r="S83" s="4">
-        <f>w*P83*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.4572046459350121</v>
       </c>
       <c r="T83" s="4">
-        <f>P83*$G$1/O83</f>
+        <f t="shared" si="39"/>
         <v>0.81347557820792094</v>
       </c>
       <c r="U83" s="4">
-        <f>S83*T83</f>
+        <f t="shared" si="40"/>
         <v>1.9988759701271737</v>
       </c>
       <c r="V83" s="5">
-        <f>U83*$N$1</f>
+        <f t="shared" si="41"/>
         <v>9.9943798506358679</v>
       </c>
       <c r="W83" s="4"/>
       <c r="X83" s="4">
-        <f>w*N83*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.39204230192504</v>
       </c>
       <c r="Y83" s="4">
-        <f>X83*$G$1</f>
+        <f t="shared" si="29"/>
         <v>556.9602115096252</v>
       </c>
     </row>
@@ -18197,60 +20037,60 @@
         <v>33.287642107737199</v>
       </c>
       <c r="H84" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D84*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.856657856859719</v>
       </c>
       <c r="I84" s="1">
-        <f>2*PI()*150000*Ist*Ist*E84*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J84" s="2">
-        <f>F84*SQRT(H84*I84)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f>2*PI()*150000*G84*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.15686431785149016</v>
       </c>
       <c r="N84">
-        <f>D84*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.627502866552042</v>
       </c>
       <c r="O84">
-        <f>E84*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.1771848002351</v>
       </c>
       <c r="P84">
-        <f>G84*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.49931463161605799</v>
       </c>
       <c r="Q84">
-        <f>P84/SQRT(N84*O84)</f>
+        <f t="shared" si="37"/>
         <v>5.7629405861127858E-2</v>
       </c>
       <c r="S84" s="4">
-        <f>w*P84*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.3529647677723524</v>
       </c>
       <c r="T84" s="4">
-        <f>P84*$G$1/O84</f>
+        <f t="shared" si="39"/>
         <v>0.78578153776121318</v>
       </c>
       <c r="U84" s="4">
-        <f>S84*T84</f>
+        <f t="shared" si="40"/>
         <v>1.8489162735181148</v>
       </c>
       <c r="V84" s="5">
-        <f>U84*$N$1</f>
+        <f t="shared" si="41"/>
         <v>9.2445813675905733</v>
       </c>
       <c r="W84" s="4"/>
       <c r="X84" s="4">
-        <f>w*N84*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.34198414234751</v>
       </c>
       <c r="Y84" s="4">
-        <f>X84*$G$1</f>
+        <f t="shared" si="29"/>
         <v>556.7099207117376</v>
       </c>
     </row>
@@ -18279,60 +20119,60 @@
         <v>32.430969792257201</v>
       </c>
       <c r="H85" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D85*(10^-9)</f>
+        <f t="shared" si="30"/>
         <v>61.7805028942768</v>
       </c>
       <c r="I85" s="1">
-        <f>2*PI()*150000*Ist*Ist*E85*(10^-9)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J85" s="2">
-        <f>F85*SQRT(H85*I85)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K85">
-        <f>2*PI()*150000*G85*Ipt*(10^-9)</f>
+        <f t="shared" si="33"/>
         <v>0.15282734467222159</v>
       </c>
       <c r="N85">
-        <f>D85*$D$1^2*10^-3</f>
+        <f t="shared" si="34"/>
         <v>23.598413813585516</v>
       </c>
       <c r="O85">
-        <f>E85*$D$2^2*10^-3</f>
+        <f t="shared" si="35"/>
         <v>3.164084632974475</v>
       </c>
       <c r="P85">
-        <f>G85*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="36"/>
         <v>0.48646454688385804</v>
       </c>
       <c r="Q85">
-        <f>P85/SQRT(N85*O85)</f>
+        <f t="shared" si="37"/>
         <v>5.6297063559770232E-2</v>
       </c>
       <c r="S85" s="4">
-        <f>w*P85*10^-6*$G$1</f>
+        <f t="shared" si="38"/>
         <v>2.2924101700833237</v>
       </c>
       <c r="T85" s="4">
-        <f>P85*$G$1/O85</f>
+        <f t="shared" si="39"/>
         <v>0.76872872143521842</v>
       </c>
       <c r="U85" s="4">
-        <f>S85*T85</f>
+        <f t="shared" si="40"/>
         <v>1.7622415390532451</v>
       </c>
       <c r="V85" s="5">
-        <f>U85*$N$1</f>
+        <f t="shared" si="41"/>
         <v>8.8112076952662264</v>
       </c>
       <c r="W85" s="4"/>
       <c r="X85" s="4">
-        <f>w*N85*10^-6*$G$1</f>
+        <f t="shared" si="28"/>
         <v>111.20490520969823</v>
       </c>
       <c r="Y85" s="4">
-        <f>X85*$G$1</f>
+        <f t="shared" si="29"/>
         <v>556.02452604849111</v>
       </c>
     </row>
@@ -18460,60 +20300,60 @@
         <v>91.269068182236794</v>
       </c>
       <c r="H102" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D102*(10^-9)</f>
+        <f t="shared" ref="H102:H111" si="42">2*PI()*150000*Ipt*Ipt*D102*(10^-9)</f>
         <v>59.223455306590466</v>
       </c>
       <c r="I102" s="1">
-        <f>2*PI()*150000*Ist*Ist*E102*(10^-9)</f>
+        <f t="shared" ref="I102:I111" si="43">2*PI()*150000*Ist*Ist*E102*(10^-9)</f>
         <v>0</v>
       </c>
       <c r="J102" s="2">
-        <f>F102*SQRT(H102*I102)</f>
+        <f t="shared" ref="J102:J111" si="44">F102*SQRT(H102*I102)</f>
         <v>0</v>
       </c>
       <c r="K102">
-        <f>2*PI()*150000*G102*Ipt*(10^-9)</f>
+        <f t="shared" ref="K102:K111" si="45">2*PI()*150000*G102*Ipt*(10^-9)</f>
         <v>0.43009535115195158</v>
       </c>
       <c r="N102">
-        <f>D102*$D$1^2*10^-3</f>
+        <f t="shared" ref="N102:N111" si="46">D102*$D$1^2*10^-3</f>
         <v>22.621693581661951</v>
       </c>
       <c r="O102">
-        <f>E102*$D$2^2*10^-3</f>
+        <f t="shared" ref="O102:O111" si="47">E102*$D$2^2*10^-3</f>
         <v>3.57513519158395</v>
       </c>
       <c r="P102">
-        <f>G102*$D$1*$D$2*10^-3</f>
+        <f t="shared" ref="P102:P111" si="48">G102*$D$1*$D$2*10^-3</f>
         <v>1.3690360227335521</v>
       </c>
       <c r="Q102">
-        <f>P102/SQRT(N102*O102)</f>
+        <f t="shared" ref="Q102:Q111" si="49">P102/SQRT(N102*O102)</f>
         <v>0.15223204567741613</v>
       </c>
       <c r="S102" s="4">
-        <f>w*P102*10^-6*$G$1</f>
+        <f t="shared" ref="S102:S111" si="50">w*P102*10^-6*$G$1</f>
         <v>6.4514302672792736</v>
       </c>
       <c r="T102" s="4">
-        <f>P102*$G$1/O102</f>
+        <f t="shared" ref="T102:T111" si="51">P102*$G$1/O102</f>
         <v>1.9146632915537467</v>
       </c>
       <c r="U102" s="4">
-        <f>S102*T102</f>
+        <f t="shared" ref="U102:U111" si="52">S102*T102</f>
         <v>12.352316710778402</v>
       </c>
       <c r="V102" s="5">
-        <f>U102*$N$1</f>
+        <f t="shared" ref="V102:V111" si="53">U102*$N$1</f>
         <v>61.761583553892009</v>
       </c>
       <c r="W102" s="4"/>
       <c r="X102" s="4">
-        <f>w*N102*10^-6*$G$1</f>
+        <f t="shared" ref="X102:X111" si="54">w*N102*10^-6*$G$1</f>
         <v>106.60221955186282</v>
       </c>
       <c r="Y102" s="4">
-        <f>X102*$G$1</f>
+        <f t="shared" ref="Y102:Y111" si="55">X102*$G$1</f>
         <v>533.01109775931411</v>
       </c>
     </row>
@@ -18537,60 +20377,60 @@
         <v>85.376518168165205</v>
       </c>
       <c r="H103" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D103*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>59.085582904490501</v>
       </c>
       <c r="I103" s="1">
-        <f>2*PI()*150000*Ist*Ist*E103*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J103" s="2">
-        <f>F103*SQRT(H103*I103)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f>2*PI()*150000*G103*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.402327363399275</v>
       </c>
       <c r="N103">
-        <f>D103*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.56903020331756</v>
       </c>
       <c r="O103">
-        <f>E103*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.4951540006700497</v>
       </c>
       <c r="P103">
-        <f>G103*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>1.2806477725224781</v>
       </c>
       <c r="Q103">
-        <f>P103/SQRT(N103*O103)</f>
+        <f t="shared" si="49"/>
         <v>0.14419164336940116</v>
       </c>
       <c r="S103" s="4">
-        <f>w*P103*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>6.0349104509891234</v>
       </c>
       <c r="T103" s="4">
-        <f>P103*$G$1/O103</f>
+        <f t="shared" si="51"/>
         <v>1.8320333986384683</v>
       </c>
       <c r="U103" s="4">
-        <f>S103*T103</f>
+        <f t="shared" si="52"/>
         <v>11.056157504004416</v>
       </c>
       <c r="V103" s="5">
-        <f>U103*$N$1</f>
+        <f t="shared" si="53"/>
         <v>55.280787520022081</v>
       </c>
       <c r="W103" s="4"/>
       <c r="X103" s="4">
-        <f>w*N103*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>106.3540492280829</v>
       </c>
       <c r="Y103" s="4">
-        <f>X103*$G$1</f>
+        <f t="shared" si="55"/>
         <v>531.77024614041454</v>
       </c>
     </row>
@@ -18614,60 +20454,60 @@
         <v>75.955430912512</v>
       </c>
       <c r="H104" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D104*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.743479971051848</v>
       </c>
       <c r="I104" s="1">
-        <f>2*PI()*150000*Ist*Ist*E104*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J104" s="2">
-        <f>F104*SQRT(H104*I104)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f>2*PI()*150000*G104*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.35793153563249219</v>
       </c>
       <c r="N104">
-        <f>D104*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.43835650835036</v>
       </c>
       <c r="O104">
-        <f>E104*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.3661479194179997</v>
       </c>
       <c r="P104">
-        <f>G104*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>1.1393314636876801</v>
       </c>
       <c r="Q104">
-        <f>P104/SQRT(N104*O104)</f>
+        <f t="shared" si="49"/>
         <v>0.13109555630404662</v>
       </c>
       <c r="S104" s="4">
-        <f>w*P104*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>5.3689730344873832</v>
       </c>
       <c r="T104" s="4">
-        <f>P104*$G$1/O104</f>
+        <f t="shared" si="51"/>
         <v>1.6923371921883166</v>
       </c>
       <c r="U104" s="4">
-        <f>S104*T104</f>
+        <f t="shared" si="52"/>
         <v>9.0861127501191632</v>
       </c>
       <c r="V104" s="5">
-        <f>U104*$N$1</f>
+        <f t="shared" si="53"/>
         <v>45.430563750595816</v>
       </c>
       <c r="W104" s="4"/>
       <c r="X104" s="4">
-        <f>w*N104*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>105.73826394789333</v>
       </c>
       <c r="Y104" s="4">
-        <f>X104*$G$1</f>
+        <f t="shared" si="55"/>
         <v>528.69131973946662</v>
       </c>
     </row>
@@ -18691,60 +20531,60 @@
         <v>67.417527742844101</v>
       </c>
       <c r="H105" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D105*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.542761352672258</v>
       </c>
       <c r="I105" s="1">
-        <f>2*PI()*150000*Ist*Ist*E105*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J105" s="2">
-        <f>F105*SQRT(H105*I105)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f>2*PI()*150000*G105*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.31769761482015768</v>
       </c>
       <c r="N105">
-        <f>D105*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.361687643664713</v>
       </c>
       <c r="O105">
-        <f>E105*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.2687696729503006</v>
       </c>
       <c r="P105">
-        <f>G105*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>1.0112629161426616</v>
       </c>
       <c r="Q105">
-        <f>P105/SQRT(N105*O105)</f>
+        <f t="shared" si="49"/>
         <v>0.11828226524692452</v>
       </c>
       <c r="S105" s="4">
-        <f>w*P105*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>4.7654642223023655</v>
       </c>
       <c r="T105" s="4">
-        <f>P105*$G$1/O105</f>
+        <f t="shared" si="51"/>
         <v>1.5468555715489183</v>
       </c>
       <c r="U105" s="4">
-        <f>S105*T105</f>
+        <f t="shared" si="52"/>
         <v>7.3714848832854472</v>
       </c>
       <c r="V105" s="5">
-        <f>U105*$N$1</f>
+        <f t="shared" si="53"/>
         <v>36.857424416427236</v>
       </c>
       <c r="W105" s="4"/>
       <c r="X105" s="4">
-        <f>w*N105*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>105.37697043481006</v>
       </c>
       <c r="Y105" s="4">
-        <f>X105*$G$1</f>
+        <f t="shared" si="55"/>
         <v>526.88485217405037</v>
       </c>
     </row>
@@ -18768,60 +20608,60 @@
         <v>60.804178401276097</v>
       </c>
       <c r="H106" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D106*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.367149681634807</v>
       </c>
       <c r="I106" s="1">
-        <f>2*PI()*150000*Ist*Ist*E106*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J106" s="2">
-        <f>F106*SQRT(H106*I106)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f>2*PI()*150000*G106*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.28653294025951831</v>
       </c>
       <c r="N106">
-        <f>D106*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.294608926440137</v>
       </c>
       <c r="O106">
-        <f>E106*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.2084766998635499</v>
       </c>
       <c r="P106">
-        <f>G106*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>0.91206267601914148</v>
       </c>
       <c r="Q106">
-        <f>P106/SQRT(N106*O106)</f>
+        <f t="shared" si="49"/>
         <v>0.10783886527399274</v>
       </c>
       <c r="S106" s="4">
-        <f>w*P106*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>4.2979941038927736</v>
       </c>
       <c r="T106" s="4">
-        <f>P106*$G$1/O106</f>
+        <f t="shared" si="51"/>
         <v>1.4213328649977881</v>
       </c>
       <c r="U106" s="4">
-        <f>S106*T106</f>
+        <f t="shared" si="52"/>
         <v>6.1088802734295164</v>
       </c>
       <c r="V106" s="5">
-        <f>U106*$N$1</f>
+        <f t="shared" si="53"/>
         <v>30.544401367147582</v>
       </c>
       <c r="W106" s="4"/>
       <c r="X106" s="4">
-        <f>w*N106*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>105.06086942694265</v>
       </c>
       <c r="Y106" s="4">
-        <f>X106*$G$1</f>
+        <f t="shared" si="55"/>
         <v>525.30434713471323</v>
       </c>
     </row>
@@ -18845,60 +20685,60 @@
         <v>56.092659379146603</v>
       </c>
       <c r="H107" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D107*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.255035081889957</v>
       </c>
       <c r="I107" s="1">
-        <f>2*PI()*150000*Ist*Ist*E107*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J107" s="2">
-        <f>F107*SQRT(H107*I107)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f>2*PI()*150000*G107*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.26433042993876238</v>
       </c>
       <c r="N107">
-        <f>D107*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.251784303858951</v>
       </c>
       <c r="O107">
-        <f>E107*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.1752859004609251</v>
       </c>
       <c r="P107">
-        <f>G107*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>0.84138989068719916</v>
       </c>
       <c r="Q107">
-        <f>P107/SQRT(N107*O107)</f>
+        <f t="shared" si="49"/>
         <v>0.10009755084695754</v>
       </c>
       <c r="S107" s="4">
-        <f>w*P107*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>3.964956449081436</v>
       </c>
       <c r="T107" s="4">
-        <f>P107*$G$1/O107</f>
+        <f t="shared" si="51"/>
         <v>1.3249041457417472</v>
       </c>
       <c r="U107" s="4">
-        <f>S107*T107</f>
+        <f t="shared" si="52"/>
         <v>5.2531872370734716</v>
       </c>
       <c r="V107" s="5">
-        <f>U107*$N$1</f>
+        <f t="shared" si="53"/>
         <v>26.265936185367359</v>
       </c>
       <c r="W107" s="4"/>
       <c r="X107" s="4">
-        <f>w*N107*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>104.85906314740191</v>
       </c>
       <c r="Y107" s="4">
-        <f>X107*$G$1</f>
+        <f t="shared" si="55"/>
         <v>524.29531573700956</v>
       </c>
     </row>
@@ -18922,60 +20762,60 @@
         <v>52.6218106394481</v>
       </c>
       <c r="H108" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D108*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.097678128561292</v>
       </c>
       <c r="I108" s="1">
-        <f>2*PI()*150000*Ist*Ist*E108*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J108" s="2">
-        <f>F108*SQRT(H108*I108)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K108">
-        <f>2*PI()*150000*G108*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.24797444058522505</v>
       </c>
       <c r="N108">
-        <f>D108*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.191678375173819</v>
       </c>
       <c r="O108">
-        <f>E108*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.1500508910952001</v>
       </c>
       <c r="P108">
-        <f>G108*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>0.78932715959172151</v>
       </c>
       <c r="Q108">
-        <f>P108/SQRT(N108*O108)</f>
+        <f t="shared" si="49"/>
         <v>9.4406780340863333E-2</v>
       </c>
       <c r="S108" s="4">
-        <f>w*P108*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>3.7196166087783755</v>
       </c>
       <c r="T108" s="4">
-        <f>P108*$G$1/O108</f>
+        <f t="shared" si="51"/>
         <v>1.2528800119119514</v>
       </c>
       <c r="U108" s="4">
-        <f>S108*T108</f>
+        <f t="shared" si="52"/>
         <v>4.6602333011141432</v>
       </c>
       <c r="V108" s="5">
-        <f>U108*$N$1</f>
+        <f t="shared" si="53"/>
         <v>23.301166505570716</v>
       </c>
       <c r="W108" s="4"/>
       <c r="X108" s="4">
-        <f>w*N108*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>104.57582063141031</v>
       </c>
       <c r="Y108" s="4">
-        <f>X108*$G$1</f>
+        <f t="shared" si="55"/>
         <v>522.87910315705153</v>
       </c>
     </row>
@@ -18999,60 +20839,60 @@
         <v>50.510607575909702</v>
       </c>
       <c r="H109" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D109*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.110738287556316</v>
       </c>
       <c r="I109" s="1">
-        <f>2*PI()*150000*Ist*Ist*E109*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J109" s="2">
-        <f>F109*SQRT(H109*I109)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f>2*PI()*150000*G109*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.23802563053325232</v>
       </c>
       <c r="N109">
-        <f>D109*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.19666698844172</v>
       </c>
       <c r="O109">
-        <f>E109*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.1430367013228997</v>
       </c>
       <c r="P109">
-        <f>G109*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>0.75765911363864558</v>
       </c>
       <c r="Q109">
-        <f>P109/SQRT(N109*O109)</f>
+        <f t="shared" si="49"/>
         <v>9.0710015717923018E-2</v>
       </c>
       <c r="S109" s="4">
-        <f>w*P109*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>3.5703844579987845</v>
       </c>
       <c r="T109" s="4">
-        <f>P109*$G$1/O109</f>
+        <f t="shared" si="51"/>
         <v>1.2052979103294401</v>
       </c>
       <c r="U109" s="4">
-        <f>S109*T109</f>
+        <f t="shared" si="52"/>
         <v>4.3033769262986459</v>
       </c>
       <c r="V109" s="5">
-        <f>U109*$N$1</f>
+        <f t="shared" si="53"/>
         <v>21.51688463149323</v>
       </c>
       <c r="W109" s="4"/>
       <c r="X109" s="4">
-        <f>w*N109*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>104.59932891760135</v>
       </c>
       <c r="Y109" s="4">
-        <f>X109*$G$1</f>
+        <f t="shared" si="55"/>
         <v>522.9966445880068</v>
       </c>
     </row>
@@ -19076,60 +20916,60 @@
         <v>49.271990723490099</v>
       </c>
       <c r="H110" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D110*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.048117876465746</v>
       </c>
       <c r="I110" s="1">
-        <f>2*PI()*150000*Ist*Ist*E110*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J110" s="2">
-        <f>F110*SQRT(H110*I110)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f>2*PI()*150000*G110*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.2321887861269914</v>
       </c>
       <c r="N110">
-        <f>D110*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.172747753329293</v>
       </c>
       <c r="O110">
-        <f>E110*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.1357973009757747</v>
       </c>
       <c r="P110">
-        <f>G110*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>0.73907986085235156</v>
       </c>
       <c r="Q110">
-        <f>P110/SQRT(N110*O110)</f>
+        <f t="shared" si="49"/>
         <v>8.8635483733982404E-2</v>
       </c>
       <c r="S110" s="4">
-        <f>w*P110*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>3.4828317919048715</v>
       </c>
       <c r="T110" s="4">
-        <f>P110*$G$1/O110</f>
+        <f t="shared" si="51"/>
         <v>1.1784560510693245</v>
       </c>
       <c r="U110" s="4">
-        <f>S110*T110</f>
+        <f t="shared" si="52"/>
         <v>4.1043642000269145</v>
       </c>
       <c r="V110" s="5">
-        <f>U110*$N$1</f>
+        <f t="shared" si="53"/>
         <v>20.521821000134572</v>
       </c>
       <c r="W110" s="4"/>
       <c r="X110" s="4">
-        <f>w*N110*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>104.48661217763835</v>
       </c>
       <c r="Y110" s="4">
-        <f>X110*$G$1</f>
+        <f t="shared" si="55"/>
         <v>522.43306088819179</v>
       </c>
     </row>
@@ -19153,60 +20993,60 @@
         <v>48.826628812928497</v>
       </c>
       <c r="H111" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D111*(10^-9)</f>
+        <f t="shared" si="42"/>
         <v>58.06719224713418</v>
       </c>
       <c r="I111" s="1">
-        <f>2*PI()*150000*Ist*Ist*E111*(10^-9)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J111" s="2">
-        <f>F111*SQRT(H111*I111)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K111">
-        <f>2*PI()*150000*G111*Ipt*(10^-9)</f>
+        <f t="shared" si="45"/>
         <v>0.23009006756737785</v>
       </c>
       <c r="N111">
-        <f>D111*$D$1^2*10^-3</f>
+        <f t="shared" si="46"/>
         <v>22.180033626237087</v>
       </c>
       <c r="O111">
-        <f>E111*$D$2^2*10^-3</f>
+        <f t="shared" si="47"/>
         <v>3.1320419716495</v>
       </c>
       <c r="P111">
-        <f>G111*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="48"/>
         <v>0.73239943219392745</v>
       </c>
       <c r="Q111">
-        <f>P111/SQRT(N111*O111)</f>
+        <f t="shared" si="49"/>
         <v>8.7872526260079298E-2</v>
       </c>
       <c r="S111" s="4">
-        <f>w*P111*10^-6*$G$1</f>
+        <f t="shared" si="50"/>
         <v>3.4513510135106671</v>
       </c>
       <c r="T111" s="4">
-        <f>P111*$G$1/O111</f>
+        <f t="shared" si="51"/>
         <v>1.1692043702214612</v>
       </c>
       <c r="U111" s="4">
-        <f>S111*T111</f>
+        <f t="shared" si="52"/>
         <v>4.0353346881649417</v>
       </c>
       <c r="V111" s="5">
-        <f>U111*$N$1</f>
+        <f t="shared" si="53"/>
         <v>20.176673440824707</v>
       </c>
       <c r="W111" s="4"/>
       <c r="X111" s="4">
-        <f>w*N111*10^-6*$G$1</f>
+        <f t="shared" si="54"/>
         <v>104.52094604484152</v>
       </c>
       <c r="Y111" s="4">
-        <f>X111*$G$1</f>
+        <f t="shared" si="55"/>
         <v>522.60473022420763</v>
       </c>
     </row>
@@ -19243,60 +21083,60 @@
         <v>49.311907822384697</v>
       </c>
       <c r="H113" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D113*(10^-9)</f>
+        <f t="shared" ref="H113:H123" si="56">2*PI()*150000*Ipt*Ipt*D113*(10^-9)</f>
         <v>58.193804972593036</v>
       </c>
       <c r="I113" s="1">
-        <f>2*PI()*150000*Ist*Ist*E113*(10^-9)</f>
+        <f t="shared" ref="I113:I123" si="57">2*PI()*150000*Ist*Ist*E113*(10^-9)</f>
         <v>0</v>
       </c>
       <c r="J113" s="2">
-        <f>F113*SQRT(H113*I113)</f>
+        <f t="shared" ref="J113:J123" si="58">F113*SQRT(H113*I113)</f>
         <v>0</v>
       </c>
       <c r="K113">
-        <f>2*PI()*150000*G113*Ipt*(10^-9)</f>
+        <f t="shared" ref="K113:K123" si="59">2*PI()*150000*G113*Ipt*(10^-9)</f>
         <v>0.2323768910239512</v>
       </c>
       <c r="N113">
-        <f>D113*$D$1^2*10^-3</f>
+        <f t="shared" ref="N113:N123" si="60">D113*$D$1^2*10^-3</f>
         <v>22.22839612491336</v>
       </c>
       <c r="O113">
-        <f>E113*$D$2^2*10^-3</f>
+        <f t="shared" ref="O113:O123" si="61">E113*$D$2^2*10^-3</f>
         <v>3.5696781138011753</v>
       </c>
       <c r="P113">
-        <f>G113*$D$1*$D$2*10^-3</f>
+        <f t="shared" ref="P113:P123" si="62">G113*$D$1*$D$2*10^-3</f>
         <v>0.73967861733577045</v>
       </c>
       <c r="Q113">
-        <f>P113/SQRT(N113*O113)</f>
+        <f t="shared" ref="Q113:Q123" si="63">P113/SQRT(N113*O113)</f>
         <v>8.3037539533121471E-2</v>
       </c>
       <c r="S113" s="4">
-        <f>w*P113*10^-6*$G$1</f>
+        <f t="shared" ref="S113:S123" si="64">w*P113*10^-6*$G$1</f>
         <v>3.4856533653592687</v>
       </c>
       <c r="T113" s="4">
-        <f>P113*$G$1/O113</f>
+        <f t="shared" ref="T113:T123" si="65">P113*$G$1/O113</f>
         <v>1.0360578653800845</v>
       </c>
       <c r="U113" s="4">
-        <f>S113*T113</f>
+        <f t="shared" ref="U113:U123" si="66">S113*T113</f>
         <v>3.6113385851690318</v>
       </c>
       <c r="V113" s="5">
-        <f>U113*$N$1</f>
+        <f t="shared" ref="V113:V123" si="67">U113*$N$1</f>
         <v>18.056692925845159</v>
       </c>
       <c r="W113" s="4"/>
       <c r="X113" s="4">
-        <f>w*N113*10^-6*$G$1</f>
+        <f t="shared" ref="X113:X123" si="68">w*N113*10^-6*$G$1</f>
         <v>104.74884895066745</v>
       </c>
       <c r="Y113" s="4">
-        <f t="shared" ref="Y113:Y123" si="0">X113*$G$1</f>
+        <f t="shared" ref="Y113:Y123" si="69">X113*$G$1</f>
         <v>523.74424475333728</v>
       </c>
     </row>
@@ -19320,60 +21160,60 @@
         <v>49.195552662176297</v>
       </c>
       <c r="H114" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D114*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>58.223890938693124</v>
       </c>
       <c r="I114" s="1">
-        <f>2*PI()*150000*Ist*Ist*E114*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J114" s="2">
-        <f>F114*SQRT(H114*I114)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K114">
-        <f>2*PI()*150000*G114*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.23182858024917427</v>
       </c>
       <c r="N114">
-        <f>D114*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.239888117447421</v>
       </c>
       <c r="O114">
-        <f>E114*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.5652158266068756</v>
       </c>
       <c r="P114">
-        <f>G114*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.73793328993264462</v>
       </c>
       <c r="Q114">
-        <f>P114/SQRT(N114*O114)</f>
+        <f t="shared" si="63"/>
         <v>8.2872013520223678E-2</v>
       </c>
       <c r="S114" s="4">
-        <f>w*P114*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>3.4774287037376146</v>
       </c>
       <c r="T114" s="4">
-        <f>P114*$G$1/O114</f>
+        <f t="shared" si="65"/>
         <v>1.0349068973966693</v>
       </c>
       <c r="U114" s="4">
-        <f>S114*T114</f>
+        <f t="shared" si="66"/>
         <v>3.5988149507032161</v>
       </c>
       <c r="V114" s="5">
-        <f>U114*$N$1</f>
+        <f t="shared" si="67"/>
         <v>17.994074753516081</v>
       </c>
       <c r="W114" s="4"/>
       <c r="X114" s="4">
-        <f>w*N114*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>104.80300368964762</v>
       </c>
       <c r="Y114" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>524.01501844823815</v>
       </c>
     </row>
@@ -19397,60 +21237,60 @@
         <v>46.267194587641796</v>
       </c>
       <c r="H115" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D115*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>58.141959927262981</v>
       </c>
       <c r="I115" s="1">
-        <f>2*PI()*150000*Ist*Ist*E115*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J115" s="2">
-        <f>F115*SQRT(H115*I115)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K115">
-        <f>2*PI()*150000*G115*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.21802901792811738</v>
       </c>
       <c r="N115">
-        <f>D115*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.208592776339518</v>
       </c>
       <c r="O115">
-        <f>E115*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.4812687613692508</v>
       </c>
       <c r="P115">
-        <f>G115*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.69400791881462698</v>
       </c>
       <c r="Q115">
-        <f>P115/SQRT(N115*O115)</f>
+        <f t="shared" si="63"/>
         <v>7.892873256433959E-2</v>
       </c>
       <c r="S115" s="4">
-        <f>w*P115*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>3.2704352689217608</v>
       </c>
       <c r="T115" s="4">
-        <f>P115*$G$1/O115</f>
+        <f t="shared" si="65"/>
         <v>0.99677440379762605</v>
       </c>
       <c r="U115" s="4">
-        <f>S115*T115</f>
+        <f t="shared" si="66"/>
         <v>3.2598861653382172</v>
       </c>
       <c r="V115" s="5">
-        <f>U115*$N$1</f>
+        <f t="shared" si="67"/>
         <v>16.299430826691086</v>
       </c>
       <c r="W115" s="4"/>
       <c r="X115" s="4">
-        <f>w*N115*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>104.65552786907335</v>
       </c>
       <c r="Y115" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>523.27763934536677</v>
       </c>
     </row>
@@ -19474,60 +21314,60 @@
         <v>41.553758144635097</v>
       </c>
       <c r="H116" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D116*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.945707009439516</v>
       </c>
       <c r="I116" s="1">
-        <f>2*PI()*150000*Ist*Ist*E116*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J116" s="2">
-        <f>F116*SQRT(H116*I116)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f>2*PI()*150000*G116*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.19581747197434901</v>
       </c>
       <c r="N116">
-        <f>D116*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.133629683616771</v>
       </c>
       <c r="O116">
-        <f>E116*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.3572349053810751</v>
       </c>
       <c r="P116">
-        <f>G116*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.62330637216952645</v>
       </c>
       <c r="Q116">
-        <f>P116/SQRT(N116*O116)</f>
+        <f t="shared" si="63"/>
         <v>7.2307672462467304E-2</v>
       </c>
       <c r="S116" s="4">
-        <f>w*P116*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>2.9372620796152344</v>
       </c>
       <c r="T116" s="4">
-        <f>P116*$G$1/O116</f>
+        <f t="shared" si="65"/>
         <v>0.92830318660525168</v>
       </c>
       <c r="U116" s="4">
-        <f>S116*T116</f>
+        <f t="shared" si="66"/>
         <v>2.7266697484015907</v>
       </c>
       <c r="V116" s="5">
-        <f>U116*$N$1</f>
+        <f t="shared" si="67"/>
         <v>13.633348742007954</v>
       </c>
       <c r="W116" s="4"/>
       <c r="X116" s="4">
-        <f>w*N116*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>104.30227261699115</v>
       </c>
       <c r="Y116" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>521.51136308495575</v>
       </c>
     </row>
@@ -19551,60 +21391,60 @@
         <v>37.432222378533801</v>
       </c>
       <c r="H117" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D117*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.929769839459674</v>
       </c>
       <c r="I117" s="1">
-        <f>2*PI()*150000*Ist*Ist*E117*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J117" s="2">
-        <f>F117*SQRT(H117*I117)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f>2*PI()*150000*G117*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.17639519224791189</v>
       </c>
       <c r="N117">
-        <f>D117*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.127542133101922</v>
       </c>
       <c r="O117">
-        <f>E117*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.2655179241097252</v>
       </c>
       <c r="P117">
-        <f>G117*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.56148333567800701</v>
       </c>
       <c r="Q117">
-        <f>P117/SQRT(N117*O117)</f>
+        <f t="shared" si="63"/>
         <v>6.6053258553137137E-2</v>
       </c>
       <c r="S117" s="4">
-        <f>w*P117*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>2.6459278837186777</v>
       </c>
       <c r="T117" s="4">
-        <f>P117*$G$1/O117</f>
+        <f t="shared" si="65"/>
         <v>0.8597155929424023</v>
       </c>
       <c r="U117" s="4">
-        <f>S117*T117</f>
+        <f t="shared" si="66"/>
         <v>2.2747454594340386</v>
       </c>
       <c r="V117" s="5">
-        <f>U117*$N$1</f>
+        <f t="shared" si="67"/>
         <v>11.373727297170193</v>
       </c>
       <c r="W117" s="4"/>
       <c r="X117" s="4">
-        <f>w*N117*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>104.27358571102742</v>
       </c>
       <c r="Y117" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>521.36792855513715</v>
       </c>
     </row>
@@ -19628,60 +21468,60 @@
         <v>34.1488913370967</v>
       </c>
       <c r="H118" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D118*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.846677244049118</v>
       </c>
       <c r="I118" s="1">
-        <f>2*PI()*150000*Ist*Ist*E118*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J118" s="2">
-        <f>F118*SQRT(H118*I118)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K118">
-        <f>2*PI()*150000*G118*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.16092285922928867</v>
       </c>
       <c r="N118">
-        <f>D118*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.095803099596502</v>
       </c>
       <c r="O118">
-        <f>E118*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.2053777341974254</v>
       </c>
       <c r="P118">
-        <f>G118*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.51223337005645042</v>
       </c>
       <c r="Q118">
-        <f>P118/SQRT(N118*O118)</f>
+        <f t="shared" si="63"/>
         <v>6.086580414583645E-2</v>
       </c>
       <c r="S118" s="4">
-        <f>w*P118*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>2.4138428884393295</v>
       </c>
       <c r="T118" s="4">
-        <f>P118*$G$1/O118</f>
+        <f t="shared" si="65"/>
         <v>0.79902185098428868</v>
       </c>
       <c r="U118" s="4">
-        <f>S118*T118</f>
+        <f t="shared" si="66"/>
         <v>1.9287132127060549</v>
       </c>
       <c r="V118" s="5">
-        <f>U118*$N$1</f>
+        <f t="shared" si="67"/>
         <v>9.6435660635302742</v>
       </c>
       <c r="W118" s="4"/>
       <c r="X118" s="4">
-        <f>w*N118*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>104.12401903928841</v>
       </c>
       <c r="Y118" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>520.62009519644209</v>
       </c>
     </row>
@@ -19705,60 +21545,60 @@
         <v>31.728517356763899</v>
       </c>
       <c r="H119" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D119*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.774921349895841</v>
       </c>
       <c r="I119" s="1">
-        <f>2*PI()*150000*Ist*Ist*E119*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J119" s="2">
-        <f>F119*SQRT(H119*I119)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K119">
-        <f>2*PI()*150000*G119*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.14951711555595859</v>
       </c>
       <c r="N119">
-        <f>D119*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.068394366995363</v>
       </c>
       <c r="O119">
-        <f>E119*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.1700699234438501</v>
       </c>
       <c r="P119">
-        <f>G119*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.47592776035145845</v>
       </c>
       <c r="Q119">
-        <f>P119/SQRT(N119*O119)</f>
+        <f t="shared" si="63"/>
         <v>5.6901176815896133E-2</v>
       </c>
       <c r="S119" s="4">
-        <f>w*P119*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>2.2427567333393781</v>
       </c>
       <c r="T119" s="4">
-        <f>P119*$G$1/O119</f>
+        <f t="shared" si="65"/>
         <v>0.75065814295103572</v>
       </c>
       <c r="U119" s="4">
-        <f>S119*T119</f>
+        <f t="shared" si="66"/>
         <v>1.6835436045394687</v>
       </c>
       <c r="V119" s="5">
-        <f>U119*$N$1</f>
+        <f t="shared" si="67"/>
         <v>8.4177180226973434</v>
       </c>
       <c r="W119" s="4"/>
       <c r="X119" s="4">
-        <f>w*N119*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>103.99485842981251</v>
       </c>
       <c r="Y119" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>519.97429214906253</v>
       </c>
     </row>
@@ -19782,60 +21622,60 @@
         <v>30.0518832084656</v>
       </c>
       <c r="H120" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D120*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.723771198062039</v>
       </c>
       <c r="I120" s="1">
-        <f>2*PI()*150000*Ist*Ist*E120*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J120" s="2">
-        <f>F120*SQRT(H120*I120)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K120">
-        <f>2*PI()*150000*G120*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.14161616327138099</v>
       </c>
       <c r="N120">
-        <f>D120*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.048856448185163</v>
       </c>
       <c r="O120">
-        <f>E120*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.1493111145177499</v>
       </c>
       <c r="P120">
-        <f>G120*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.45077824812698403</v>
       </c>
       <c r="Q120">
-        <f>P120/SQRT(N120*O120)</f>
+        <f t="shared" si="63"/>
         <v>5.4095623837685181E-2</v>
       </c>
       <c r="S120" s="4">
-        <f>w*P120*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>2.124242449070715</v>
       </c>
       <c r="T120" s="4">
-        <f>P120*$G$1/O120</f>
+        <f t="shared" si="65"/>
         <v>0.71567754301723085</v>
       </c>
       <c r="U120" s="4">
-        <f>S120*T120</f>
+        <f t="shared" si="66"/>
         <v>1.5202726167238345</v>
       </c>
       <c r="V120" s="5">
-        <f>U120*$N$1</f>
+        <f t="shared" si="67"/>
         <v>7.601363083619173</v>
       </c>
       <c r="W120" s="4"/>
       <c r="X120" s="4">
-        <f>w*N120*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>103.90278815651166</v>
       </c>
       <c r="Y120" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>519.51394078255828</v>
       </c>
     </row>
@@ -19859,60 +21699,60 @@
         <v>28.961846541427001</v>
       </c>
       <c r="H121" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D121*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.705132350953463</v>
       </c>
       <c r="I121" s="1">
-        <f>2*PI()*150000*Ist*Ist*E121*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J121" s="2">
-        <f>F121*SQRT(H121*I121)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f>2*PI()*150000*G121*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.13647948649341304</v>
       </c>
       <c r="N121">
-        <f>D121*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.041736933023092</v>
       </c>
       <c r="O121">
-        <f>E121*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.1413073279187249</v>
       </c>
       <c r="P121">
-        <f>G121*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.43442769812140503</v>
       </c>
       <c r="Q121">
-        <f>P121/SQRT(N121*O121)</f>
+        <f t="shared" si="63"/>
         <v>5.2208280042257069E-2</v>
       </c>
       <c r="S121" s="4">
-        <f>w*P121*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>2.0471922974011956</v>
       </c>
       <c r="T121" s="4">
-        <f>P121*$G$1/O121</f>
+        <f t="shared" si="65"/>
         <v>0.69147595693738662</v>
       </c>
       <c r="U121" s="4">
-        <f>S121*T121</f>
+        <f t="shared" si="66"/>
         <v>1.4155842528803386</v>
       </c>
       <c r="V121" s="5">
-        <f>U121*$N$1</f>
+        <f t="shared" si="67"/>
         <v>7.0779212644016933</v>
       </c>
       <c r="W121" s="4"/>
       <c r="X121" s="4">
-        <f>w*N121*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>103.86923823171625</v>
       </c>
       <c r="Y121" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>519.34619115858129</v>
       </c>
     </row>
@@ -19936,60 +21776,60 @@
         <v>28.348567663177601</v>
       </c>
       <c r="H122" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D122*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.688127465924076</v>
       </c>
       <c r="I122" s="1">
-        <f>2*PI()*150000*Ist*Ist*E122*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J122" s="2">
-        <f>F122*SQRT(H122*I122)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K122">
-        <f>2*PI()*150000*G122*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.1335894778656479</v>
       </c>
       <c r="N122">
-        <f>D122*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.03524154540116</v>
       </c>
       <c r="O122">
-        <f>E122*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.1363949541737997</v>
       </c>
       <c r="P122">
-        <f>G122*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.425228514947664</v>
       </c>
       <c r="Q122">
-        <f>P122/SQRT(N122*O122)</f>
+        <f t="shared" si="63"/>
         <v>5.1150289811754977E-2</v>
       </c>
       <c r="S122" s="4">
-        <f>w*P122*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>2.0038421679847178</v>
       </c>
       <c r="T122" s="4">
-        <f>P122*$G$1/O122</f>
+        <f t="shared" si="65"/>
         <v>0.67789376204324236</v>
       </c>
       <c r="U122" s="4">
-        <f>S122*T122</f>
+        <f t="shared" si="66"/>
         <v>1.3583921057960473</v>
       </c>
       <c r="V122" s="5">
-        <f>U122*$N$1</f>
+        <f t="shared" si="67"/>
         <v>6.7919605289802369</v>
       </c>
       <c r="W122" s="4"/>
       <c r="X122" s="4">
-        <f>w*N122*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>103.83862943866333</v>
       </c>
       <c r="Y122" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>519.19314719331669</v>
       </c>
     </row>
@@ -20013,60 +21853,60 @@
         <v>28.227870433585199</v>
       </c>
       <c r="H123" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D123*(10^-9)</f>
+        <f t="shared" si="56"/>
         <v>57.747866796250264</v>
       </c>
       <c r="I123" s="1">
-        <f>2*PI()*150000*Ist*Ist*E123*(10^-9)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J123" s="2">
-        <f>F123*SQRT(H123*I123)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K123">
-        <f>2*PI()*150000*G123*Ipt*(10^-9)</f>
+        <f t="shared" si="59"/>
         <v>0.13302070557095366</v>
       </c>
       <c r="N123">
-        <f>D123*$D$1^2*10^-3</f>
+        <f t="shared" si="60"/>
         <v>22.058060288725351</v>
       </c>
       <c r="O123">
-        <f>E123*$D$2^2*10^-3</f>
+        <f t="shared" si="61"/>
         <v>3.1384205441402</v>
       </c>
       <c r="P123">
-        <f>G123*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="62"/>
         <v>0.42341805650377801</v>
       </c>
       <c r="Q123">
-        <f>P123/SQRT(N123*O123)</f>
+        <f t="shared" si="63"/>
         <v>5.0889729882912071E-2</v>
       </c>
       <c r="S123" s="4">
-        <f>w*P123*10^-6*$G$1</f>
+        <f t="shared" si="64"/>
         <v>1.995310583564305</v>
       </c>
       <c r="T123" s="4">
-        <f>P123*$G$1/O123</f>
+        <f t="shared" si="65"/>
         <v>0.67457189141580998</v>
       </c>
       <c r="U123" s="4">
-        <f>S123*T123</f>
+        <f t="shared" si="66"/>
         <v>1.3459804343169568</v>
       </c>
       <c r="V123" s="5">
-        <f>U123*$N$1</f>
+        <f t="shared" si="67"/>
         <v>6.7299021715847838</v>
       </c>
       <c r="W123" s="4"/>
       <c r="X123" s="4">
-        <f>w*N123*10^-6*$G$1</f>
+        <f t="shared" si="68"/>
         <v>103.94616023325045</v>
       </c>
       <c r="Y123" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="69"/>
         <v>519.73080116625226</v>
       </c>
     </row>

--- a/CoilDesign/AnalysisResult_LessFerrites/Less Ferrites.xlsx
+++ b/CoilDesign/AnalysisResult_LessFerrites/Less Ferrites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\CoilDesign\AnalysisResult_LessFerrites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7184F22-B987-4703-B061-2BD7EAF61A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2587969-7183-423C-82BD-67275FB58225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="369">
   <si>
     <t>Variation</t>
   </si>
@@ -1144,6 +1144,9 @@
   </si>
   <si>
     <t>6 Ferrites Y sweep (in Gap)</t>
+  </si>
+  <si>
+    <t>7 Ferrites Y sweep (in Gap)</t>
   </si>
 </sst>
 </file>
@@ -5793,16 +5796,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D02989-F4B6-4C9B-BB89-45B9B948CA00}">
-  <dimension ref="B1:AA105"/>
+  <dimension ref="B1:AA119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
@@ -13486,6 +13489,904 @@
       <c r="Y105" s="4">
         <f t="shared" si="77"/>
         <v>523.74424475333728</v>
+      </c>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J106" s="2"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J107" s="2"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>2673.0484385991199</v>
+      </c>
+      <c r="E109">
+        <v>142.88278312456899</v>
+      </c>
+      <c r="F109">
+        <v>0.14988581070243401</v>
+      </c>
+      <c r="G109">
+        <v>92.630473943514104</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" ref="H106:H119" si="78">2*PI()*150000*Ipt*Ipt*D109*(10^-9)</f>
+        <v>62.982220030444964</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" ref="I106:I119" si="79">2*PI()*150000*Ist*Ist*E109*(10^-9)</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" ref="J106:J119" si="80">F109*SQRT(H109*I109)</f>
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <f t="shared" ref="K106:K119" si="81">2*PI()*150000*G109*Ipt*(10^-9)</f>
+        <v>0.43651082465922703</v>
+      </c>
+      <c r="N109">
+        <f t="shared" ref="N106:N119" si="82">D109*$D$1^2*10^-3</f>
+        <v>24.057435947392079</v>
+      </c>
+      <c r="O109">
+        <f t="shared" ref="O106:O119" si="83">E109*$D$2^2*10^-3</f>
+        <v>3.5720695781142249</v>
+      </c>
+      <c r="P109">
+        <f t="shared" ref="P106:P119" si="84">G109*$D$1*$D$2*10^-3</f>
+        <v>1.3894571091527115</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" ref="Q106:Q119" si="85">P109/SQRT(N109*O109)</f>
+        <v>0.14988581070243362</v>
+      </c>
+      <c r="S109" s="4">
+        <f t="shared" ref="S106:S119" si="86">w*P109*10^-6*$G$1</f>
+        <v>6.5476623698884042</v>
+      </c>
+      <c r="T109" s="4">
+        <f t="shared" ref="T106:T119" si="87">P109*$G$1/O109</f>
+        <v>1.9448908801578229</v>
+      </c>
+      <c r="U109" s="4">
+        <f t="shared" ref="U106:U119" si="88">S109*T109</f>
+        <v>12.734488829548514</v>
+      </c>
+      <c r="V109" s="5">
+        <f t="shared" ref="V106:V119" si="89">U109*$N$1</f>
+        <v>63.672444147742567</v>
+      </c>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4">
+        <f t="shared" ref="X106:X119" si="90">w*N109*10^-6*$G$1</f>
+        <v>113.36799605480094</v>
+      </c>
+      <c r="Y109" s="4">
+        <f t="shared" ref="Y106:Y119" si="91">X109*$G$1</f>
+        <v>566.83998027400469</v>
+      </c>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>2674.08016081305</v>
+      </c>
+      <c r="E110">
+        <v>142.93981539001601</v>
+      </c>
+      <c r="F110">
+        <v>0.14917679876224199</v>
+      </c>
+      <c r="G110">
+        <v>92.228490931029597</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="78"/>
+        <v>63.00652941240368</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="81"/>
+        <v>0.43461652434089315</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="82"/>
+        <v>24.066721447317452</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="83"/>
+        <v>3.5734953847504003</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="84"/>
+        <v>1.3834273639654442</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="85"/>
+        <v>0.14917679876224232</v>
+      </c>
+      <c r="S110" s="4">
+        <f t="shared" si="86"/>
+        <v>6.5192478651133978</v>
+      </c>
+      <c r="T110" s="4">
+        <f t="shared" si="87"/>
+        <v>1.935678117661922</v>
+      </c>
+      <c r="U110" s="4">
+        <f t="shared" si="88"/>
+        <v>12.619165436114205</v>
+      </c>
+      <c r="V110" s="5">
+        <f t="shared" si="89"/>
+        <v>63.095827180571021</v>
+      </c>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4">
+        <f t="shared" si="90"/>
+        <v>113.41175294232663</v>
+      </c>
+      <c r="Y110" s="4">
+        <f t="shared" si="91"/>
+        <v>567.0587647116331</v>
+      </c>
+    </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>2671.3322043072499</v>
+      </c>
+      <c r="E111">
+        <v>143.003695597366</v>
+      </c>
+      <c r="F111">
+        <v>0.14689138345290401</v>
+      </c>
+      <c r="G111">
+        <v>90.789139841327994</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="78"/>
+        <v>62.941782212621135</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="81"/>
+        <v>0.42783374212687864</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="82"/>
+        <v>24.04198983876525</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="83"/>
+        <v>3.57509238993415</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="84"/>
+        <v>1.3618370976199199</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="85"/>
+        <v>0.1468913834529039</v>
+      </c>
+      <c r="S111" s="4">
+        <f t="shared" si="86"/>
+        <v>6.4175061319031794</v>
+      </c>
+      <c r="T111" s="4">
+        <f t="shared" si="87"/>
+        <v>1.9046180477100951</v>
+      </c>
+      <c r="U111" s="4">
+        <f t="shared" si="88"/>
+        <v>12.222898000112998</v>
+      </c>
+      <c r="V111" s="5">
+        <f t="shared" si="89"/>
+        <v>61.114490000564992</v>
+      </c>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4">
+        <f t="shared" si="90"/>
+        <v>113.29520798271804</v>
+      </c>
+      <c r="Y111" s="4">
+        <f t="shared" si="91"/>
+        <v>566.47603991359017</v>
+      </c>
+    </row>
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>2669.9693238208001</v>
+      </c>
+      <c r="E112">
+        <v>143.13108532127501</v>
+      </c>
+      <c r="F112">
+        <v>0.14313586624800001</v>
+      </c>
+      <c r="G112">
+        <v>88.484782701693007</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="78"/>
+        <v>62.909670097691503</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="81"/>
+        <v>0.41697471493519195</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="82"/>
+        <v>24.029723914387201</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="83"/>
+        <v>3.5782771330318752</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="84"/>
+        <v>1.3272717405253953</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="85"/>
+        <v>0.14313586624799995</v>
+      </c>
+      <c r="S112" s="4">
+        <f t="shared" si="86"/>
+        <v>6.2546207240278795</v>
+      </c>
+      <c r="T112" s="4">
+        <f t="shared" si="87"/>
+        <v>1.8546240148269311</v>
+      </c>
+      <c r="U112" s="4">
+        <f t="shared" si="88"/>
+        <v>11.599969798416312</v>
+      </c>
+      <c r="V112" s="5">
+        <f t="shared" si="89"/>
+        <v>57.99984899208156</v>
+      </c>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4">
+        <f t="shared" si="90"/>
+        <v>113.23740617584468</v>
+      </c>
+      <c r="Y112" s="4">
+        <f t="shared" si="91"/>
+        <v>566.18703087922336</v>
+      </c>
+    </row>
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>2664.71691007864</v>
+      </c>
+      <c r="E113">
+        <v>143.04348326533199</v>
+      </c>
+      <c r="F113">
+        <v>0.13806825899900499</v>
+      </c>
+      <c r="G113">
+        <v>85.241959810665506</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="78"/>
+        <v>62.785913014496614</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="81"/>
+        <v>0.40169327207817473</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="82"/>
+        <v>23.982452190707761</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="83"/>
+        <v>3.5760870816332995</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="84"/>
+        <v>1.2786293971599825</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="85"/>
+        <v>0.13806825899900502</v>
+      </c>
+      <c r="S113" s="4">
+        <f t="shared" si="86"/>
+        <v>6.0253990811726199</v>
+      </c>
+      <c r="T113" s="4">
+        <f t="shared" si="87"/>
+        <v>1.7877492465535774</v>
+      </c>
+      <c r="U113" s="4">
+        <f t="shared" si="88"/>
+        <v>10.771902667550968</v>
+      </c>
+      <c r="V113" s="5">
+        <f t="shared" si="89"/>
+        <v>53.859513337754841</v>
+      </c>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4">
+        <f t="shared" si="90"/>
+        <v>113.01464342609391</v>
+      </c>
+      <c r="Y113" s="4">
+        <f t="shared" si="91"/>
+        <v>565.07321713046952</v>
+      </c>
+    </row>
+    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>2660.4509343518698</v>
+      </c>
+      <c r="E114">
+        <v>143.22456014361501</v>
+      </c>
+      <c r="F114">
+        <v>0.131571743142994</v>
+      </c>
+      <c r="G114">
+        <v>81.217385346062002</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="78"/>
+        <v>62.685398329469514</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="81"/>
+        <v>0.38272791172043957</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="82"/>
+        <v>23.944058409166828</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="83"/>
+        <v>3.5806140035903753</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="84"/>
+        <v>1.21826078019093</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="85"/>
+        <v>0.13157174314299394</v>
+      </c>
+      <c r="S114" s="4">
+        <f t="shared" si="86"/>
+        <v>5.7409186758065935</v>
+      </c>
+      <c r="T114" s="4">
+        <f t="shared" si="87"/>
+        <v>1.7011897665726436</v>
+      </c>
+      <c r="U114" s="4">
+        <f t="shared" si="88"/>
+        <v>9.7663921020079485</v>
+      </c>
+      <c r="V114" s="5">
+        <f t="shared" si="89"/>
+        <v>48.831960510039742</v>
+      </c>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4">
+        <f t="shared" si="90"/>
+        <v>112.83371699304512</v>
+      </c>
+      <c r="Y114" s="4">
+        <f t="shared" si="91"/>
+        <v>564.16858496522559</v>
+      </c>
+    </row>
+    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>2653.3901926952799</v>
+      </c>
+      <c r="E115">
+        <v>143.008857038283</v>
+      </c>
+      <c r="F115">
+        <v>0.123931707256746</v>
+      </c>
+      <c r="G115">
+        <v>76.342162908459599</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="78"/>
+        <v>62.519033523590231</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="81"/>
+        <v>0.35975396722855785</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="82"/>
+        <v>23.880511734257517</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="83"/>
+        <v>3.5752214259570754</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="84"/>
+        <v>1.1451324436268939</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="85"/>
+        <v>0.12393170725674622</v>
+      </c>
+      <c r="S115" s="4">
+        <f t="shared" si="86"/>
+        <v>5.3963095084283665</v>
+      </c>
+      <c r="T115" s="4">
+        <f t="shared" si="87"/>
+        <v>1.6014846455563876</v>
+      </c>
+      <c r="U115" s="4">
+        <f t="shared" si="88"/>
+        <v>8.6421068204179665</v>
+      </c>
+      <c r="V115" s="5">
+        <f t="shared" si="89"/>
+        <v>43.210534102089831</v>
+      </c>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4">
+        <f t="shared" si="90"/>
+        <v>112.53426034246239</v>
+      </c>
+      <c r="Y115" s="4">
+        <f t="shared" si="91"/>
+        <v>562.6713017123119</v>
+      </c>
+    </row>
+    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>35</v>
+      </c>
+      <c r="D116">
+        <v>2646.43226937078</v>
+      </c>
+      <c r="E116">
+        <v>142.98892057288001</v>
+      </c>
+      <c r="F116">
+        <v>0.11490311377239</v>
+      </c>
+      <c r="G116">
+        <v>70.682741129194</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="78"/>
+        <v>62.355091317586549</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="81"/>
+        <v>0.33308457040059752</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="82"/>
+        <v>23.817890424337019</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="83"/>
+        <v>3.5747230143220001</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="84"/>
+        <v>1.06024111693791</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="85"/>
+        <v>0.11490311377239056</v>
+      </c>
+      <c r="S116" s="4">
+        <f t="shared" si="86"/>
+        <v>4.9962685560089621</v>
+      </c>
+      <c r="T116" s="4">
+        <f t="shared" si="87"/>
+        <v>1.4829696072815877</v>
+      </c>
+      <c r="U116" s="4">
+        <f t="shared" si="88"/>
+        <v>7.4093144183779556</v>
+      </c>
+      <c r="V116" s="5">
+        <f t="shared" si="89"/>
+        <v>37.046572091889779</v>
+      </c>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4">
+        <f t="shared" si="90"/>
+        <v>112.23916437165578</v>
+      </c>
+      <c r="Y116" s="4">
+        <f t="shared" si="91"/>
+        <v>561.19582185827892</v>
+      </c>
+    </row>
+    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>40</v>
+      </c>
+      <c r="D117">
+        <v>2641.6062832468901</v>
+      </c>
+      <c r="E117">
+        <v>142.99337517183301</v>
+      </c>
+      <c r="F117">
+        <v>0.10512810601228199</v>
+      </c>
+      <c r="G117">
+        <v>64.611651706515801</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="78"/>
+        <v>62.241381698438012</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="81"/>
+        <v>0.30447523550623873</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="82"/>
+        <v>23.774456549222009</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="83"/>
+        <v>3.5748343792958255</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="84"/>
+        <v>0.96917477559773701</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="85"/>
+        <v>0.10512810601228209</v>
+      </c>
+      <c r="S117" s="4">
+        <f t="shared" si="86"/>
+        <v>4.5671285325935802</v>
+      </c>
+      <c r="T117" s="4">
+        <f t="shared" si="87"/>
+        <v>1.3555519959342091</v>
+      </c>
+      <c r="U117" s="4">
+        <f t="shared" si="88"/>
+        <v>6.1909801980453034</v>
+      </c>
+      <c r="V117" s="5">
+        <f t="shared" si="89"/>
+        <v>30.954900990226516</v>
+      </c>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4">
+        <f t="shared" si="90"/>
+        <v>112.03448705718841</v>
+      </c>
+      <c r="Y117" s="4">
+        <f t="shared" si="91"/>
+        <v>560.17243528594213</v>
+      </c>
+    </row>
+    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>45</v>
+      </c>
+      <c r="D118">
+        <v>2634.37520391521</v>
+      </c>
+      <c r="E118">
+        <v>142.65245691932299</v>
+      </c>
+      <c r="F118">
+        <v>9.3983947384347399E-2</v>
+      </c>
+      <c r="G118">
+        <v>57.614543431150103</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="78"/>
+        <v>62.07100340564353</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="81"/>
+        <v>0.27150213957484687</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="82"/>
+        <v>23.709376835236892</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="83"/>
+        <v>3.566311422983075</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="84"/>
+        <v>0.86421815146725156</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="85"/>
+        <v>9.3983947384347399E-2</v>
+      </c>
+      <c r="S118" s="4">
+        <f t="shared" si="86"/>
+        <v>4.0725320936227032</v>
+      </c>
+      <c r="T118" s="4">
+        <f t="shared" si="87"/>
+        <v>1.2116414538250952</v>
+      </c>
+      <c r="U118" s="4">
+        <f t="shared" si="88"/>
+        <v>4.9344487066663714</v>
+      </c>
+      <c r="V118" s="5">
+        <f t="shared" si="89"/>
+        <v>24.672243533331859</v>
+      </c>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4">
+        <f t="shared" si="90"/>
+        <v>111.72780613015834</v>
+      </c>
+      <c r="Y118" s="4">
+        <f t="shared" si="91"/>
+        <v>558.63903065079171</v>
+      </c>
+    </row>
+    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <v>50</v>
+      </c>
+      <c r="D119">
+        <v>2629.1421678853499</v>
+      </c>
+      <c r="E119">
+        <v>142.631411297819</v>
+      </c>
+      <c r="F119">
+        <v>8.2286375099905801E-2</v>
+      </c>
+      <c r="G119">
+        <v>50.3897908992368</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="78"/>
+        <v>61.947702899038184</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="81"/>
+        <v>0.23745629535745222</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="82"/>
+        <v>23.662279510968151</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="83"/>
+        <v>3.565785282445475</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="84"/>
+        <v>0.75584686348855201</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="85"/>
+        <v>8.2286375099905718E-2</v>
+      </c>
+      <c r="S119" s="4">
+        <f t="shared" si="86"/>
+        <v>3.5618444303617833</v>
+      </c>
+      <c r="T119" s="4">
+        <f t="shared" si="87"/>
+        <v>1.0598603163370786</v>
+      </c>
+      <c r="U119" s="4">
+        <f t="shared" si="88"/>
+        <v>3.7750575647067008</v>
+      </c>
+      <c r="V119" s="5">
+        <f t="shared" si="89"/>
+        <v>18.875287823533505</v>
+      </c>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4">
+        <f t="shared" si="90"/>
+        <v>111.50586521826874</v>
+      </c>
+      <c r="Y119" s="4">
+        <f t="shared" si="91"/>
+        <v>557.52932609134371</v>
       </c>
     </row>
   </sheetData>
@@ -24046,7 +24947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C17C92A-511E-405A-AC65-947739AFAEE7}">
   <dimension ref="B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>

--- a/CoilDesign/AnalysisResult_LessFerrites/Less Ferrites.xlsx
+++ b/CoilDesign/AnalysisResult_LessFerrites/Less Ferrites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\CoilDesign\AnalysisResult_LessFerrites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2587969-7183-423C-82BD-67275FB58225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDA4F80-0AF3-4109-8849-AC663CB1F9CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,19 +28,12 @@
     <definedName name="w" localSheetId="0">ydisp!$K$2</definedName>
     <definedName name="w">xdisp!$K$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="376">
   <si>
     <t>Variation</t>
   </si>
@@ -1147,6 +1140,27 @@
   </si>
   <si>
     <t>7 Ferrites Y sweep (in Gap)</t>
+  </si>
+  <si>
+    <t>Lpt_new ()</t>
+  </si>
+  <si>
+    <t>L_st ()</t>
+  </si>
+  <si>
+    <t>k_nominal ()</t>
+  </si>
+  <si>
+    <t>Mpt_st ()</t>
+  </si>
+  <si>
+    <t>7 Ferrites Y sweep (in Gap,   SINGLE instead of double ferrites side-by-side)</t>
+  </si>
+  <si>
+    <t>7 Ferrites y sweep (SINGLE on Top)</t>
+  </si>
+  <si>
+    <t>min 8 ferrites</t>
   </si>
 </sst>
 </file>
@@ -5796,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D02989-F4B6-4C9B-BB89-45B9B948CA00}">
-  <dimension ref="B1:AA119"/>
+  <dimension ref="B1:AA137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="G80" workbookViewId="0">
+      <selection activeCell="V116" sqref="V116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,16 +5885,16 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -6124,7 +6138,7 @@
         <v>12.377922385027425</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="18"/>
+        <f>U7*$N$1</f>
         <v>61.889611925137125</v>
       </c>
       <c r="W7" s="4"/>
@@ -11709,16 +11723,16 @@
         <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>18</v>
@@ -13515,24 +13529,9 @@
       <c r="Y107" s="4"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" t="s">
-        <v>6</v>
-      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="G108"/>
       <c r="J108" s="2"/>
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
@@ -13543,104 +13542,98 @@
       <c r="Y108" s="4"/>
     </row>
     <row r="109" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>1</v>
-      </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>2673.0484385991199</v>
+        <v>2426.7780120000002</v>
       </c>
       <c r="E109">
-        <v>142.88278312456899</v>
+        <v>126.0292267</v>
       </c>
       <c r="F109">
-        <v>0.14988581070243401</v>
+        <v>9.0622852000000004E-2</v>
       </c>
       <c r="G109">
-        <v>92.630473943514104</v>
+        <v>50.117383490000002</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" ref="H106:H119" si="78">2*PI()*150000*Ipt*Ipt*D109*(10^-9)</f>
-        <v>62.982220030444964</v>
+        <f t="shared" ref="H109:H114" si="78">2*PI()*150000*Ipt*Ipt*D109*(10^-9)</f>
+        <v>57.179609807943322</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" ref="I106:I119" si="79">2*PI()*150000*Ist*Ist*E109*(10^-9)</f>
+        <f t="shared" ref="I109:I114" si="79">2*PI()*150000*Ist*Ist*E109*(10^-9)</f>
         <v>0</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" ref="J106:J119" si="80">F109*SQRT(H109*I109)</f>
+        <f t="shared" ref="J109:J114" si="80">F109*SQRT(H109*I109)</f>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" ref="K106:K119" si="81">2*PI()*150000*G109*Ipt*(10^-9)</f>
-        <v>0.43651082465922703</v>
+        <f t="shared" ref="K109:K114" si="81">2*PI()*150000*G109*Ipt*(10^-9)</f>
+        <v>0.23617260568398959</v>
       </c>
       <c r="N109">
-        <f t="shared" ref="N106:N119" si="82">D109*$D$1^2*10^-3</f>
-        <v>24.057435947392079</v>
+        <f t="shared" ref="N109:N114" si="82">D109*$D$1^2*10^-3</f>
+        <v>21.841002108000001</v>
       </c>
       <c r="O109">
-        <f t="shared" ref="O106:O119" si="83">E109*$D$2^2*10^-3</f>
-        <v>3.5720695781142249</v>
+        <f t="shared" ref="O109:O114" si="83">E109*$D$2^2*10^-3</f>
+        <v>3.1507306675</v>
       </c>
       <c r="P109">
-        <f t="shared" ref="P106:P119" si="84">G109*$D$1*$D$2*10^-3</f>
-        <v>1.3894571091527115</v>
+        <f t="shared" ref="P109:P114" si="84">G109*$D$1*$D$2*10^-3</f>
+        <v>0.75176075234999995</v>
       </c>
       <c r="Q109">
-        <f t="shared" ref="Q106:Q119" si="85">P109/SQRT(N109*O109)</f>
-        <v>0.14988581070243362</v>
+        <f t="shared" ref="Q109:Q114" si="85">P109/SQRT(N109*O109)</f>
+        <v>9.0622852466814341E-2</v>
       </c>
       <c r="S109" s="4">
-        <f t="shared" ref="S106:S119" si="86">w*P109*10^-6*$G$1</f>
-        <v>6.5476623698884042</v>
+        <f t="shared" ref="S109:S114" si="86">w*P109*10^-6*$G$1</f>
+        <v>3.5425890852598432</v>
       </c>
       <c r="T109" s="4">
-        <f t="shared" ref="T106:T119" si="87">P109*$G$1/O109</f>
-        <v>1.9448908801578229</v>
+        <f t="shared" ref="T109:T114" si="87">P109*$G$1/O109</f>
+        <v>1.1929943109775505</v>
       </c>
       <c r="U109" s="4">
-        <f t="shared" ref="U106:U119" si="88">S109*T109</f>
-        <v>12.734488829548514</v>
+        <f t="shared" ref="U109:U114" si="88">S109*T109</f>
+        <v>4.2262886248461573</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" ref="V106:V119" si="89">U109*$N$1</f>
-        <v>63.672444147742567</v>
+        <f t="shared" ref="V109:V114" si="89">U109*$N$1</f>
+        <v>21.131443124230785</v>
       </c>
       <c r="W109" s="4"/>
       <c r="X109" s="4">
-        <f t="shared" ref="X106:X119" si="90">w*N109*10^-6*$G$1</f>
-        <v>113.36799605480094</v>
+        <f t="shared" ref="X109:X114" si="90">w*N109*10^-6*$G$1</f>
+        <v>102.92329765429798</v>
       </c>
       <c r="Y109" s="4">
-        <f t="shared" ref="Y106:Y119" si="91">X109*$G$1</f>
-        <v>566.83998027400469</v>
+        <f t="shared" ref="Y109:Y114" si="91">X109*$G$1</f>
+        <v>514.61648827148997</v>
       </c>
     </row>
     <row r="110" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>2</v>
-      </c>
       <c r="C110">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>2674.08016081305</v>
+        <v>2425.916815</v>
       </c>
       <c r="E110">
-        <v>142.93981539001601</v>
+        <v>125.93062</v>
       </c>
       <c r="F110">
-        <v>0.14917679876224199</v>
+        <v>8.9420795999999997E-2</v>
       </c>
       <c r="G110">
-        <v>92.228490931029597</v>
+        <v>49.42448547</v>
       </c>
       <c r="H110" s="1">
         <f t="shared" si="78"/>
-        <v>63.00652941240368</v>
+        <v>57.159318331679621</v>
       </c>
       <c r="I110" s="1">
         <f t="shared" si="79"/>
@@ -13652,72 +13645,69 @@
       </c>
       <c r="K110">
         <f t="shared" si="81"/>
-        <v>0.43461652434089315</v>
+        <v>0.23290740069001123</v>
       </c>
       <c r="N110">
         <f t="shared" si="82"/>
-        <v>24.066721447317452</v>
+        <v>21.833251335</v>
       </c>
       <c r="O110">
         <f t="shared" si="83"/>
-        <v>3.5734953847504003</v>
+        <v>3.1482654999999999</v>
       </c>
       <c r="P110">
         <f t="shared" si="84"/>
-        <v>1.3834273639654442</v>
+        <v>0.74136728205000002</v>
       </c>
       <c r="Q110">
         <f t="shared" si="85"/>
-        <v>0.14917679876224232</v>
+        <v>8.9420796439828892E-2</v>
       </c>
       <c r="S110" s="4">
         <f t="shared" si="86"/>
-        <v>6.5192478651133978</v>
+        <v>3.4936110103501683</v>
       </c>
       <c r="T110" s="4">
         <f t="shared" si="87"/>
-        <v>1.935678117661922</v>
+        <v>1.177421793127041</v>
       </c>
       <c r="U110" s="4">
         <f t="shared" si="88"/>
-        <v>12.619165436114205</v>
+        <v>4.1134537402948688</v>
       </c>
       <c r="V110" s="5">
         <f t="shared" si="89"/>
-        <v>63.095827180571021</v>
+        <v>20.567268701474344</v>
       </c>
       <c r="W110" s="4"/>
       <c r="X110" s="4">
         <f t="shared" si="90"/>
-        <v>113.41175294232663</v>
+        <v>102.8867729970233</v>
       </c>
       <c r="Y110" s="4">
         <f t="shared" si="91"/>
-        <v>567.0587647116331</v>
+        <v>514.43386498511654</v>
       </c>
     </row>
     <row r="111" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <v>3</v>
-      </c>
       <c r="C111">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D111">
-        <v>2671.3322043072499</v>
+        <v>2421.8383140000001</v>
       </c>
       <c r="E111">
-        <v>143.003695597366</v>
+        <v>125.9062314</v>
       </c>
       <c r="F111">
-        <v>0.14689138345290401</v>
+        <v>8.5622882999999997E-2</v>
       </c>
       <c r="G111">
-        <v>90.789139841327994</v>
+        <v>47.280932440000001</v>
       </c>
       <c r="H111" s="1">
         <f t="shared" si="78"/>
-        <v>62.941782212621135</v>
+        <v>57.063220915835188</v>
       </c>
       <c r="I111" s="1">
         <f t="shared" si="79"/>
@@ -13729,72 +13719,69 @@
       </c>
       <c r="K111">
         <f t="shared" si="81"/>
-        <v>0.42783374212687864</v>
+        <v>0.22280614501256901</v>
       </c>
       <c r="N111">
         <f t="shared" si="82"/>
-        <v>24.04198983876525</v>
+        <v>21.796544826000002</v>
       </c>
       <c r="O111">
         <f t="shared" si="83"/>
-        <v>3.57509238993415</v>
+        <v>3.147655785</v>
       </c>
       <c r="P111">
         <f t="shared" si="84"/>
-        <v>1.3618370976199199</v>
+        <v>0.70921398660000001</v>
       </c>
       <c r="Q111">
         <f t="shared" si="85"/>
-        <v>0.1468913834529039</v>
+        <v>8.5622883145012721E-2</v>
       </c>
       <c r="S111" s="4">
         <f t="shared" si="86"/>
-        <v>6.4175061319031794</v>
+        <v>3.3420921751885349</v>
       </c>
       <c r="T111" s="4">
         <f t="shared" si="87"/>
-        <v>1.9046180477100951</v>
+        <v>1.1265748783264751</v>
       </c>
       <c r="U111" s="4">
         <f t="shared" si="88"/>
-        <v>12.222898000112998</v>
+        <v>3.765117085618888</v>
       </c>
       <c r="V111" s="5">
         <f t="shared" si="89"/>
-        <v>61.114490000564992</v>
+        <v>18.825585428094442</v>
       </c>
       <c r="W111" s="4"/>
       <c r="X111" s="4">
         <f t="shared" si="90"/>
-        <v>113.29520798271804</v>
+        <v>102.71379764850332</v>
       </c>
       <c r="Y111" s="4">
         <f t="shared" si="91"/>
-        <v>566.47603991359017</v>
+        <v>513.56898824251653</v>
       </c>
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>4</v>
-      </c>
       <c r="C112">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D112">
-        <v>2669.9693238208001</v>
+        <v>2420.351349</v>
       </c>
       <c r="E112">
-        <v>143.13108532127501</v>
+        <v>125.9120786</v>
       </c>
       <c r="F112">
-        <v>0.14313586624800001</v>
+        <v>7.9452495999999997E-2</v>
       </c>
       <c r="G112">
-        <v>88.484782701693007</v>
+        <v>43.8611942</v>
       </c>
       <c r="H112" s="1">
         <f t="shared" si="78"/>
-        <v>62.909670097691503</v>
+        <v>57.028185128434096</v>
       </c>
       <c r="I112" s="1">
         <f t="shared" si="79"/>
@@ -13806,72 +13793,69 @@
       </c>
       <c r="K112">
         <f t="shared" si="81"/>
-        <v>0.41697471493519195</v>
+        <v>0.20669100821459288</v>
       </c>
       <c r="N112">
         <f t="shared" si="82"/>
-        <v>24.029723914387201</v>
+        <v>21.783162141000002</v>
       </c>
       <c r="O112">
         <f t="shared" si="83"/>
-        <v>3.5782771330318752</v>
+        <v>3.1478019650000002</v>
       </c>
       <c r="P112">
         <f t="shared" si="84"/>
-        <v>1.3272717405253953</v>
+        <v>0.65791791300000002</v>
       </c>
       <c r="Q112">
         <f t="shared" si="85"/>
-        <v>0.14313586624799995</v>
+        <v>7.945249650429935E-2</v>
       </c>
       <c r="S112" s="4">
         <f t="shared" si="86"/>
-        <v>6.2546207240278795</v>
+        <v>3.1003651232188929</v>
       </c>
       <c r="T112" s="4">
         <f t="shared" si="87"/>
-        <v>1.8546240148269311</v>
+        <v>1.045043367269135</v>
       </c>
       <c r="U112" s="4">
         <f t="shared" si="88"/>
-        <v>11.599969798416312</v>
+        <v>3.2400160081324585</v>
       </c>
       <c r="V112" s="5">
         <f t="shared" si="89"/>
-        <v>57.99984899208156</v>
+        <v>16.200080040662293</v>
       </c>
       <c r="W112" s="4"/>
       <c r="X112" s="4">
         <f t="shared" si="90"/>
-        <v>113.23740617584468</v>
+        <v>102.65073323118136</v>
       </c>
       <c r="Y112" s="4">
         <f t="shared" si="91"/>
-        <v>566.18703087922336</v>
+        <v>513.25366615590679</v>
       </c>
     </row>
     <row r="113" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>5</v>
-      </c>
       <c r="C113">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D113">
-        <v>2664.71691007864</v>
+        <v>2414.8736410000001</v>
       </c>
       <c r="E113">
-        <v>143.04348326533199</v>
+        <v>125.8301465</v>
       </c>
       <c r="F113">
-        <v>0.13806825899900499</v>
+        <v>7.0770549000000002E-2</v>
       </c>
       <c r="G113">
-        <v>85.241959810665506</v>
+        <v>39.011452669999997</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="78"/>
-        <v>62.785913014496614</v>
+        <v>56.899119674349272</v>
       </c>
       <c r="I113" s="1">
         <f t="shared" si="79"/>
@@ -13883,72 +13867,69 @@
       </c>
       <c r="K113">
         <f t="shared" si="81"/>
-        <v>0.40169327207817473</v>
+        <v>0.18383713967090684</v>
       </c>
       <c r="N113">
         <f t="shared" si="82"/>
-        <v>23.982452190707761</v>
+        <v>21.733862768999998</v>
       </c>
       <c r="O113">
         <f t="shared" si="83"/>
-        <v>3.5760870816332995</v>
+        <v>3.1457536624999998</v>
       </c>
       <c r="P113">
         <f t="shared" si="84"/>
-        <v>1.2786293971599825</v>
+        <v>0.58517179004999997</v>
       </c>
       <c r="Q113">
         <f t="shared" si="85"/>
-        <v>0.13806825899900502</v>
+        <v>7.0770549185016865E-2</v>
       </c>
       <c r="S113" s="4">
         <f t="shared" si="86"/>
-        <v>6.0253990811726199</v>
+        <v>2.757557095063603</v>
       </c>
       <c r="T113" s="4">
         <f t="shared" si="87"/>
-        <v>1.7877492465535774</v>
+        <v>0.93009792379125933</v>
       </c>
       <c r="U113" s="4">
         <f t="shared" si="88"/>
-        <v>10.771902667550968</v>
+        <v>2.5647981288545134</v>
       </c>
       <c r="V113" s="5">
         <f t="shared" si="89"/>
-        <v>53.859513337754841</v>
+        <v>12.823990644272566</v>
       </c>
       <c r="W113" s="4"/>
       <c r="X113" s="4">
         <f t="shared" si="90"/>
-        <v>113.01464342609391</v>
+        <v>102.41841541382865</v>
       </c>
       <c r="Y113" s="4">
         <f t="shared" si="91"/>
-        <v>565.07321713046952</v>
+        <v>512.09207706914322</v>
       </c>
     </row>
     <row r="114" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>6</v>
-      </c>
       <c r="C114">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D114">
-        <v>2660.4509343518698</v>
+        <v>2414.540536</v>
       </c>
       <c r="E114">
-        <v>143.22456014361501</v>
+        <v>125.995983</v>
       </c>
       <c r="F114">
-        <v>0.131571743142994</v>
+        <v>5.9807707000000002E-2</v>
       </c>
       <c r="G114">
-        <v>81.217385346062002</v>
+        <v>32.98775449</v>
       </c>
       <c r="H114" s="1">
         <f t="shared" si="78"/>
-        <v>62.685398329469514</v>
+        <v>56.891271072692717</v>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="79"/>
@@ -13960,433 +13941,1164 @@
       </c>
       <c r="K114">
         <f t="shared" si="81"/>
-        <v>0.38272791172043957</v>
+        <v>0.15545113074631159</v>
       </c>
       <c r="N114">
         <f t="shared" si="82"/>
-        <v>23.944058409166828</v>
+        <v>21.730864824000001</v>
       </c>
       <c r="O114">
         <f t="shared" si="83"/>
-        <v>3.5806140035903753</v>
+        <v>3.1498995750000001</v>
       </c>
       <c r="P114">
         <f t="shared" si="84"/>
-        <v>1.21826078019093</v>
+        <v>0.49481631735000003</v>
       </c>
       <c r="Q114">
         <f t="shared" si="85"/>
-        <v>0.13157174314299394</v>
+        <v>5.9807707218594561E-2</v>
       </c>
       <c r="S114" s="4">
         <f t="shared" si="86"/>
-        <v>5.7409186758065935</v>
+        <v>2.3317669611946736</v>
       </c>
       <c r="T114" s="4">
         <f t="shared" si="87"/>
-        <v>1.7011897665726436</v>
+        <v>0.78544776677523132</v>
       </c>
       <c r="U114" s="4">
         <f t="shared" si="88"/>
-        <v>9.7663921020079485</v>
+        <v>1.8314811523106238</v>
       </c>
       <c r="V114" s="5">
         <f t="shared" si="89"/>
-        <v>48.831960510039742</v>
+        <v>9.1574057615531181</v>
       </c>
       <c r="W114" s="4"/>
       <c r="X114" s="4">
         <f t="shared" si="90"/>
-        <v>112.83371699304512</v>
+        <v>102.40428793084688</v>
       </c>
       <c r="Y114" s="4">
         <f t="shared" si="91"/>
-        <v>564.16858496522559</v>
+        <v>512.02143965423443</v>
       </c>
     </row>
     <row r="115" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>7</v>
-      </c>
-      <c r="C115">
-        <v>30</v>
-      </c>
-      <c r="D115">
-        <v>2653.3901926952799</v>
-      </c>
-      <c r="E115">
-        <v>143.008857038283</v>
-      </c>
-      <c r="F115">
-        <v>0.123931707256746</v>
-      </c>
-      <c r="G115">
-        <v>76.342162908459599</v>
-      </c>
-      <c r="H115" s="1">
-        <f t="shared" si="78"/>
-        <v>62.519033523590231</v>
-      </c>
-      <c r="I115" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="81"/>
-        <v>0.35975396722855785</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="82"/>
-        <v>23.880511734257517</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="83"/>
-        <v>3.5752214259570754</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="84"/>
-        <v>1.1451324436268939</v>
-      </c>
-      <c r="Q115">
-        <f t="shared" si="85"/>
-        <v>0.12393170725674622</v>
-      </c>
-      <c r="S115" s="4">
-        <f t="shared" si="86"/>
-        <v>5.3963095084283665</v>
-      </c>
-      <c r="T115" s="4">
-        <f t="shared" si="87"/>
-        <v>1.6014846455563876</v>
-      </c>
-      <c r="U115" s="4">
-        <f t="shared" si="88"/>
-        <v>8.6421068204179665</v>
-      </c>
-      <c r="V115" s="5">
-        <f t="shared" si="89"/>
-        <v>43.210534102089831</v>
-      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="G115"/>
+      <c r="J115" s="2"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="5"/>
       <c r="W115" s="4"/>
-      <c r="X115" s="4">
-        <f t="shared" si="90"/>
-        <v>112.53426034246239</v>
-      </c>
-      <c r="Y115" s="4">
-        <f t="shared" si="91"/>
-        <v>562.6713017123119</v>
-      </c>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
     </row>
     <row r="116" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>8</v>
-      </c>
-      <c r="C116">
-        <v>35</v>
+      <c r="C116" t="s">
+        <v>375</v>
       </c>
       <c r="D116">
-        <v>2646.43226937078</v>
+        <v>2756.8</v>
       </c>
       <c r="E116">
-        <v>142.98892057288001</v>
+        <v>126.7</v>
       </c>
       <c r="F116">
-        <v>0.11490311377239</v>
+        <v>5.9945999999999999E-2</v>
       </c>
       <c r="G116">
-        <v>70.682741129194</v>
+        <v>35.43</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="78"/>
-        <v>62.355091317586549</v>
+        <f t="shared" ref="H115:H116" si="92">2*PI()*150000*Ipt*Ipt*D116*(10^-9)</f>
+        <v>64.955569705622565</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="I115:I116" si="93">2*PI()*150000*Ist*Ist*E116*(10^-9)</f>
         <v>0</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="J115:J116" si="94">F116*SQRT(H116*I116)</f>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" si="81"/>
-        <v>0.33308457040059752</v>
+        <f t="shared" ref="K115:K116" si="95">2*PI()*150000*G116*Ipt*(10^-9)</f>
+        <v>0.16695994157502955</v>
       </c>
       <c r="N116">
-        <f t="shared" si="82"/>
-        <v>23.817890424337019</v>
+        <f t="shared" ref="N115:N116" si="96">D116*$D$1^2*10^-3</f>
+        <v>24.811199999999999</v>
       </c>
       <c r="O116">
-        <f t="shared" si="83"/>
-        <v>3.5747230143220001</v>
+        <f t="shared" ref="O115:O116" si="97">E116*$D$2^2*10^-3</f>
+        <v>3.1675</v>
       </c>
       <c r="P116">
-        <f t="shared" si="84"/>
-        <v>1.06024111693791</v>
+        <f t="shared" ref="P115:P116" si="98">G116*$D$1*$D$2*10^-3</f>
+        <v>0.53144999999999998</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="85"/>
-        <v>0.11490311377239056</v>
+        <f t="shared" ref="Q115:Q116" si="99">P116/SQRT(N116*O116)</f>
+        <v>5.9948761435939635E-2</v>
       </c>
       <c r="S116" s="4">
-        <f t="shared" si="86"/>
-        <v>4.9962685560089621</v>
+        <f t="shared" ref="S115:S116" si="100">w*P116*10^-6*$G$1</f>
+        <v>2.504399123625443</v>
       </c>
       <c r="T116" s="4">
-        <f t="shared" si="87"/>
-        <v>1.4829696072815877</v>
+        <f t="shared" ref="T115:T116" si="101">P116*$G$1/O116</f>
+        <v>0.83891081294396208</v>
       </c>
       <c r="U116" s="4">
-        <f t="shared" si="88"/>
-        <v>7.4093144183779556</v>
+        <f t="shared" ref="U115:U116" si="102">S116*T116</f>
+        <v>2.1009675047367664</v>
       </c>
       <c r="V116" s="5">
-        <f t="shared" si="89"/>
-        <v>37.046572091889779</v>
+        <f t="shared" ref="V115:V116" si="103">U116*$N$1</f>
+        <v>10.504837523683833</v>
       </c>
       <c r="W116" s="4"/>
       <c r="X116" s="4">
-        <f t="shared" si="90"/>
-        <v>112.23916437165578</v>
+        <f t="shared" ref="X115:X116" si="104">w*N116*10^-6*$G$1</f>
+        <v>116.92002547012061</v>
       </c>
       <c r="Y116" s="4">
-        <f t="shared" si="91"/>
-        <v>561.19582185827892</v>
+        <f t="shared" ref="Y115:Y116" si="105">X116*$G$1</f>
+        <v>584.60012735060309</v>
       </c>
     </row>
     <row r="117" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <v>9</v>
-      </c>
-      <c r="C117">
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="G117"/>
+      <c r="J117" s="2"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+    </row>
+    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="G118"/>
+      <c r="J118" s="2"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+    </row>
+    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="G119"/>
+      <c r="J119" s="2"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+    </row>
+    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J120" s="2"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+    </row>
+    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+    </row>
+    <row r="122" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+    </row>
+    <row r="123" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>2004.58188300853</v>
+      </c>
+      <c r="E123">
+        <v>125.160729663577</v>
+      </c>
+      <c r="F123">
+        <v>8.7633391238179106E-2</v>
+      </c>
+      <c r="G123">
+        <v>43.895051410095498</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" ref="H123:H128" si="106">2*PI()*150000*Ipt*Ipt*D123*(10^-9)</f>
+        <v>47.231847878840938</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" ref="I123:I128" si="107">2*PI()*150000*Ist*Ist*E123*(10^-9)</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" ref="J123:J128" si="108">F123*SQRT(H123*I123)</f>
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ref="K123:K128" si="109">2*PI()*150000*G123*Ipt*(10^-9)</f>
+        <v>0.20685055655835347</v>
+      </c>
+      <c r="N123">
+        <f t="shared" ref="N123:N128" si="110">D123*$D$1^2*10^-3</f>
+        <v>18.041236947076769</v>
+      </c>
+      <c r="O123">
+        <f t="shared" ref="O123:O128" si="111">E123*$D$2^2*10^-3</f>
+        <v>3.1290182415894252</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ref="P123:P128" si="112">G123*$D$1*$D$2*10^-3</f>
+        <v>0.65842577115143242</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" ref="Q123:Q128" si="113">P123/SQRT(N123*O123)</f>
+        <v>8.7633391238179162E-2</v>
+      </c>
+      <c r="S123" s="4">
+        <f t="shared" ref="S123:S137" si="114">w*P123*10^-6*$G$1</f>
+        <v>3.1027583483753012</v>
+      </c>
+      <c r="T123" s="4">
+        <f t="shared" ref="T123:T137" si="115">P123*$G$1/O123</f>
+        <v>1.0521283679333497</v>
+      </c>
+      <c r="U123" s="4">
+        <f t="shared" ref="U123:U137" si="116">S123*T123</f>
+        <v>3.2645000771676815</v>
+      </c>
+      <c r="V123" s="5">
+        <f t="shared" ref="V123:V137" si="117">U123*$N$1</f>
+        <v>16.322500385838406</v>
+      </c>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4">
+        <f t="shared" ref="X123:X137" si="118">w*N123*10^-6*$G$1</f>
+        <v>85.017326181913688</v>
+      </c>
+      <c r="Y123" s="4">
+        <f t="shared" ref="Y123:Y137" si="119">X123*$G$1</f>
+        <v>425.08663090956844</v>
+      </c>
+    </row>
+    <row r="124" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>2004.15513439756</v>
+      </c>
+      <c r="E124">
+        <v>125.14926912919699</v>
+      </c>
+      <c r="F124">
+        <v>8.5491982479351997E-2</v>
+      </c>
+      <c r="G124">
+        <v>42.815913538700201</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="106"/>
+        <v>47.221792851582293</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="109"/>
+        <v>0.20176523914487449</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="110"/>
+        <v>18.037396209578041</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="111"/>
+        <v>3.128731728229925</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="112"/>
+        <v>0.64223870308050302</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="113"/>
+        <v>8.5491982479352011E-2</v>
+      </c>
+      <c r="S124" s="4">
+        <f t="shared" si="114"/>
+        <v>3.0264785871731172</v>
+      </c>
+      <c r="T124" s="4">
+        <f t="shared" si="115"/>
+        <v>1.0263562984414911</v>
+      </c>
+      <c r="U124" s="4">
+        <f t="shared" si="116"/>
+        <v>3.1062453600434341</v>
+      </c>
+      <c r="V124" s="5">
+        <f t="shared" si="117"/>
+        <v>15.531226800217171</v>
+      </c>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4">
+        <f t="shared" si="118"/>
+        <v>84.999227132848119</v>
+      </c>
+      <c r="Y124" s="4">
+        <f t="shared" si="119"/>
+        <v>424.99613566424057</v>
+      </c>
+    </row>
+    <row r="125" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>20</v>
+      </c>
+      <c r="D125">
+        <v>2004.0513396513099</v>
+      </c>
+      <c r="E125">
+        <v>125.210350748512</v>
+      </c>
+      <c r="F125">
+        <v>7.9653190901418702E-2</v>
+      </c>
+      <c r="G125">
+        <v>39.900442849549002</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="106"/>
+        <v>47.219347245490042</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="109"/>
+        <v>0.18802640719668384</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="110"/>
+        <v>18.03646205686179</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="111"/>
+        <v>3.1302587687128001</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="112"/>
+        <v>0.59850664274323506</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="113"/>
+        <v>7.9653190901418661E-2</v>
+      </c>
+      <c r="S125" s="4">
+        <f t="shared" si="114"/>
+        <v>2.8203961079502573</v>
+      </c>
+      <c r="T125" s="4">
+        <f t="shared" si="115"/>
+        <v>0.95600186272994325</v>
+      </c>
+      <c r="U125" s="4">
+        <f t="shared" si="116"/>
+        <v>2.6963039328367282</v>
+      </c>
+      <c r="V125" s="5">
+        <f t="shared" si="117"/>
+        <v>13.48151966418364</v>
+      </c>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4">
+        <f t="shared" si="118"/>
+        <v>84.994825041882081</v>
+      </c>
+      <c r="Y125" s="4">
+        <f t="shared" si="119"/>
+        <v>424.97412520941043</v>
+      </c>
+    </row>
+    <row r="126" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+      <c r="D126">
+        <v>1998.21955825195</v>
+      </c>
+      <c r="E126">
+        <v>125.01835797647701</v>
+      </c>
+      <c r="F126">
+        <v>7.0339133871971798E-2</v>
+      </c>
+      <c r="G126">
+        <v>35.156490432944302</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="106"/>
+        <v>47.081939133478258</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="109"/>
+        <v>0.16567105810520649</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="110"/>
+        <v>17.983976024267552</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="111"/>
+        <v>3.1254589494119251</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="112"/>
+        <v>0.52734735649416453</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="113"/>
+        <v>7.0339133871971909E-2</v>
+      </c>
+      <c r="S126" s="4">
+        <f t="shared" si="114"/>
+        <v>2.4850658715780973</v>
+      </c>
+      <c r="T126" s="4">
+        <f t="shared" si="115"/>
+        <v>0.84363187139826024</v>
+      </c>
+      <c r="U126" s="4">
+        <f t="shared" si="116"/>
+        <v>2.096480771787379</v>
+      </c>
+      <c r="V126" s="5">
+        <f t="shared" si="117"/>
+        <v>10.482403858936895</v>
+      </c>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4">
+        <f t="shared" si="118"/>
+        <v>84.747490440260862</v>
+      </c>
+      <c r="Y126" s="4">
+        <f t="shared" si="119"/>
+        <v>423.73745220130434</v>
+      </c>
+    </row>
+    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
         <v>40</v>
       </c>
-      <c r="D117">
-        <v>2641.6062832468901</v>
-      </c>
-      <c r="E117">
-        <v>142.99337517183301</v>
-      </c>
-      <c r="F117">
-        <v>0.10512810601228199</v>
-      </c>
-      <c r="G117">
-        <v>64.611651706515801</v>
-      </c>
-      <c r="H117" s="1">
-        <f t="shared" si="78"/>
-        <v>62.241381698438012</v>
-      </c>
-      <c r="I117" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="81"/>
-        <v>0.30447523550623873</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="82"/>
-        <v>23.774456549222009</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="83"/>
-        <v>3.5748343792958255</v>
-      </c>
-      <c r="P117">
-        <f t="shared" si="84"/>
-        <v>0.96917477559773701</v>
-      </c>
-      <c r="Q117">
-        <f t="shared" si="85"/>
-        <v>0.10512810601228209</v>
-      </c>
-      <c r="S117" s="4">
-        <f t="shared" si="86"/>
-        <v>4.5671285325935802</v>
-      </c>
-      <c r="T117" s="4">
-        <f t="shared" si="87"/>
-        <v>1.3555519959342091</v>
-      </c>
-      <c r="U117" s="4">
-        <f t="shared" si="88"/>
-        <v>6.1909801980453034</v>
-      </c>
-      <c r="V117" s="5">
-        <f t="shared" si="89"/>
-        <v>30.954900990226516</v>
-      </c>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4">
-        <f t="shared" si="90"/>
-        <v>112.03448705718841</v>
-      </c>
-      <c r="Y117" s="4">
-        <f t="shared" si="91"/>
-        <v>560.17243528594213</v>
-      </c>
-    </row>
-    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B118">
+      <c r="D127">
+        <v>1995.27945291629</v>
+      </c>
+      <c r="E127">
+        <v>124.870714772154</v>
+      </c>
+      <c r="F127">
+        <v>5.8308118158195602E-2</v>
+      </c>
+      <c r="G127">
+        <v>29.1045701268493</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="106"/>
+        <v>47.012664533553583</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="109"/>
+        <v>0.13715205554459808</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="110"/>
+        <v>17.957515076246612</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="111"/>
+        <v>3.1217678693038504</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="112"/>
+        <v>0.43656855190273952</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="113"/>
+        <v>5.8308118158195726E-2</v>
+      </c>
+      <c r="S127" s="4">
+        <f t="shared" si="114"/>
+        <v>2.0572808331689711</v>
+      </c>
+      <c r="T127" s="4">
+        <f t="shared" si="115"/>
+        <v>0.69923288690919494</v>
+      </c>
+      <c r="U127" s="4">
+        <f t="shared" si="116"/>
+        <v>1.4385184161596936</v>
+      </c>
+      <c r="V127" s="5">
+        <f t="shared" si="117"/>
+        <v>7.1925920807984678</v>
+      </c>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4">
+        <f t="shared" si="118"/>
+        <v>84.622796160396462</v>
+      </c>
+      <c r="Y127" s="4">
+        <f t="shared" si="119"/>
+        <v>423.11398080198228</v>
+      </c>
+    </row>
+    <row r="128" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>50</v>
+      </c>
+      <c r="D128">
+        <v>1992.3721851356099</v>
+      </c>
+      <c r="E128">
+        <v>125.11930455139399</v>
+      </c>
+      <c r="F128">
+        <v>4.4324648866239102E-2</v>
+      </c>
+      <c r="G128">
+        <v>22.1305750922246</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="106"/>
+        <v>46.944163650290065</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="109"/>
+        <v>0.10428787819417508</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="110"/>
+        <v>17.931349666220488</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="111"/>
+        <v>3.1279826137848499</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="112"/>
+        <v>0.33195862638336898</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="113"/>
+        <v>4.4324648866239172E-2</v>
+      </c>
+      <c r="S128" s="4">
+        <f t="shared" si="114"/>
+        <v>1.5643181729126261</v>
+      </c>
+      <c r="T128" s="4">
+        <f t="shared" si="115"/>
+        <v>0.53062735214774737</v>
+      </c>
+      <c r="U128" s="4">
+        <f t="shared" si="116"/>
+        <v>0.83007001000922875</v>
+      </c>
+      <c r="V128" s="5">
+        <f t="shared" si="117"/>
+        <v>4.1503500500461437</v>
+      </c>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4">
+        <f t="shared" si="118"/>
+        <v>84.499494570522103</v>
+      </c>
+      <c r="Y128" s="4">
+        <f t="shared" si="119"/>
+        <v>422.49747285261049</v>
+      </c>
+    </row>
+    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J129" s="2"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+    </row>
+    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J130" s="2"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+    </row>
+    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J131" s="2"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+    </row>
+    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>2039.8637443425</v>
+      </c>
+      <c r="E132">
+        <v>141.22991291272601</v>
+      </c>
+      <c r="F132">
+        <v>0.144636164448046</v>
+      </c>
+      <c r="G132">
+        <v>77.632008353281705</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" ref="H132:H137" si="120">2*PI()*150000*Ipt*Ipt*D132*(10^-9)</f>
+        <v>48.063157151629248</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" ref="I132:I137" si="121">2*PI()*150000*Ist*Ist*E132*(10^-9)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="2">
+        <f t="shared" ref="J132:J137" si="122">F132*SQRT(H132*I132)</f>
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ref="K132:K137" si="123">2*PI()*150000*G132*Ipt*(10^-9)</f>
+        <v>0.36583222068913696</v>
+      </c>
+      <c r="N132">
+        <f t="shared" ref="N132:N137" si="124">D132*$D$1^2*10^-3</f>
+        <v>18.358773699082501</v>
+      </c>
+      <c r="O132">
+        <f t="shared" ref="O132:O137" si="125">E132*$D$2^2*10^-3</f>
+        <v>3.5307478228181504</v>
+      </c>
+      <c r="P132">
+        <f t="shared" ref="P132:P137" si="126">G132*$D$1*$D$2*10^-3</f>
+        <v>1.1644801252992256</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" ref="Q132:Q137" si="127">P132/SQRT(N132*O132)</f>
+        <v>0.14463616444804603</v>
+      </c>
+      <c r="S132" s="4">
+        <f t="shared" si="114"/>
+        <v>5.4874833103370531</v>
+      </c>
+      <c r="T132" s="4">
+        <f t="shared" si="115"/>
+        <v>1.6490559277181229</v>
+      </c>
+      <c r="U132" s="4">
+        <f t="shared" si="116"/>
+        <v>9.0491668811655845</v>
+      </c>
+      <c r="V132" s="5">
+        <f t="shared" si="117"/>
+        <v>45.245834405827921</v>
+      </c>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4">
+        <f t="shared" si="118"/>
+        <v>86.513682872932648</v>
+      </c>
+      <c r="Y132" s="4">
+        <f t="shared" si="119"/>
+        <v>432.56841436466323</v>
+      </c>
+    </row>
+    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C133">
         <v>10</v>
       </c>
-      <c r="C118">
-        <v>45</v>
-      </c>
-      <c r="D118">
-        <v>2634.37520391521</v>
-      </c>
-      <c r="E118">
-        <v>142.65245691932299</v>
-      </c>
-      <c r="F118">
-        <v>9.3983947384347399E-2</v>
-      </c>
-      <c r="G118">
-        <v>57.614543431150103</v>
-      </c>
-      <c r="H118" s="1">
-        <f t="shared" si="78"/>
-        <v>62.07100340564353</v>
-      </c>
-      <c r="I118" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="81"/>
-        <v>0.27150213957484687</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="82"/>
-        <v>23.709376835236892</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="83"/>
-        <v>3.566311422983075</v>
-      </c>
-      <c r="P118">
-        <f t="shared" si="84"/>
-        <v>0.86421815146725156</v>
-      </c>
-      <c r="Q118">
-        <f t="shared" si="85"/>
-        <v>9.3983947384347399E-2</v>
-      </c>
-      <c r="S118" s="4">
-        <f t="shared" si="86"/>
-        <v>4.0725320936227032</v>
-      </c>
-      <c r="T118" s="4">
-        <f t="shared" si="87"/>
-        <v>1.2116414538250952</v>
-      </c>
-      <c r="U118" s="4">
-        <f t="shared" si="88"/>
-        <v>4.9344487066663714</v>
-      </c>
-      <c r="V118" s="5">
-        <f t="shared" si="89"/>
-        <v>24.672243533331859</v>
-      </c>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4">
-        <f t="shared" si="90"/>
-        <v>111.72780613015834</v>
-      </c>
-      <c r="Y118" s="4">
-        <f t="shared" si="91"/>
-        <v>558.63903065079171</v>
-      </c>
-    </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <v>11</v>
-      </c>
-      <c r="C119">
+      <c r="D133">
+        <v>2035.1747150291901</v>
+      </c>
+      <c r="E133">
+        <v>140.242441896256</v>
+      </c>
+      <c r="F133">
+        <v>0.139061412822157</v>
+      </c>
+      <c r="G133">
+        <v>74.2928842360689</v>
+      </c>
+      <c r="H133" s="1">
+        <f t="shared" si="120"/>
+        <v>47.952674501305538</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="123"/>
+        <v>0.35009696899504655</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="124"/>
+        <v>18.31657243526271</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="125"/>
+        <v>3.5060610474064</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="126"/>
+        <v>1.1143932635410334</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="127"/>
+        <v>0.13906141282215698</v>
+      </c>
+      <c r="S133" s="4">
+        <f t="shared" si="114"/>
+        <v>5.2514545349256974</v>
+      </c>
+      <c r="T133" s="4">
+        <f t="shared" si="115"/>
+        <v>1.5892382483833289</v>
+      </c>
+      <c r="U133" s="4">
+        <f t="shared" si="116"/>
+        <v>8.3458124065500048</v>
+      </c>
+      <c r="V133" s="5">
+        <f t="shared" si="117"/>
+        <v>41.729062032750022</v>
+      </c>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4">
+        <f t="shared" si="118"/>
+        <v>86.314814102349956</v>
+      </c>
+      <c r="Y133" s="4">
+        <f t="shared" si="119"/>
+        <v>431.57407051174977</v>
+      </c>
+    </row>
+    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>2027.80941189179</v>
+      </c>
+      <c r="E134">
+        <v>138.25867448778999</v>
+      </c>
+      <c r="F134">
+        <v>0.123957503841301</v>
+      </c>
+      <c r="G134">
+        <v>65.634560859130801</v>
+      </c>
+      <c r="H134" s="1">
+        <f t="shared" si="120"/>
+        <v>47.77913363459615</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="123"/>
+        <v>0.30929558132495633</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="124"/>
+        <v>18.250284707026108</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="125"/>
+        <v>3.4564668621947501</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="126"/>
+        <v>0.98451841288696196</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="127"/>
+        <v>0.12395750384130121</v>
+      </c>
+      <c r="S134" s="4">
+        <f t="shared" si="114"/>
+        <v>4.6394337198743427</v>
+      </c>
+      <c r="T134" s="4">
+        <f t="shared" si="115"/>
+        <v>1.424168742445028</v>
+      </c>
+      <c r="U134" s="4">
+        <f t="shared" si="116"/>
+        <v>6.6073364864905013</v>
+      </c>
+      <c r="V134" s="5">
+        <f t="shared" si="117"/>
+        <v>33.036682432452508</v>
+      </c>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4">
+        <f t="shared" si="118"/>
+        <v>86.00244054227305</v>
+      </c>
+      <c r="Y134" s="4">
+        <f t="shared" si="119"/>
+        <v>430.01220271136526</v>
+      </c>
+    </row>
+    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>30</v>
+      </c>
+      <c r="D135">
+        <v>2019.3894169964601</v>
+      </c>
+      <c r="E135">
+        <v>135.53102202236801</v>
+      </c>
+      <c r="F135">
+        <v>0.10154827757873799</v>
+      </c>
+      <c r="G135">
+        <v>53.125368569425497</v>
+      </c>
+      <c r="H135" s="1">
+        <f t="shared" si="120"/>
+        <v>47.580742178797905</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="123"/>
+        <v>0.25034740142543588</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="124"/>
+        <v>18.17450475296814</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="125"/>
+        <v>3.3882755505592006</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="126"/>
+        <v>0.79688052854138258</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="127"/>
+        <v>0.10154827757873806</v>
+      </c>
+      <c r="S135" s="4">
+        <f t="shared" si="114"/>
+        <v>3.7552110213815384</v>
+      </c>
+      <c r="T135" s="4">
+        <f t="shared" si="115"/>
+        <v>1.1759381972488416</v>
+      </c>
+      <c r="U135" s="4">
+        <f t="shared" si="116"/>
+        <v>4.4158960787723878</v>
+      </c>
+      <c r="V135" s="5">
+        <f t="shared" si="117"/>
+        <v>22.079480393861939</v>
+      </c>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4">
+        <f t="shared" si="118"/>
+        <v>85.645335921836235</v>
+      </c>
+      <c r="Y135" s="4">
+        <f t="shared" si="119"/>
+        <v>428.22667960918119</v>
+      </c>
+    </row>
+    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>40</v>
+      </c>
+      <c r="D136">
+        <v>2007.52580203562</v>
+      </c>
+      <c r="E136">
+        <v>131.98080471728599</v>
+      </c>
+      <c r="F136">
+        <v>7.4131406077425202E-2</v>
+      </c>
+      <c r="G136">
+        <v>38.158227376831903</v>
+      </c>
+      <c r="H136" s="1">
+        <f t="shared" si="120"/>
+        <v>47.301212336752961</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="123"/>
+        <v>0.17981641020159603</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="124"/>
+        <v>18.067732218320579</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="125"/>
+        <v>3.2995201179321501</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="126"/>
+        <v>0.5723734106524786</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="127"/>
+        <v>7.4131406077425271E-2</v>
+      </c>
+      <c r="S136" s="4">
+        <f t="shared" si="114"/>
+        <v>2.6972461530239404</v>
+      </c>
+      <c r="T136" s="4">
+        <f t="shared" si="115"/>
+        <v>0.86735857063237431</v>
+      </c>
+      <c r="U136" s="4">
+        <f t="shared" si="116"/>
+        <v>2.3394795679305154</v>
+      </c>
+      <c r="V136" s="5">
+        <f t="shared" si="117"/>
+        <v>11.697397839652577</v>
+      </c>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4">
+        <f t="shared" si="118"/>
+        <v>85.142182206155326</v>
+      </c>
+      <c r="Y136" s="4">
+        <f t="shared" si="119"/>
+        <v>425.71091103077663</v>
+      </c>
+    </row>
+    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C137">
         <v>50</v>
       </c>
-      <c r="D119">
-        <v>2629.1421678853499</v>
-      </c>
-      <c r="E119">
-        <v>142.631411297819</v>
-      </c>
-      <c r="F119">
-        <v>8.2286375099905801E-2</v>
-      </c>
-      <c r="G119">
-        <v>50.3897908992368</v>
-      </c>
-      <c r="H119" s="1">
-        <f t="shared" si="78"/>
-        <v>61.947702899038184</v>
-      </c>
-      <c r="I119" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="81"/>
-        <v>0.23745629535745222</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="82"/>
-        <v>23.662279510968151</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="83"/>
-        <v>3.565785282445475</v>
-      </c>
-      <c r="P119">
-        <f t="shared" si="84"/>
-        <v>0.75584686348855201</v>
-      </c>
-      <c r="Q119">
-        <f t="shared" si="85"/>
-        <v>8.2286375099905718E-2</v>
-      </c>
-      <c r="S119" s="4">
-        <f t="shared" si="86"/>
-        <v>3.5618444303617833</v>
-      </c>
-      <c r="T119" s="4">
-        <f t="shared" si="87"/>
-        <v>1.0598603163370786</v>
-      </c>
-      <c r="U119" s="4">
-        <f t="shared" si="88"/>
-        <v>3.7750575647067008</v>
-      </c>
-      <c r="V119" s="5">
-        <f t="shared" si="89"/>
-        <v>18.875287823533505</v>
-      </c>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4">
-        <f t="shared" si="90"/>
-        <v>111.50586521826874</v>
-      </c>
-      <c r="Y119" s="4">
-        <f t="shared" si="91"/>
-        <v>557.52932609134371</v>
+      <c r="D137">
+        <v>1999.06498930416</v>
+      </c>
+      <c r="E137">
+        <v>128.99100524109599</v>
+      </c>
+      <c r="F137">
+        <v>4.4685689702723103E-2</v>
+      </c>
+      <c r="G137">
+        <v>22.6914179811913</v>
+      </c>
+      <c r="H137" s="1">
+        <f t="shared" si="120"/>
+        <v>47.10185913334881</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="123"/>
+        <v>0.10693078804386888</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="124"/>
+        <v>17.99158490373744</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="125"/>
+        <v>3.2247751310273998</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="126"/>
+        <v>0.34037126971786952</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="127"/>
+        <v>4.4685689702722999E-2</v>
+      </c>
+      <c r="S137" s="4">
+        <f t="shared" si="114"/>
+        <v>1.6039618206580331</v>
+      </c>
+      <c r="T137" s="4">
+        <f t="shared" si="115"/>
+        <v>0.52774419283218155</v>
+      </c>
+      <c r="U137" s="4">
+        <f t="shared" si="116"/>
+        <v>0.84648153637681001</v>
+      </c>
+      <c r="V137" s="5">
+        <f t="shared" si="117"/>
+        <v>4.2324076818840499</v>
+      </c>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4">
+        <f t="shared" si="118"/>
+        <v>84.783346440027842</v>
+      </c>
+      <c r="Y137" s="4">
+        <f t="shared" si="119"/>
+        <v>423.91673220013922</v>
       </c>
     </row>
   </sheetData>
@@ -14404,7 +15116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A4C672-24E7-44AA-9133-057EC6FAFF93}">
   <dimension ref="B1:AA123"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="F86" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -24947,8 +25659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C17C92A-511E-405A-AC65-947739AFAEE7}">
   <dimension ref="B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
